--- a/literature_database/literature_database.xlsx
+++ b/literature_database/literature_database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/verma/Desktop/Gene_Drive/Literature/Database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/verma/Online_resources/literature_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DE5894-6BD9-314B-8D42-47F909FB42A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D75443-C67B-FA4A-9EEE-6A132461D371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="1300" windowWidth="19800" windowHeight="14580" xr2:uid="{48D1C182-AEF1-824A-AF31-3D6131FB60DC}"/>
   </bookViews>
@@ -16,53 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="4" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Summary!$B$2:$H$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Summary!$B$3:$H$3</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Summary!$B$2:$H$2</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Summary!$B$3:$H$3</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Summary!$B$4:$H$4</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Summary!$B$5:$H$5</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Summary!$B$6:$H$6</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Summary!$B$2:$H$2</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Summary!$B$3:$H$3</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Summary!$B$4:$H$4</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Summary!$B$5:$H$5</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Summary!$B$6:$H$6</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Summary!$B$4:$H$4</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Summary!$B$2:$H$2</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Summary!$B$3:$H$3</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Summary!$B$4:$H$4</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Summary!$B$5:$H$5</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Summary!$B$6:$H$6</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Summary!$B$2:$H$2</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Summary!$B$3:$H$3</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Summary!$B$4:$H$4</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Summary!$B$5:$H$5</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Summary!$B$6:$H$6</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Summary!$B$5:$H$5</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Summary!$B$2:$H$2</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Summary!$B$3:$H$3</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Summary!$B$4:$H$4</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Summary!$B$5:$H$5</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Summary!$B$6:$H$6</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Summary!$B$2:$H$2</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Summary!$B$3:$H$3</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Summary!$B$4:$H$4</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Summary!$B$5:$H$5</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Summary!$B$6:$H$6</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Summary!$B$6:$H$6</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Summary!$B$2:$H$2</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Summary!$B$3:$H$3</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Summary!$B$4:$H$4</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Summary!$B$5:$H$5</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Summary!$B$6:$H$6</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Summary!$B$2:$H$2</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Summary!$B$3:$H$3</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Summary!$B$4:$H$4</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Summary!$B$5:$H$5</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Summary!$B$6:$H$6</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1418,15 +1371,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1456,6 +1400,15 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3803,8 +3756,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>939800</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -4133,7 +4086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9F55AF-FB3A-6E45-BFC6-20E562A75AFE}">
   <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4142,7 +4095,7 @@
     <col min="2" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="6" width="10.83203125" style="16" customWidth="1"/>
     <col min="7" max="8" width="29.6640625" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="72" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="69" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="16.1640625" customWidth="1"/>
@@ -4150,7 +4103,7 @@
     <col min="14" max="14" width="11.83203125" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
     <col min="16" max="16" width="19.33203125" customWidth="1"/>
-    <col min="17" max="17" width="18.33203125" style="74" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" style="71" customWidth="1"/>
     <col min="18" max="18" width="32.33203125" customWidth="1"/>
     <col min="19" max="19" width="31.83203125" customWidth="1"/>
     <col min="20" max="20" width="27.6640625" customWidth="1"/>
@@ -4158,29 +4111,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="24" customHeight="1">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="67"/>
+      <c r="A1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="83"/>
     </row>
     <row r="2" spans="1:21" s="7" customFormat="1" ht="51">
       <c r="A2" s="5" t="s">
@@ -4207,7 +4160,7 @@
       <c r="H2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="66" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -4272,7 +4225,7 @@
       <c r="H3" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="I3" s="68">
+      <c r="I3" s="65">
         <v>70</v>
       </c>
       <c r="J3" s="10" t="s">
@@ -4338,7 +4291,7 @@
       <c r="H4" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="70">
+      <c r="I4" s="67">
         <v>100</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -4398,7 +4351,7 @@
       <c r="H5" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="70">
+      <c r="I5" s="67">
         <v>100</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -4460,7 +4413,7 @@
       <c r="H6" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="70" t="s">
+      <c r="I6" s="67" t="s">
         <v>39</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -4526,7 +4479,7 @@
       <c r="H7" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="70">
+      <c r="I7" s="67">
         <v>10</v>
       </c>
       <c r="J7" s="3" t="s">
@@ -4588,7 +4541,7 @@
       <c r="H8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="70" t="s">
+      <c r="I8" s="67" t="s">
         <v>39</v>
       </c>
       <c r="J8" s="10" t="s">
@@ -4654,7 +4607,7 @@
       <c r="H9" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="70" t="s">
+      <c r="I9" s="67" t="s">
         <v>54</v>
       </c>
       <c r="J9" s="3" t="s">
@@ -4714,7 +4667,7 @@
       <c r="H10" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="70">
+      <c r="I10" s="67">
         <v>10</v>
       </c>
       <c r="J10" s="45" t="s">
@@ -4776,7 +4729,7 @@
       <c r="H11" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="70">
+      <c r="I11" s="67">
         <v>100</v>
       </c>
       <c r="J11" s="3" t="s">
@@ -4837,7 +4790,7 @@
       <c r="H12" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="70" t="s">
+      <c r="I12" s="67" t="s">
         <v>39</v>
       </c>
       <c r="J12" s="33" t="s">
@@ -4897,7 +4850,7 @@
       <c r="H13" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="70" t="s">
+      <c r="I13" s="67" t="s">
         <v>39</v>
       </c>
       <c r="J13" s="3" t="s">
@@ -4959,7 +4912,7 @@
       <c r="H14" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="68">
+      <c r="I14" s="65">
         <v>90</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -5019,7 +4972,7 @@
       <c r="H15" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="70">
+      <c r="I15" s="67">
         <v>30</v>
       </c>
       <c r="J15" s="45" t="s">
@@ -5083,7 +5036,7 @@
       <c r="H16" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="70">
+      <c r="I16" s="67">
         <v>80</v>
       </c>
       <c r="J16" s="5" t="s">
@@ -5143,7 +5096,7 @@
       <c r="H17" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="I17" s="70">
+      <c r="I17" s="67">
         <v>80</v>
       </c>
       <c r="J17" s="5" t="s">
@@ -5205,7 +5158,7 @@
       <c r="H18" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="I18" s="70">
+      <c r="I18" s="67">
         <v>70</v>
       </c>
       <c r="J18" s="5" t="s">
@@ -5267,7 +5220,7 @@
       <c r="H19" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="I19" s="70">
+      <c r="I19" s="67">
         <v>70</v>
       </c>
       <c r="J19" s="3" t="s">
@@ -5329,7 +5282,7 @@
       <c r="H20" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="I20" s="70">
+      <c r="I20" s="67">
         <v>90</v>
       </c>
       <c r="J20" s="3" t="s">
@@ -5389,7 +5342,7 @@
       <c r="H21" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="I21" s="70">
+      <c r="I21" s="67">
         <v>40</v>
       </c>
       <c r="J21" s="3" t="s">
@@ -5449,7 +5402,7 @@
       <c r="H22" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="I22" s="70">
+      <c r="I22" s="67">
         <v>70</v>
       </c>
       <c r="J22" s="3" t="s">
@@ -5509,7 +5462,7 @@
       <c r="H23" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="I23" s="70">
+      <c r="I23" s="67">
         <v>90</v>
       </c>
       <c r="J23" s="3" t="s">
@@ -5569,7 +5522,7 @@
       <c r="H24" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="I24" s="70">
+      <c r="I24" s="67">
         <v>80</v>
       </c>
       <c r="J24" s="3" t="s">
@@ -5631,7 +5584,7 @@
       <c r="H25" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="I25" s="70">
+      <c r="I25" s="67">
         <v>30</v>
       </c>
       <c r="J25" s="45" t="s">
@@ -5693,7 +5646,7 @@
       <c r="H26" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="I26" s="70">
+      <c r="I26" s="67">
         <v>30</v>
       </c>
       <c r="J26" s="45" t="s">
@@ -5753,7 +5706,7 @@
       <c r="H27" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="I27" s="70">
+      <c r="I27" s="67">
         <v>90</v>
       </c>
       <c r="J27" s="5" t="s">
@@ -5813,7 +5766,7 @@
       <c r="H28" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="I28" s="70">
+      <c r="I28" s="67">
         <v>90</v>
       </c>
       <c r="J28" s="3" t="s">
@@ -5873,13 +5826,13 @@
       <c r="H29" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="I29" s="70">
+      <c r="I29" s="67">
         <v>90</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K29" s="73" t="s">
+      <c r="K29" s="70" t="s">
         <v>162</v>
       </c>
       <c r="L29" s="10" t="s">
@@ -5933,7 +5886,7 @@
       <c r="H30" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="I30" s="70">
+      <c r="I30" s="67">
         <v>90</v>
       </c>
       <c r="J30" s="5" t="s">
@@ -5997,7 +5950,7 @@
       <c r="H31" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="I31" s="70" t="s">
+      <c r="I31" s="67" t="s">
         <v>54</v>
       </c>
       <c r="J31" s="3" t="s">
@@ -6059,7 +6012,7 @@
       <c r="H32" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="I32" s="70">
+      <c r="I32" s="67">
         <v>60</v>
       </c>
       <c r="J32" s="45" t="s">
@@ -6119,7 +6072,7 @@
       <c r="H33" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="I33" s="68">
+      <c r="I33" s="65">
         <v>80</v>
       </c>
       <c r="J33" s="5" t="s">
@@ -6183,7 +6136,7 @@
       <c r="H34" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="I34" s="70">
+      <c r="I34" s="67">
         <v>90</v>
       </c>
       <c r="J34" s="3" t="s">
@@ -6243,7 +6196,7 @@
       <c r="H35" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="I35" s="70">
+      <c r="I35" s="67">
         <v>100</v>
       </c>
       <c r="J35" s="3" t="s">
@@ -6303,7 +6256,7 @@
       <c r="H36" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="I36" s="70">
+      <c r="I36" s="67">
         <v>90</v>
       </c>
       <c r="J36" s="3" t="s">
@@ -6365,7 +6318,7 @@
       <c r="H37" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="I37" s="70">
+      <c r="I37" s="67">
         <v>70</v>
       </c>
       <c r="J37" s="5" t="s">
@@ -6655,7 +6608,7 @@
       <c r="H42" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="I42" s="68">
+      <c r="I42" s="65">
         <v>50</v>
       </c>
       <c r="J42" s="7" t="s">
@@ -6717,7 +6670,7 @@
       <c r="H43" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="I43" s="70">
+      <c r="I43" s="67">
         <v>100</v>
       </c>
       <c r="J43" s="3" t="s">
@@ -6777,7 +6730,7 @@
       <c r="H44" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="I44" s="70">
+      <c r="I44" s="67">
         <v>100</v>
       </c>
       <c r="J44" s="10" t="s">
@@ -6837,7 +6790,7 @@
       <c r="H45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I45" s="70">
+      <c r="I45" s="67">
         <v>100</v>
       </c>
       <c r="J45" s="3" t="s">
@@ -6899,7 +6852,7 @@
       <c r="H46" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="I46" s="70">
+      <c r="I46" s="67">
         <v>100</v>
       </c>
       <c r="J46" s="10" t="s">
@@ -6961,7 +6914,7 @@
       <c r="H47" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="I47" s="70">
+      <c r="I47" s="67">
         <v>80</v>
       </c>
       <c r="J47" s="5" t="s">
@@ -7027,7 +6980,7 @@
       <c r="H48" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="I48" s="70">
+      <c r="I48" s="67">
         <v>5</v>
       </c>
       <c r="J48" s="45" t="s">
@@ -7085,7 +7038,7 @@
       <c r="H49" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="I49" s="70" t="s">
+      <c r="I49" s="67" t="s">
         <v>39</v>
       </c>
       <c r="J49" s="3" t="s">
@@ -7147,7 +7100,7 @@
       <c r="H50" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="I50" s="70">
+      <c r="I50" s="67">
         <v>5</v>
       </c>
       <c r="J50" s="3" t="s">
@@ -7194,7 +7147,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="17"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="70"/>
+      <c r="I51" s="67"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -7217,7 +7170,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="17"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="70"/>
+      <c r="I52" s="67"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -7240,7 +7193,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="17"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="70"/>
+      <c r="I53" s="67"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -7263,7 +7216,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="17"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="70"/>
+      <c r="I54" s="67"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
@@ -7286,7 +7239,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="17"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="70"/>
+      <c r="I55" s="67"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -7309,7 +7262,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="17"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="70"/>
+      <c r="I56" s="67"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -7332,7 +7285,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="17"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="70"/>
+      <c r="I57" s="67"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -7355,7 +7308,7 @@
       <c r="F58" s="28"/>
       <c r="G58" s="29"/>
       <c r="H58" s="30"/>
-      <c r="I58" s="71"/>
+      <c r="I58" s="68"/>
       <c r="J58" s="29"/>
       <c r="K58" s="29"/>
       <c r="L58" s="29"/>
@@ -7378,7 +7331,7 @@
       <c r="F59" s="28"/>
       <c r="G59" s="29"/>
       <c r="H59" s="30"/>
-      <c r="I59" s="71"/>
+      <c r="I59" s="68"/>
       <c r="J59" s="29"/>
       <c r="K59" s="29"/>
       <c r="L59" s="29"/>
@@ -7401,7 +7354,7 @@
       <c r="F60" s="28"/>
       <c r="G60" s="29"/>
       <c r="H60" s="30"/>
-      <c r="I60" s="71"/>
+      <c r="I60" s="68"/>
       <c r="J60" s="29"/>
       <c r="K60" s="29"/>
       <c r="L60" s="29"/>
@@ -7424,7 +7377,7 @@
       <c r="F61" s="28"/>
       <c r="G61" s="29"/>
       <c r="H61" s="30"/>
-      <c r="I61" s="71"/>
+      <c r="I61" s="68"/>
       <c r="J61" s="29"/>
       <c r="K61" s="29"/>
       <c r="L61" s="29"/>
@@ -7447,7 +7400,7 @@
       <c r="F62" s="28"/>
       <c r="G62" s="29"/>
       <c r="H62" s="30"/>
-      <c r="I62" s="71"/>
+      <c r="I62" s="68"/>
       <c r="J62" s="29"/>
       <c r="K62" s="29"/>
       <c r="L62" s="29"/>
@@ -7470,7 +7423,7 @@
       <c r="F63" s="28"/>
       <c r="G63" s="29"/>
       <c r="H63" s="30"/>
-      <c r="I63" s="71"/>
+      <c r="I63" s="68"/>
       <c r="J63" s="29"/>
       <c r="K63" s="29"/>
       <c r="L63" s="29"/>
@@ -7493,7 +7446,7 @@
       <c r="F64" s="28"/>
       <c r="G64" s="29"/>
       <c r="H64" s="30"/>
-      <c r="I64" s="71"/>
+      <c r="I64" s="68"/>
       <c r="J64" s="29"/>
       <c r="K64" s="29"/>
       <c r="L64" s="29"/>
@@ -7516,7 +7469,7 @@
       <c r="F65" s="28"/>
       <c r="G65" s="29"/>
       <c r="H65" s="30"/>
-      <c r="I65" s="71"/>
+      <c r="I65" s="68"/>
       <c r="J65" s="29"/>
       <c r="K65" s="29"/>
       <c r="L65" s="29"/>
@@ -7539,7 +7492,7 @@
       <c r="F66" s="28"/>
       <c r="G66" s="29"/>
       <c r="H66" s="30"/>
-      <c r="I66" s="71"/>
+      <c r="I66" s="68"/>
       <c r="J66" s="29"/>
       <c r="K66" s="29"/>
       <c r="L66" s="29"/>
@@ -7562,7 +7515,7 @@
       <c r="F67" s="28"/>
       <c r="G67" s="29"/>
       <c r="H67" s="30"/>
-      <c r="I67" s="71"/>
+      <c r="I67" s="68"/>
       <c r="J67" s="29"/>
       <c r="K67" s="29"/>
       <c r="L67" s="29"/>
@@ -7585,7 +7538,7 @@
       <c r="F68" s="28"/>
       <c r="G68" s="29"/>
       <c r="H68" s="30"/>
-      <c r="I68" s="71"/>
+      <c r="I68" s="68"/>
       <c r="J68" s="29"/>
       <c r="K68" s="29"/>
       <c r="L68" s="29"/>
@@ -7655,7 +7608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178CD172-0D52-754C-82C4-99997D10B8F8}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
@@ -7671,221 +7624,221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="73" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="82">
-        <v>1</v>
-      </c>
-      <c r="C1" s="82">
+      <c r="B1" s="79">
+        <v>1</v>
+      </c>
+      <c r="C1" s="79">
         <v>2</v>
       </c>
-      <c r="D1" s="82">
+      <c r="D1" s="79">
         <v>3</v>
       </c>
-      <c r="E1" s="82">
+      <c r="E1" s="79">
         <v>4</v>
       </c>
-      <c r="F1" s="82">
+      <c r="F1" s="79">
         <v>5</v>
       </c>
-      <c r="G1" s="82">
+      <c r="G1" s="79">
         <v>6</v>
       </c>
-      <c r="H1" s="82">
+      <c r="H1" s="79">
         <v>7</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="73" t="s">
         <v>272</v>
       </c>
-      <c r="K1" s="82">
-        <v>1</v>
-      </c>
-      <c r="L1" s="83">
+      <c r="K1" s="79">
+        <v>1</v>
+      </c>
+      <c r="L1" s="80">
         <v>2</v>
       </c>
-      <c r="M1" s="83">
+      <c r="M1" s="80">
         <v>3</v>
       </c>
-      <c r="N1" s="82">
+      <c r="N1" s="79">
         <v>4</v>
       </c>
-      <c r="O1" s="82">
+      <c r="O1" s="79">
         <v>5</v>
       </c>
-      <c r="P1" s="82">
+      <c r="P1" s="79">
         <v>6</v>
       </c>
-      <c r="Q1" s="82">
+      <c r="Q1" s="79">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77">
+      <c r="A2" s="73"/>
+      <c r="B2" s="74">
         <f>COUNTIF(Sheet1!B3:B100,"Peer reviewed")</f>
         <v>40</v>
       </c>
-      <c r="C2" s="77">
+      <c r="C2" s="74">
         <f>COUNTIF(Sheet1!E3:E100,1)</f>
         <v>40</v>
       </c>
-      <c r="D2" s="77">
+      <c r="D2" s="74">
         <f>COUNTIF(Sheet1!I3:I101,"&lt;=50")</f>
         <v>9</v>
       </c>
-      <c r="E2" s="77">
+      <c r="E2" s="74">
         <f>COUNTIF(Sheet1!J3:J100,"*Mosquitoes*")</f>
         <v>16</v>
       </c>
-      <c r="F2" s="77">
+      <c r="F2" s="74">
         <f>COUNTIF(Sheet1!M3:M100,1)</f>
         <v>25</v>
       </c>
-      <c r="G2" s="77">
+      <c r="G2" s="74">
         <f>COUNTIF(Sheet1!P3:P100,"*Suppression*")+COUNTIF(Sheet1!P3:P100,"*Both*")</f>
         <v>17</v>
       </c>
-      <c r="H2" s="77">
+      <c r="H2" s="74">
         <f>COUNTIF(Sheet1!Q3:Q100,1)</f>
         <v>24</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="77" t="s">
+      <c r="J2" s="76"/>
+      <c r="K2" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="L2" s="77" t="s">
+      <c r="L2" s="74" t="s">
         <v>273</v>
       </c>
-      <c r="M2" s="77" t="s">
+      <c r="M2" s="74" t="s">
         <v>274</v>
       </c>
-      <c r="N2" s="77" t="s">
+      <c r="N2" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="77" t="s">
+      <c r="O2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="77" t="s">
+      <c r="P2" s="74" t="s">
         <v>278</v>
       </c>
-      <c r="Q2" s="77" t="s">
+      <c r="Q2" s="74" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="76"/>
-      <c r="B3" s="75">
+      <c r="A3" s="73"/>
+      <c r="B3" s="72">
         <f>COUNTIF(Sheet1!B3:B100,"Report")</f>
         <v>4</v>
       </c>
-      <c r="C3" s="75">
+      <c r="C3" s="72">
         <f>COUNTIF(Sheet1!E3:E100,0)</f>
         <v>8</v>
       </c>
-      <c r="D3" s="75">
+      <c r="D3" s="72">
         <f>COUNTIF(Sheet1!I3:I101,"&gt;=50")</f>
         <v>29</v>
       </c>
-      <c r="E3" s="75">
+      <c r="E3" s="72">
         <f>COUNTIF(Sheet1!J3:J100,"*Fruit Fly*")</f>
         <v>7</v>
       </c>
-      <c r="F3" s="75">
+      <c r="F3" s="72">
         <f>COUNTIF(Sheet1!N3:N100,1)</f>
         <v>11</v>
       </c>
-      <c r="G3" s="75">
+      <c r="G3" s="72">
         <f>COUNTIF(Sheet1!P3:P100,"*Replacement*")+COUNTIF(Sheet1!P3:P100,"*Both*")</f>
         <v>16</v>
       </c>
-      <c r="H3" s="75">
+      <c r="H3" s="72">
         <f>COUNTIF(Sheet1!Q3:Q100,0)</f>
         <v>12</v>
       </c>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80" t="s">
+      <c r="J3" s="76"/>
+      <c r="K3" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="L3" s="80" t="s">
+      <c r="L3" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="M3" s="80" t="s">
+      <c r="M3" s="77" t="s">
         <v>275</v>
       </c>
-      <c r="N3" s="80" t="s">
+      <c r="N3" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="O3" s="80" t="s">
+      <c r="O3" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="80" t="s">
+      <c r="P3" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" s="80" t="s">
+      <c r="Q3" s="77" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="76"/>
-      <c r="B4" s="77">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74">
         <f>COUNTIF(Sheet1!B3:B100,"Preprint")</f>
         <v>4</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78">
+      <c r="C4" s="74"/>
+      <c r="D4" s="75">
         <f>COUNTIF(Sheet1!I3:I100,"Perspective")+COUNTIF(Sheet1!I3:I100,"Report")+COUNTIF(Sheet1!I3:I100,"Review")</f>
         <v>11</v>
       </c>
-      <c r="E4" s="77">
+      <c r="E4" s="74">
         <f>COUNTIF(Sheet1!J3:J100,"*Generic*")</f>
         <v>13</v>
       </c>
-      <c r="F4" s="77">
+      <c r="F4" s="74">
         <f>COUNTIF(Sheet1!O3:O100,1)</f>
         <v>14</v>
       </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="77" t="s">
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="74" t="s">
         <v>256</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="78" t="s">
         <v>276</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="76"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75">
+      <c r="A5" s="73"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72">
         <f>COUNTIF(Sheet1!J3:J100,"*Rodents*")+COUNTIF(Sheet1!J4:J101,"*Beetle*")</f>
         <v>3</v>
       </c>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80" t="s">
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77" t="s">
         <v>277</v>
       </c>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/literature_database/literature_database.xlsx
+++ b/literature_database/literature_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/verma/Online_resources/literature_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D75443-C67B-FA4A-9EEE-6A132461D371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72558B5B-0D34-E04B-AD00-73AA23E37D40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="1300" windowWidth="19800" windowHeight="14580" xr2:uid="{48D1C182-AEF1-824A-AF31-3D6131FB60DC}"/>
+    <workbookView xWindow="2900" yWindow="2180" windowWidth="19800" windowHeight="14580" xr2:uid="{48D1C182-AEF1-824A-AF31-3D6131FB60DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="286">
   <si>
     <t xml:space="preserve">Literature Review of Synthetic Gene Drive Technology </t>
   </si>
@@ -920,12 +920,30 @@
   <si>
     <t>Breakdown - Yes</t>
   </si>
+  <si>
+    <t>Journal of Economic Entomology</t>
+  </si>
+  <si>
+    <t>Fryxell KJ, Miller TA. Autocidal biological control: a general strategy for insect control based on genetic transformation with a highly conserved gene. Journal of Economic Entomology. 1995 Oct 1;88(5):1221-32.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/jee/88.5.1221</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Sensitizing</t>
+  </si>
+  <si>
+    <t>"The earliest demonstration of synthetic gene drive (sensitizing drives) was carried out by Fryxell and Miller in 1995 "</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1059,6 +1077,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2A2A2A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1181,7 +1205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1400,6 +1424,15 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1878,13 +1911,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>16</c:v>
@@ -1893,7 +1926,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>24</c:v>
@@ -2402,13 +2435,13 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>11</c:v>
@@ -4086,8 +4119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9F55AF-FB3A-6E45-BFC6-20E562A75AFE}">
   <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4111,29 +4144,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="24" customHeight="1">
-      <c r="A1" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="83"/>
+      <c r="A1" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="86"/>
     </row>
     <row r="2" spans="1:21" s="7" customFormat="1" ht="51">
       <c r="A2" s="5" t="s">
@@ -7085,16 +7118,16 @@
       <c r="C50" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="D50" s="3">
-        <v>1</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3">
+      <c r="D50" s="18">
+        <v>1</v>
+      </c>
+      <c r="E50" s="18">
+        <v>1</v>
+      </c>
+      <c r="F50" s="18">
         <v>2019</v>
       </c>
-      <c r="G50" s="63" t="s">
+      <c r="G50" s="82" t="s">
         <v>235</v>
       </c>
       <c r="H50" s="35" t="s">
@@ -7138,25 +7171,61 @@
       </c>
       <c r="U50" s="13"/>
     </row>
-    <row r="51" spans="1:21">
-      <c r="A51" s="3"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="13"/>
+    <row r="51" spans="1:21" ht="129" customHeight="1">
+      <c r="A51" s="3">
+        <v>49</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C51" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="D51" s="18">
+        <v>0</v>
+      </c>
+      <c r="E51" s="18">
+        <v>0</v>
+      </c>
+      <c r="F51" s="18">
+        <v>1995</v>
+      </c>
+      <c r="G51" s="82" t="s">
+        <v>281</v>
+      </c>
+      <c r="H51" s="83" t="s">
+        <v>282</v>
+      </c>
+      <c r="I51" s="67">
+        <v>5</v>
+      </c>
+      <c r="J51" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R51" s="13" t="s">
+        <v>285</v>
+      </c>
       <c r="S51" s="13"/>
       <c r="T51" s="13"/>
       <c r="U51" s="13"/>
@@ -7598,6 +7667,7 @@
     <hyperlink ref="H48" r:id="rId38" xr:uid="{0E63125C-3A6E-1F42-B212-272182F8F31E}"/>
     <hyperlink ref="H49" r:id="rId39" xr:uid="{02456DD8-B45F-6B41-9AB9-D17BAA3DC4A7}"/>
     <hyperlink ref="H50" r:id="rId40" xr:uid="{99738256-C76A-1E4A-B128-3B19433EFC8E}"/>
+    <hyperlink ref="H51" r:id="rId41" xr:uid="{9748E7DD-AEBB-8944-9FB7-E2226F944909}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7608,8 +7678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178CD172-0D52-754C-82C4-99997D10B8F8}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7677,7 +7747,7 @@
       <c r="A2" s="73"/>
       <c r="B2" s="74">
         <f>COUNTIF(Sheet1!B3:B100,"Peer reviewed")</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="74">
         <f>COUNTIF(Sheet1!E3:E100,1)</f>
@@ -7685,7 +7755,7 @@
       </c>
       <c r="D2" s="74">
         <f>COUNTIF(Sheet1!I3:I101,"&lt;=50")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="74">
         <f>COUNTIF(Sheet1!J3:J100,"*Mosquitoes*")</f>
@@ -7697,7 +7767,7 @@
       </c>
       <c r="G2" s="74">
         <f>COUNTIF(Sheet1!P3:P100,"*Suppression*")+COUNTIF(Sheet1!P3:P100,"*Both*")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="74">
         <f>COUNTIF(Sheet1!Q3:Q100,1)</f>
@@ -7734,7 +7804,7 @@
       </c>
       <c r="C3" s="72">
         <f>COUNTIF(Sheet1!E3:E100,0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="72">
         <f>COUNTIF(Sheet1!I3:I101,"&gt;=50")</f>
@@ -7742,7 +7812,7 @@
       </c>
       <c r="E3" s="72">
         <f>COUNTIF(Sheet1!J3:J100,"*Fruit Fly*")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="72">
         <f>COUNTIF(Sheet1!N3:N100,1)</f>

--- a/literature_database/literature_database.xlsx
+++ b/literature_database/literature_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/verma/Online_resources/literature_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72558B5B-0D34-E04B-AD00-73AA23E37D40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80122357-DC07-5144-B47B-233CB27E2DFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="2180" windowWidth="19800" windowHeight="14580" xr2:uid="{48D1C182-AEF1-824A-AF31-3D6131FB60DC}"/>
+    <workbookView xWindow="11180" yWindow="780" windowWidth="24200" windowHeight="15940" xr2:uid="{48D1C182-AEF1-824A-AF31-3D6131FB60DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="309">
   <si>
     <t xml:space="preserve">Literature Review of Synthetic Gene Drive Technology </t>
   </si>
@@ -614,9 +614,6 @@
     <t xml:space="preserve">Transposable elements </t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>"A deterministic population dynamics model of the spread of transposable elements (TE) in sexually reproducing populations is presented. "</t>
   </si>
   <si>
@@ -937,13 +934,85 @@
   </si>
   <si>
     <t>"The earliest demonstration of synthetic gene drive (sensitizing drives) was carried out by Fryxell and Miller in 1995 "</t>
+  </si>
+  <si>
+    <t>Holman L. Evolutionary simulations of Z-linked suppression gene drives. Proceedings of the Royal Society B. 2019 Oct 9;286(1912):20191070.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1098/rspb.2019.1070</t>
+  </si>
+  <si>
+    <t>Proceedings of the Royal Society B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z-linked, CRIPR based, uses HEG </t>
+  </si>
+  <si>
+    <t>Raban RR, Marshall JM, Akbari OS. Progress towards engineering gene drives for population control. Journal of Experimental Biology. 2020 Feb 1;223(Suppl 1).</t>
+  </si>
+  <si>
+    <t>Journal of Experimental Biology</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1242/jeb.208181</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/eva.12827</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Evolutionary Applications</t>
+  </si>
+  <si>
+    <t>Dhole S, Lloyd AL, Gould F. Tethered homing gene drives: a new design for spatially restricted population replacement and suppression. Evolutionary applications. 2019 Sep;12(8):1688-702.</t>
+  </si>
+  <si>
+    <t>tethered homing</t>
+  </si>
+  <si>
+    <t>Chen CH, Huang H, Ward CM, Su JT, Schaeffer LV, Guo M, Hay BA. A synthetic maternal-effect selfish genetic element drives population replacement in Drosophila. science. 2007 Apr 27;316(5824):597-600.</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1126/science. 1138595</t>
+  </si>
+  <si>
+    <t>Maternal-effect selfish genetic elements</t>
+  </si>
+  <si>
+    <t>Sánchez C, H.M., Wu, S.L., Bennett, J.B. and Marshall, J.M., 2020. MGDrivE: A modular simulation framework for the spread of gene drives through spatially explicit mosquito populations. Methods in Ecology and Evolution, 11(2), pp.229-239.</t>
+  </si>
+  <si>
+    <t>Methods in Ecology and Evolution</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/2041-210X.13318</t>
+  </si>
+  <si>
+    <t>CRISPR/Cas9‐based homing gene drive</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/acssynbio.9b00452</t>
+  </si>
+  <si>
+    <t>Champer J, Zhao J, Champer S, Liu J, Messer PW. Population dynamics of underdominance gene drive systems in continuous space. ACS Synth. Biol.. 2020 Mar .</t>
+  </si>
+  <si>
+    <t>ACS Synthetic Biology</t>
+  </si>
+  <si>
+    <t>Underdominance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1083,6 +1152,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333132"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1205,7 +1281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1284,19 +1360,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1404,9 +1467,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1442,6 +1502,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1911,25 +1990,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2438,19 +2517,19 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2656,13 +2735,13 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4117,10 +4196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9F55AF-FB3A-6E45-BFC6-20E562A75AFE}">
-  <dimension ref="A1:U68"/>
+  <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4128,7 +4207,7 @@
     <col min="2" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="6" width="10.83203125" style="16" customWidth="1"/>
     <col min="7" max="8" width="29.6640625" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="69" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="63" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="16.1640625" customWidth="1"/>
@@ -4136,7 +4215,7 @@
     <col min="14" max="14" width="11.83203125" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
     <col min="16" max="16" width="19.33203125" customWidth="1"/>
-    <col min="17" max="17" width="18.33203125" style="71" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" style="65" customWidth="1"/>
     <col min="18" max="18" width="32.33203125" customWidth="1"/>
     <col min="19" max="19" width="31.83203125" customWidth="1"/>
     <col min="20" max="20" width="27.6640625" customWidth="1"/>
@@ -4144,29 +4223,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="24" customHeight="1">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="86"/>
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="80"/>
     </row>
     <row r="2" spans="1:21" s="7" customFormat="1" ht="51">
       <c r="A2" s="5" t="s">
@@ -4176,13 +4255,13 @@
         <v>31</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>136</v>
@@ -4193,7 +4272,7 @@
       <c r="H2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="61" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -4238,27 +4317,27 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" s="40">
-        <v>1</v>
-      </c>
-      <c r="F3" s="40">
+        <v>185</v>
+      </c>
+      <c r="E3" s="35">
+        <v>1</v>
+      </c>
+      <c r="F3" s="35">
         <v>2017</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="H3" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="H3" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="I3" s="65">
+      <c r="I3" s="60">
         <v>70</v>
       </c>
       <c r="J3" s="10" t="s">
@@ -4280,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q3" s="10">
         <v>1</v>
@@ -4304,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
@@ -4324,7 +4403,7 @@
       <c r="H4" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="67">
+      <c r="I4" s="62">
         <v>100</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -4364,10 +4443,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
@@ -4384,7 +4463,7 @@
       <c r="H5" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="67">
+      <c r="I5" s="62">
         <v>100</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -4406,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q5" s="10">
         <v>1</v>
@@ -4426,18 +4505,18 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E6" s="41">
-        <v>1</v>
-      </c>
-      <c r="F6" s="41">
+        <v>185</v>
+      </c>
+      <c r="E6" s="36">
+        <v>1</v>
+      </c>
+      <c r="F6" s="36">
         <v>2019</v>
       </c>
       <c r="G6" s="20" t="s">
@@ -4446,7 +4525,7 @@
       <c r="H6" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="62" t="s">
         <v>39</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -4467,7 +4546,7 @@
       <c r="O6" s="3">
         <v>0</v>
       </c>
-      <c r="P6" s="34" t="s">
+      <c r="P6" s="29" t="s">
         <v>39</v>
       </c>
       <c r="Q6" s="3" t="s">
@@ -4483,7 +4562,7 @@
         <v>27</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="126" customHeight="1">
@@ -4492,13 +4571,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -4512,11 +4591,11 @@
       <c r="H7" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="62">
         <v>10</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>33</v>
@@ -4554,10 +4633,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -4574,7 +4653,7 @@
       <c r="H8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="67" t="s">
+      <c r="I8" s="62" t="s">
         <v>39</v>
       </c>
       <c r="J8" s="10" t="s">
@@ -4620,10 +4699,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>245</v>
+        <v>253</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>244</v>
       </c>
       <c r="D9" s="25">
         <v>0</v>
@@ -4640,7 +4719,7 @@
       <c r="H9" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="67" t="s">
+      <c r="I9" s="62" t="s">
         <v>54</v>
       </c>
       <c r="J9" s="3" t="s">
@@ -4680,13 +4759,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -4694,17 +4773,17 @@
       <c r="F10" s="3">
         <v>2018</v>
       </c>
-      <c r="G10" s="53" t="s">
+      <c r="G10" s="48" t="s">
         <v>60</v>
       </c>
       <c r="H10" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="67">
+      <c r="I10" s="62">
         <v>10</v>
       </c>
-      <c r="J10" s="45" t="s">
-        <v>269</v>
+      <c r="J10" s="40" t="s">
+        <v>268</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>20</v>
@@ -4742,10 +4821,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -4762,7 +4841,7 @@
       <c r="H11" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="67">
+      <c r="I11" s="62">
         <v>100</v>
       </c>
       <c r="J11" s="3" t="s">
@@ -4803,10 +4882,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -4817,16 +4896,16 @@
       <c r="F12" s="3">
         <v>2014</v>
       </c>
-      <c r="G12" s="53" t="s">
+      <c r="G12" s="48" t="s">
         <v>70</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="67" t="s">
+      <c r="I12" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="33" t="s">
+      <c r="J12" s="28" t="s">
         <v>19</v>
       </c>
       <c r="K12" s="11" t="s">
@@ -4844,7 +4923,7 @@
       <c r="O12" s="3">
         <v>0</v>
       </c>
-      <c r="P12" s="34" t="s">
+      <c r="P12" s="29" t="s">
         <v>39</v>
       </c>
       <c r="Q12" s="3">
@@ -4863,10 +4942,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -4880,10 +4959,10 @@
       <c r="G13" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="67" t="s">
+      <c r="I13" s="62" t="s">
         <v>39</v>
       </c>
       <c r="J13" s="3" t="s">
@@ -4904,7 +4983,7 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="34" t="s">
+      <c r="P13" s="29" t="s">
         <v>39</v>
       </c>
       <c r="Q13" s="3">
@@ -4925,10 +5004,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -4939,13 +5018,13 @@
       <c r="F14" s="3">
         <v>2017</v>
       </c>
-      <c r="G14" s="53" t="s">
+      <c r="G14" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="65">
+      <c r="I14" s="60">
         <v>90</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -4979,19 +5058,19 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="15" spans="1:21" ht="128">
+    <row r="15" spans="1:21" ht="112">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E15" s="10">
         <v>1</v>
@@ -4999,17 +5078,17 @@
       <c r="F15" s="10">
         <v>2013</v>
       </c>
-      <c r="G15" s="53" t="s">
+      <c r="G15" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="67">
+      <c r="I15" s="62">
         <v>30</v>
       </c>
-      <c r="J15" s="45" t="s">
-        <v>269</v>
+      <c r="J15" s="40" t="s">
+        <v>268</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>84</v>
@@ -5027,7 +5106,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q15" s="3">
         <v>1</v>
@@ -5049,10 +5128,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -5063,13 +5142,13 @@
       <c r="F16" s="3">
         <v>2011</v>
       </c>
-      <c r="G16" s="53" t="s">
-        <v>189</v>
-      </c>
-      <c r="H16" s="35" t="s">
+      <c r="G16" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="H16" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="67">
+      <c r="I16" s="62">
         <v>80</v>
       </c>
       <c r="J16" s="5" t="s">
@@ -5109,10 +5188,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
@@ -5123,19 +5202,19 @@
       <c r="F17" s="3">
         <v>2007</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="I17" s="67">
+      <c r="I17" s="62">
         <v>80</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K17" s="36" t="s">
+      <c r="K17" s="31" t="s">
         <v>169</v>
       </c>
       <c r="L17" s="3" t="s">
@@ -5171,10 +5250,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D18" s="10">
         <v>1</v>
@@ -5188,10 +5267,10 @@
       <c r="G18" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="35" t="s">
+      <c r="H18" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="I18" s="67">
+      <c r="I18" s="62">
         <v>70</v>
       </c>
       <c r="J18" s="5" t="s">
@@ -5212,7 +5291,7 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-      <c r="P18" s="38" t="s">
+      <c r="P18" s="33" t="s">
         <v>36</v>
       </c>
       <c r="Q18" s="10">
@@ -5233,13 +5312,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
@@ -5248,12 +5327,12 @@
         <v>2011</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="H19" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="H19" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="I19" s="67">
+      <c r="I19" s="62">
         <v>70</v>
       </c>
       <c r="J19" s="3" t="s">
@@ -5295,10 +5374,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -5312,16 +5391,16 @@
       <c r="G20" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I20" s="67">
+      <c r="I20" s="62">
         <v>90</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K20" s="39" t="s">
+      <c r="K20" s="34" t="s">
         <v>108</v>
       </c>
       <c r="L20" s="3" t="s">
@@ -5337,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -5355,10 +5434,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -5375,7 +5454,7 @@
       <c r="H21" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="I21" s="67">
+      <c r="I21" s="62">
         <v>40</v>
       </c>
       <c r="J21" s="3" t="s">
@@ -5397,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="8" t="s">
@@ -5415,10 +5494,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>254</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>255</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -5432,10 +5511,10 @@
       <c r="G22" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="H22" s="47" t="s">
+      <c r="H22" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="I22" s="67">
+      <c r="I22" s="62">
         <v>70</v>
       </c>
       <c r="J22" s="3" t="s">
@@ -5475,10 +5554,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -5495,7 +5574,7 @@
       <c r="H23" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="I23" s="67">
+      <c r="I23" s="62">
         <v>90</v>
       </c>
       <c r="J23" s="3" t="s">
@@ -5535,13 +5614,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -5552,10 +5631,10 @@
       <c r="G24" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="H24" s="35" t="s">
+      <c r="H24" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="I24" s="67">
+      <c r="I24" s="62">
         <v>80</v>
       </c>
       <c r="J24" s="3" t="s">
@@ -5597,13 +5676,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -5614,14 +5693,14 @@
       <c r="G25" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="H25" s="35" t="s">
+      <c r="H25" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="I25" s="67">
+      <c r="I25" s="62">
         <v>30</v>
       </c>
-      <c r="J25" s="45" t="s">
-        <v>269</v>
+      <c r="J25" s="40" t="s">
+        <v>268</v>
       </c>
       <c r="K25" s="11" t="s">
         <v>20</v>
@@ -5659,13 +5738,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -5676,14 +5755,14 @@
       <c r="G26" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="H26" s="35" t="s">
+      <c r="H26" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="I26" s="67">
+      <c r="I26" s="62">
         <v>30</v>
       </c>
-      <c r="J26" s="45" t="s">
-        <v>269</v>
+      <c r="J26" s="40" t="s">
+        <v>268</v>
       </c>
       <c r="K26" s="11" t="s">
         <v>20</v>
@@ -5719,13 +5798,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
@@ -5736,10 +5815,10 @@
       <c r="G27" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="H27" s="35" t="s">
+      <c r="H27" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="I27" s="67">
+      <c r="I27" s="62">
         <v>90</v>
       </c>
       <c r="J27" s="5" t="s">
@@ -5779,13 +5858,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
@@ -5796,10 +5875,10 @@
       <c r="G28" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="H28" s="35" t="s">
+      <c r="H28" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="I28" s="67">
+      <c r="I28" s="62">
         <v>90</v>
       </c>
       <c r="J28" s="3" t="s">
@@ -5839,10 +5918,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -5853,19 +5932,19 @@
       <c r="F29" s="3">
         <v>2016</v>
       </c>
-      <c r="G29" s="42" t="s">
+      <c r="G29" s="37" t="s">
         <v>142</v>
       </c>
       <c r="H29" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="I29" s="67">
+      <c r="I29" s="62">
         <v>90</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K29" s="70" t="s">
+      <c r="K29" s="64" t="s">
         <v>162</v>
       </c>
       <c r="L29" s="10" t="s">
@@ -5899,10 +5978,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -5916,16 +5995,16 @@
       <c r="G30" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="H30" s="35" t="s">
+      <c r="H30" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="I30" s="67">
+      <c r="I30" s="62">
         <v>90</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K30" s="48" t="s">
+      <c r="K30" s="43" t="s">
         <v>161</v>
       </c>
       <c r="L30" s="10" t="s">
@@ -5941,7 +6020,7 @@
         <v>1</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q30" s="3">
         <v>0</v>
@@ -5962,11 +6041,11 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>261</v>
+      <c r="B31" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>260</v>
       </c>
       <c r="D31" s="25">
         <v>0</v>
@@ -5980,10 +6059,10 @@
       <c r="G31" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="H31" s="35" t="s">
+      <c r="H31" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="I31" s="67" t="s">
+      <c r="I31" s="62" t="s">
         <v>54</v>
       </c>
       <c r="J31" s="3" t="s">
@@ -6025,13 +6104,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
@@ -6039,17 +6118,17 @@
       <c r="F32" s="3">
         <v>2018</v>
       </c>
-      <c r="G32" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="H32" s="35" t="s">
+      <c r="G32" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="H32" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="I32" s="67">
+      <c r="I32" s="62">
         <v>60</v>
       </c>
-      <c r="J32" s="45" t="s">
-        <v>269</v>
+      <c r="J32" s="40" t="s">
+        <v>268</v>
       </c>
       <c r="K32" s="11" t="s">
         <v>28</v>
@@ -6066,7 +6145,7 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="11" t="s">
+      <c r="P32" s="3" t="s">
         <v>36</v>
       </c>
       <c r="Q32" s="3">
@@ -6085,13 +6164,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
@@ -6102,10 +6181,10 @@
       <c r="G33" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="H33" s="45" t="s">
+      <c r="H33" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="I33" s="65">
+      <c r="I33" s="60">
         <v>80</v>
       </c>
       <c r="J33" s="5" t="s">
@@ -6126,8 +6205,8 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-      <c r="P33" s="12" t="s">
-        <v>271</v>
+      <c r="P33" s="10" t="s">
+        <v>270</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
@@ -6149,10 +6228,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
@@ -6166,16 +6245,16 @@
       <c r="G34" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="H34" s="35" t="s">
+      <c r="H34" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="I34" s="67">
+      <c r="I34" s="62">
         <v>90</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K34" s="50" t="s">
+      <c r="K34" s="45" t="s">
         <v>177</v>
       </c>
       <c r="L34" s="3" t="s">
@@ -6190,13 +6269,13 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-      <c r="P34" s="51" t="s">
-        <v>178</v>
+      <c r="P34" s="46" t="s">
+        <v>36</v>
       </c>
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-      <c r="R34" s="49" t="s">
+      <c r="R34" s="44" t="s">
         <v>176</v>
       </c>
       <c r="S34" s="13"/>
@@ -6209,10 +6288,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
@@ -6226,16 +6305,16 @@
       <c r="G35" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="H35" s="46" t="s">
+      <c r="H35" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="I35" s="67">
+      <c r="I35" s="62">
         <v>100</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K35" s="52" t="s">
+      <c r="K35" s="47" t="s">
         <v>177</v>
       </c>
       <c r="L35" s="3" t="s">
@@ -6257,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="R35" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S35" s="13"/>
       <c r="T35" s="13"/>
@@ -6269,10 +6348,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
@@ -6286,10 +6365,10 @@
       <c r="G36" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="H36" s="35" t="s">
+      <c r="H36" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="I36" s="67">
+      <c r="I36" s="62">
         <v>90</v>
       </c>
       <c r="J36" s="3" t="s">
@@ -6317,10 +6396,10 @@
         <v>0</v>
       </c>
       <c r="R36" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="S36" s="13" t="s">
         <v>180</v>
-      </c>
-      <c r="S36" s="13" t="s">
-        <v>181</v>
       </c>
       <c r="T36" s="13"/>
       <c r="U36" s="13"/>
@@ -6331,10 +6410,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
@@ -6348,17 +6427,17 @@
       <c r="G37" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="H37" s="35" t="s">
+      <c r="H37" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="I37" s="67">
+      <c r="I37" s="62">
         <v>70</v>
       </c>
       <c r="J37" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K37" s="50" t="s">
-        <v>182</v>
+      <c r="K37" s="45" t="s">
+        <v>181</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>34</v>
@@ -6372,14 +6451,14 @@
       <c r="O37" s="3">
         <v>0</v>
       </c>
-      <c r="P37" s="11" t="s">
-        <v>271</v>
+      <c r="P37" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="Q37" s="3">
         <v>1</v>
       </c>
       <c r="R37" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S37" s="13"/>
       <c r="T37" s="13"/>
@@ -6391,7 +6470,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>19</v>
@@ -6403,14 +6482,14 @@
       <c r="F38" s="3">
         <v>2016</v>
       </c>
-      <c r="G38" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="H38" s="35" t="s">
-        <v>197</v>
+      <c r="G38" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>196</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>19</v>
@@ -6447,28 +6526,28 @@
         <v>37</v>
       </c>
       <c r="B39" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="49">
+        <v>2018</v>
+      </c>
+      <c r="G39" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" s="54">
-        <v>2018</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>193</v>
-      </c>
       <c r="H39" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>19</v>
@@ -6505,7 +6584,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>19</v>
@@ -6519,14 +6598,14 @@
       <c r="F40" s="3">
         <v>2017</v>
       </c>
-      <c r="G40" s="55" t="s">
-        <v>195</v>
+      <c r="G40" s="50" t="s">
+        <v>194</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>19</v>
@@ -6563,7 +6642,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>19</v>
@@ -6578,13 +6657,13 @@
         <v>2015</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>19</v>
@@ -6621,10 +6700,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
@@ -6635,23 +6714,23 @@
       <c r="F42" s="3">
         <v>2017</v>
       </c>
-      <c r="G42" s="61" t="s">
+      <c r="G42" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="H42" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="H42" s="59" t="s">
-        <v>201</v>
-      </c>
-      <c r="I42" s="65">
+      <c r="I42" s="60">
         <v>50</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>20</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>19</v>
@@ -6668,11 +6747,11 @@
       <c r="Q42" s="10">
         <v>1</v>
       </c>
-      <c r="R42" s="57" t="s">
+      <c r="R42" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="S42" s="13" t="s">
         <v>203</v>
-      </c>
-      <c r="S42" s="13" t="s">
-        <v>204</v>
       </c>
       <c r="T42" s="13"/>
       <c r="U42" s="13"/>
@@ -6683,10 +6762,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D43" s="10">
         <v>1</v>
@@ -6697,13 +6776,13 @@
       <c r="F43" s="3">
         <v>2017</v>
       </c>
-      <c r="G43" s="60" t="s">
+      <c r="G43" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="H43" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="H43" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="I43" s="67">
+      <c r="I43" s="62">
         <v>100</v>
       </c>
       <c r="J43" s="3" t="s">
@@ -6731,7 +6810,7 @@
         <v>1</v>
       </c>
       <c r="R43" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S43" s="13"/>
       <c r="T43" s="13"/>
@@ -6743,10 +6822,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
@@ -6757,13 +6836,13 @@
       <c r="F44" s="3">
         <v>2019</v>
       </c>
-      <c r="G44" s="61" t="s">
+      <c r="G44" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="H44" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="H44" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="I44" s="67">
+      <c r="I44" s="62">
         <v>100</v>
       </c>
       <c r="J44" s="10" t="s">
@@ -6791,7 +6870,7 @@
         <v>1</v>
       </c>
       <c r="R44" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S44" s="13"/>
       <c r="T44" s="13"/>
@@ -6803,10 +6882,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D45" s="3">
         <v>1</v>
@@ -6817,13 +6896,13 @@
       <c r="F45" s="3">
         <v>2018</v>
       </c>
-      <c r="G45" s="61" t="s">
-        <v>213</v>
+      <c r="G45" s="56" t="s">
+        <v>212</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I45" s="67">
+      <c r="I45" s="62">
         <v>100</v>
       </c>
       <c r="J45" s="3" t="s">
@@ -6851,10 +6930,10 @@
         <v>0</v>
       </c>
       <c r="R45" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S45" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T45" s="13"/>
       <c r="U45" s="13"/>
@@ -6865,10 +6944,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
@@ -6879,20 +6958,20 @@
       <c r="F46" s="3">
         <v>2019</v>
       </c>
-      <c r="G46" s="61" t="s">
+      <c r="G46" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="H46" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="H46" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="I46" s="67">
+      <c r="I46" s="62">
         <v>100</v>
       </c>
       <c r="J46" s="10" t="s">
         <v>66</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>19</v>
@@ -6913,10 +6992,10 @@
         <v>1</v>
       </c>
       <c r="R46" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="S46" s="13" t="s">
         <v>219</v>
-      </c>
-      <c r="S46" s="13" t="s">
-        <v>220</v>
       </c>
       <c r="T46" s="13"/>
       <c r="U46" s="13"/>
@@ -6927,13 +7006,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E47" s="3">
         <v>1</v>
@@ -6941,20 +7020,20 @@
       <c r="F47" s="3">
         <v>2014</v>
       </c>
-      <c r="G47" s="63" t="s">
+      <c r="G47" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="H47" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="H47" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="I47" s="67">
+      <c r="I47" s="62">
         <v>80</v>
       </c>
       <c r="J47" s="5" t="s">
         <v>55</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L47" s="10" t="s">
         <v>116</v>
@@ -6974,17 +7053,17 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="R47" s="62" t="s">
+      <c r="R47" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="S47" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="S47" s="13" t="s">
+      <c r="T47" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="T47" s="13" t="s">
+      <c r="U47" s="13" t="s">
         <v>226</v>
-      </c>
-      <c r="U47" s="13" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="87" customHeight="1">
@@ -6993,10 +7072,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
@@ -7007,17 +7086,17 @@
       <c r="F48" s="3">
         <v>2015</v>
       </c>
-      <c r="G48" s="60" t="s">
+      <c r="G48" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="H48" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="H48" s="64" t="s">
-        <v>229</v>
-      </c>
-      <c r="I48" s="67">
+      <c r="I48" s="62">
         <v>5</v>
       </c>
-      <c r="J48" s="45" t="s">
-        <v>269</v>
+      <c r="J48" s="40" t="s">
+        <v>268</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>20</v>
@@ -7039,7 +7118,7 @@
         <v>19</v>
       </c>
       <c r="R48" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S48" s="13"/>
       <c r="T48" s="13"/>
@@ -7051,10 +7130,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
@@ -7066,43 +7145,43 @@
         <v>2018</v>
       </c>
       <c r="G49" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="H49" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="H49" s="35" t="s">
+      <c r="I49" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R49" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="I49" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R49" s="13" t="s">
+      <c r="S49" s="13" t="s">
         <v>233</v>
-      </c>
-      <c r="S49" s="13" t="s">
-        <v>234</v>
       </c>
       <c r="T49" s="13"/>
       <c r="U49" s="13"/>
@@ -7113,10 +7192,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D50" s="18">
         <v>1</v>
@@ -7127,47 +7206,47 @@
       <c r="F50" s="18">
         <v>2019</v>
       </c>
-      <c r="G50" s="82" t="s">
+      <c r="G50" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="H50" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="H50" s="35" t="s">
+      <c r="I50" s="62">
+        <v>5</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R50" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="I50" s="67">
-        <v>5</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R50" s="13" t="s">
+      <c r="S50" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="S50" s="13" t="s">
+      <c r="T50" s="27" t="s">
         <v>238</v>
-      </c>
-      <c r="T50" s="27" t="s">
-        <v>239</v>
       </c>
       <c r="U50" s="13"/>
     </row>
@@ -7176,10 +7255,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C51" s="81" t="s">
-        <v>280</v>
+        <v>253</v>
+      </c>
+      <c r="C51" s="75" t="s">
+        <v>279</v>
       </c>
       <c r="D51" s="18">
         <v>0</v>
@@ -7190,23 +7269,23 @@
       <c r="F51" s="18">
         <v>1995</v>
       </c>
-      <c r="G51" s="82" t="s">
+      <c r="G51" s="84" t="s">
+        <v>280</v>
+      </c>
+      <c r="H51" s="77" t="s">
         <v>281</v>
       </c>
-      <c r="H51" s="83" t="s">
+      <c r="I51" s="62">
+        <v>5</v>
+      </c>
+      <c r="J51" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="L51" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="I51" s="67">
-        <v>5</v>
-      </c>
-      <c r="J51" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>19</v>
@@ -7224,402 +7303,650 @@
         <v>19</v>
       </c>
       <c r="R51" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S51" s="13"/>
       <c r="T51" s="13"/>
       <c r="U51" s="13"/>
     </row>
-    <row r="52" spans="1:21">
-      <c r="A52" s="3"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="67"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
+    <row r="52" spans="1:21" ht="98" customHeight="1">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2019</v>
+      </c>
+      <c r="G52" s="85" t="s">
+        <v>285</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="I52" s="62">
+        <v>90</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K52" s="86" t="s">
+        <v>288</v>
+      </c>
       <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>1</v>
+      </c>
+      <c r="O52" s="3">
+        <v>1</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>1</v>
+      </c>
       <c r="R52" s="13"/>
       <c r="S52" s="13"/>
       <c r="T52" s="13"/>
       <c r="U52" s="13"/>
     </row>
-    <row r="53" spans="1:21">
-      <c r="A53" s="3"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
+    <row r="53" spans="1:21" ht="108" customHeight="1">
+      <c r="A53" s="3">
+        <v>51</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
+        <v>2019</v>
+      </c>
+      <c r="G53" s="87" t="s">
+        <v>289</v>
+      </c>
+      <c r="H53" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="I53" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>1</v>
+      </c>
       <c r="R53" s="13"/>
       <c r="S53" s="13"/>
       <c r="T53" s="13"/>
       <c r="U53" s="13"/>
     </row>
-    <row r="54" spans="1:21">
-      <c r="A54" s="3"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
+    <row r="54" spans="1:21" ht="119" customHeight="1">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2019</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="H54" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="I54" s="62">
+        <v>80</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M54" s="3">
+        <v>1</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>1</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
       <c r="R54" s="13"/>
       <c r="S54" s="13"/>
       <c r="T54" s="13"/>
       <c r="U54" s="13"/>
     </row>
-    <row r="55" spans="1:21">
-      <c r="A55" s="3"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
+    <row r="55" spans="1:21" ht="100" customHeight="1">
+      <c r="A55" s="3">
+        <v>53</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
+        <v>2007</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="H55" s="77" t="s">
+        <v>298</v>
+      </c>
+      <c r="I55" s="62">
+        <v>20</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>1</v>
+      </c>
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
       <c r="T55" s="13"/>
       <c r="U55" s="13"/>
     </row>
-    <row r="56" spans="1:21">
-      <c r="A56" s="3"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
+    <row r="56" spans="1:21" ht="133" customHeight="1">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>2020</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="H56" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="I56" s="62">
+        <v>80</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="M56" s="3">
+        <v>1</v>
+      </c>
+      <c r="N56" s="3">
+        <v>1</v>
+      </c>
+      <c r="O56" s="3">
+        <v>1</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>1</v>
+      </c>
       <c r="R56" s="13"/>
       <c r="S56" s="13"/>
       <c r="T56" s="13"/>
       <c r="U56" s="13"/>
     </row>
-    <row r="57" spans="1:21">
-      <c r="A57" s="3"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
+    <row r="57" spans="1:21" ht="119" customHeight="1">
+      <c r="A57" s="3">
+        <v>55</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2020</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="H57" s="77" t="s">
+        <v>305</v>
+      </c>
+      <c r="I57" s="62">
+        <v>80</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>1</v>
+      </c>
+      <c r="O57" s="3">
+        <v>1</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
       <c r="R57" s="13"/>
       <c r="S57" s="13"/>
       <c r="T57" s="13"/>
       <c r="U57" s="13"/>
     </row>
-    <row r="58" spans="1:21">
-      <c r="A58" s="28"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="29"/>
-      <c r="Q58" s="31"/>
-      <c r="R58" s="32"/>
-      <c r="S58" s="32"/>
-      <c r="T58" s="32"/>
-      <c r="U58" s="32"/>
+    <row r="58" spans="1:21" ht="115" customHeight="1">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="81"/>
+      <c r="I58" s="62"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="82"/>
+      <c r="N58" s="82"/>
+      <c r="O58" s="82"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="82"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="13"/>
     </row>
-    <row r="59" spans="1:21">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="31"/>
-      <c r="R59" s="32"/>
-      <c r="S59" s="32"/>
-      <c r="T59" s="32"/>
-      <c r="U59" s="32"/>
+    <row r="59" spans="1:21" ht="102" customHeight="1">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="62"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="82"/>
+      <c r="N59" s="82"/>
+      <c r="O59" s="82"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="82"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="13"/>
     </row>
-    <row r="60" spans="1:21">
-      <c r="A60" s="28"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="31"/>
-      <c r="R60" s="32"/>
-      <c r="S60" s="32"/>
-      <c r="T60" s="32"/>
-      <c r="U60" s="32"/>
+    <row r="60" spans="1:21" ht="113" customHeight="1">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="62"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="82"/>
+      <c r="N60" s="82"/>
+      <c r="O60" s="82"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="82"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="13"/>
+      <c r="U60" s="13"/>
     </row>
-    <row r="61" spans="1:21">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="68"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="32"/>
-      <c r="S61" s="32"/>
-      <c r="T61" s="32"/>
-      <c r="U61" s="32"/>
+    <row r="61" spans="1:21" ht="112" customHeight="1">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="62"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="82"/>
+      <c r="N61" s="82"/>
+      <c r="O61" s="82"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="82"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="13"/>
     </row>
-    <row r="62" spans="1:21">
-      <c r="A62" s="28"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="31"/>
-      <c r="P62" s="29"/>
-      <c r="Q62" s="31"/>
-      <c r="R62" s="32"/>
-      <c r="S62" s="32"/>
-      <c r="T62" s="32"/>
-      <c r="U62" s="32"/>
+    <row r="62" spans="1:21" ht="113" customHeight="1">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="81"/>
+      <c r="I62" s="62"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="82"/>
+      <c r="N62" s="82"/>
+      <c r="O62" s="82"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="82"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="13"/>
+      <c r="U62" s="13"/>
     </row>
-    <row r="63" spans="1:21">
-      <c r="A63" s="28"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="31"/>
-      <c r="P63" s="29"/>
-      <c r="Q63" s="31"/>
-      <c r="R63" s="32"/>
-      <c r="S63" s="32"/>
-      <c r="T63" s="32"/>
-      <c r="U63" s="32"/>
+    <row r="63" spans="1:21" ht="99" customHeight="1">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="81"/>
+      <c r="I63" s="62"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="82"/>
+      <c r="N63" s="82"/>
+      <c r="O63" s="82"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="82"/>
+      <c r="R63" s="13"/>
+      <c r="S63" s="13"/>
+      <c r="T63" s="13"/>
+      <c r="U63" s="13"/>
     </row>
     <row r="64" spans="1:21">
-      <c r="A64" s="28"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="68"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="31"/>
-      <c r="N64" s="31"/>
-      <c r="O64" s="31"/>
-      <c r="P64" s="29"/>
-      <c r="Q64" s="31"/>
-      <c r="R64" s="32"/>
-      <c r="S64" s="32"/>
-      <c r="T64" s="32"/>
-      <c r="U64" s="32"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="81"/>
+      <c r="I64" s="62"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="82"/>
+      <c r="N64" s="82"/>
+      <c r="O64" s="82"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="82"/>
+      <c r="R64" s="13"/>
+      <c r="S64" s="13"/>
+      <c r="T64" s="13"/>
+      <c r="U64" s="13"/>
     </row>
     <row r="65" spans="1:21">
-      <c r="A65" s="28"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="68"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="31"/>
-      <c r="P65" s="29"/>
-      <c r="Q65" s="31"/>
-      <c r="R65" s="32"/>
-      <c r="S65" s="32"/>
-      <c r="T65" s="32"/>
-      <c r="U65" s="32"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="81"/>
+      <c r="I65" s="62"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="82"/>
+      <c r="N65" s="82"/>
+      <c r="O65" s="82"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="82"/>
+      <c r="R65" s="13"/>
+      <c r="S65" s="13"/>
+      <c r="T65" s="13"/>
+      <c r="U65" s="13"/>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="28"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="68"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="31"/>
-      <c r="O66" s="31"/>
-      <c r="P66" s="29"/>
-      <c r="Q66" s="31"/>
-      <c r="R66" s="32"/>
-      <c r="S66" s="32"/>
-      <c r="T66" s="32"/>
-      <c r="U66" s="32"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="81"/>
+      <c r="I66" s="62"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="82"/>
+      <c r="N66" s="82"/>
+      <c r="O66" s="82"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="82"/>
+      <c r="R66" s="13"/>
+      <c r="S66" s="13"/>
+      <c r="T66" s="13"/>
+      <c r="U66" s="13"/>
     </row>
     <row r="67" spans="1:21">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="68"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="31"/>
-      <c r="O67" s="31"/>
-      <c r="P67" s="29"/>
-      <c r="Q67" s="31"/>
-      <c r="R67" s="32"/>
-      <c r="S67" s="32"/>
-      <c r="T67" s="32"/>
-      <c r="U67" s="32"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="81"/>
+      <c r="I67" s="62"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="82"/>
+      <c r="N67" s="82"/>
+      <c r="O67" s="82"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="82"/>
+      <c r="R67" s="13"/>
+      <c r="S67" s="13"/>
+      <c r="T67" s="13"/>
+      <c r="U67" s="13"/>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="68"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="29"/>
-      <c r="M68" s="31"/>
-      <c r="N68" s="31"/>
-      <c r="O68" s="31"/>
-      <c r="P68" s="29"/>
-      <c r="Q68" s="31"/>
-      <c r="R68" s="32"/>
-      <c r="S68" s="32"/>
-      <c r="T68" s="32"/>
-      <c r="U68" s="32"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="81"/>
+      <c r="I68" s="62"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="82"/>
+      <c r="N68" s="82"/>
+      <c r="O68" s="82"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="82"/>
+      <c r="R68" s="13"/>
+      <c r="S68" s="13"/>
+      <c r="T68" s="13"/>
+      <c r="U68" s="13"/>
+    </row>
+    <row r="69" spans="1:21">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="83"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="82"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+    </row>
+    <row r="70" spans="1:21">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="83"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="82"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7668,6 +7995,12 @@
     <hyperlink ref="H49" r:id="rId39" xr:uid="{02456DD8-B45F-6B41-9AB9-D17BAA3DC4A7}"/>
     <hyperlink ref="H50" r:id="rId40" xr:uid="{99738256-C76A-1E4A-B128-3B19433EFC8E}"/>
     <hyperlink ref="H51" r:id="rId41" xr:uid="{9748E7DD-AEBB-8944-9FB7-E2226F944909}"/>
+    <hyperlink ref="H52" r:id="rId42" xr:uid="{C29E1CF6-F40F-AF42-8E3C-2E3D5DE63471}"/>
+    <hyperlink ref="H53" r:id="rId43" xr:uid="{B267B161-5023-A144-AB34-5BFCB9644024}"/>
+    <hyperlink ref="H54" r:id="rId44" xr:uid="{84275D22-EDA7-5349-BC0D-0A0507081CB5}"/>
+    <hyperlink ref="H55" r:id="rId45" xr:uid="{D02C6F54-81ED-8A4A-9FC2-AA25B415331F}"/>
+    <hyperlink ref="H56" r:id="rId46" xr:uid="{3F243643-47F8-9642-BBB1-C073EA51E282}"/>
+    <hyperlink ref="H57" r:id="rId47" xr:uid="{88D9FA4D-9F9C-5F42-B1D2-EA4F848C4896}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7679,7 +8012,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7694,221 +8027,221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="73" t="s">
-        <v>272</v>
-      </c>
-      <c r="B1" s="79">
-        <v>1</v>
-      </c>
-      <c r="C1" s="79">
+      <c r="A1" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="73">
+        <v>1</v>
+      </c>
+      <c r="C1" s="73">
         <v>2</v>
       </c>
-      <c r="D1" s="79">
+      <c r="D1" s="73">
         <v>3</v>
       </c>
-      <c r="E1" s="79">
+      <c r="E1" s="73">
         <v>4</v>
       </c>
-      <c r="F1" s="79">
+      <c r="F1" s="73">
         <v>5</v>
       </c>
-      <c r="G1" s="79">
+      <c r="G1" s="73">
         <v>6</v>
       </c>
-      <c r="H1" s="79">
+      <c r="H1" s="73">
         <v>7</v>
       </c>
-      <c r="J1" s="73" t="s">
-        <v>272</v>
-      </c>
-      <c r="K1" s="79">
-        <v>1</v>
-      </c>
-      <c r="L1" s="80">
+      <c r="J1" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="K1" s="73">
+        <v>1</v>
+      </c>
+      <c r="L1" s="74">
         <v>2</v>
       </c>
-      <c r="M1" s="80">
+      <c r="M1" s="74">
         <v>3</v>
       </c>
-      <c r="N1" s="79">
+      <c r="N1" s="73">
         <v>4</v>
       </c>
-      <c r="O1" s="79">
+      <c r="O1" s="73">
         <v>5</v>
       </c>
-      <c r="P1" s="79">
+      <c r="P1" s="73">
         <v>6</v>
       </c>
-      <c r="Q1" s="79">
+      <c r="Q1" s="73">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74">
+      <c r="A2" s="67"/>
+      <c r="B2" s="68">
         <f>COUNTIF(Sheet1!B3:B100,"Peer reviewed")</f>
-        <v>41</v>
-      </c>
-      <c r="C2" s="74">
+        <v>47</v>
+      </c>
+      <c r="C2" s="68">
         <f>COUNTIF(Sheet1!E3:E100,1)</f>
-        <v>40</v>
-      </c>
-      <c r="D2" s="74">
+        <v>46</v>
+      </c>
+      <c r="D2" s="68">
         <f>COUNTIF(Sheet1!I3:I101,"&lt;=50")</f>
-        <v>10</v>
-      </c>
-      <c r="E2" s="74">
+        <v>11</v>
+      </c>
+      <c r="E2" s="68">
         <f>COUNTIF(Sheet1!J3:J100,"*Mosquitoes*")</f>
-        <v>16</v>
-      </c>
-      <c r="F2" s="74">
+        <v>17</v>
+      </c>
+      <c r="F2" s="68">
         <f>COUNTIF(Sheet1!M3:M100,1)</f>
-        <v>25</v>
-      </c>
-      <c r="G2" s="74">
+        <v>27</v>
+      </c>
+      <c r="G2" s="68">
         <f>COUNTIF(Sheet1!P3:P100,"*Suppression*")+COUNTIF(Sheet1!P3:P100,"*Both*")</f>
-        <v>18</v>
-      </c>
-      <c r="H2" s="74">
+        <v>23</v>
+      </c>
+      <c r="H2" s="68">
         <f>COUNTIF(Sheet1!Q3:Q100,1)</f>
-        <v>24</v>
-      </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="74" t="s">
-        <v>254</v>
-      </c>
-      <c r="L2" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="70"/>
+      <c r="K2" s="68" t="s">
+        <v>253</v>
+      </c>
+      <c r="L2" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="M2" s="68" t="s">
         <v>273</v>
       </c>
-      <c r="M2" s="74" t="s">
-        <v>274</v>
-      </c>
-      <c r="N2" s="74" t="s">
+      <c r="N2" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="74" t="s">
+      <c r="O2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="74" t="s">
+      <c r="P2" s="68" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q2" s="68" t="s">
         <v>278</v>
-      </c>
-      <c r="Q2" s="74" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="73"/>
-      <c r="B3" s="72">
+      <c r="A3" s="67"/>
+      <c r="B3" s="66">
         <f>COUNTIF(Sheet1!B3:B100,"Report")</f>
         <v>4</v>
       </c>
-      <c r="C3" s="72">
+      <c r="C3" s="66">
         <f>COUNTIF(Sheet1!E3:E100,0)</f>
         <v>9</v>
       </c>
-      <c r="D3" s="72">
+      <c r="D3" s="66">
         <f>COUNTIF(Sheet1!I3:I101,"&gt;=50")</f>
-        <v>29</v>
-      </c>
-      <c r="E3" s="72">
+        <v>33</v>
+      </c>
+      <c r="E3" s="66">
         <f>COUNTIF(Sheet1!J3:J100,"*Fruit Fly*")</f>
-        <v>8</v>
-      </c>
-      <c r="F3" s="72">
+        <v>9</v>
+      </c>
+      <c r="F3" s="66">
         <f>COUNTIF(Sheet1!N3:N100,1)</f>
-        <v>11</v>
-      </c>
-      <c r="G3" s="72">
+        <v>14</v>
+      </c>
+      <c r="G3" s="66">
         <f>COUNTIF(Sheet1!P3:P100,"*Replacement*")+COUNTIF(Sheet1!P3:P100,"*Both*")</f>
-        <v>16</v>
-      </c>
-      <c r="H3" s="72">
+        <v>21</v>
+      </c>
+      <c r="H3" s="66">
         <f>COUNTIF(Sheet1!Q3:Q100,0)</f>
-        <v>12</v>
-      </c>
-      <c r="J3" s="76"/>
-      <c r="K3" s="77" t="s">
-        <v>192</v>
-      </c>
-      <c r="L3" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="70"/>
+      <c r="K3" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="L3" s="71" t="s">
+        <v>197</v>
+      </c>
+      <c r="M3" s="71" t="s">
+        <v>274</v>
+      </c>
+      <c r="N3" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="M3" s="77" t="s">
-        <v>275</v>
-      </c>
-      <c r="N3" s="77" t="s">
-        <v>199</v>
-      </c>
-      <c r="O3" s="77" t="s">
+      <c r="O3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="77" t="s">
+      <c r="P3" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" s="77" t="s">
+      <c r="Q3" s="71" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74">
+      <c r="A4" s="67"/>
+      <c r="B4" s="68">
         <f>COUNTIF(Sheet1!B3:B100,"Preprint")</f>
         <v>4</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75">
+      <c r="C4" s="68"/>
+      <c r="D4" s="69">
         <f>COUNTIF(Sheet1!I3:I100,"Perspective")+COUNTIF(Sheet1!I3:I100,"Report")+COUNTIF(Sheet1!I3:I100,"Review")</f>
-        <v>11</v>
-      </c>
-      <c r="E4" s="74">
+        <v>12</v>
+      </c>
+      <c r="E4" s="68">
         <f>COUNTIF(Sheet1!J3:J100,"*Generic*")</f>
-        <v>13</v>
-      </c>
-      <c r="F4" s="74">
+        <v>16</v>
+      </c>
+      <c r="F4" s="68">
         <f>COUNTIF(Sheet1!O3:O100,1)</f>
-        <v>14</v>
-      </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="74" t="s">
-        <v>256</v>
-      </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="78" t="s">
-        <v>276</v>
-      </c>
-      <c r="N4" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="68" t="s">
+        <v>255</v>
+      </c>
+      <c r="L4" s="68"/>
+      <c r="M4" s="72" t="s">
+        <v>275</v>
+      </c>
+      <c r="N4" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="73"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72">
+      <c r="A5" s="67"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66">
         <f>COUNTIF(Sheet1!J3:J100,"*Rodents*")+COUNTIF(Sheet1!J4:J101,"*Beetle*")</f>
         <v>3</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77" t="s">
-        <v>277</v>
-      </c>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/literature_database/literature_database.xlsx
+++ b/literature_database/literature_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/verma/Online_resources/literature_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80122357-DC07-5144-B47B-233CB27E2DFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE68081-E432-A94D-8E1A-848CC5931F06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11180" yWindow="780" windowWidth="24200" windowHeight="15940" xr2:uid="{48D1C182-AEF1-824A-AF31-3D6131FB60DC}"/>
+    <workbookView xWindow="4600" yWindow="780" windowWidth="24200" windowHeight="15940" xr2:uid="{48D1C182-AEF1-824A-AF31-3D6131FB60DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="312">
   <si>
     <t xml:space="preserve">Literature Review of Synthetic Gene Drive Technology </t>
   </si>
@@ -1006,6 +1006,15 @@
   </si>
   <si>
     <t>Underdominance</t>
+  </si>
+  <si>
+    <t>Heffel MG, Finnigan GC. Mathematical modeling of self-contained CRISPR gene drive reversal systems. Scientific Reports. 2019 Dec 27;9(1):1-0.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-019-54805-8</t>
+  </si>
+  <si>
+    <t>CRISPR, Homing Endonuclease Genes (HEGs)</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1365,9 +1374,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1376,9 +1382,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1471,9 +1474,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1494,20 +1494,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1521,6 +1509,21 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1990,10 +1993,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>11</c:v>
@@ -2002,10 +2005,10 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>28</c:v>
@@ -2517,7 +2520,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9</c:v>
@@ -2529,7 +2532,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2738,7 +2741,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>18</c:v>
@@ -4198,8 +4201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9F55AF-FB3A-6E45-BFC6-20E562A75AFE}">
   <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4207,15 +4210,15 @@
     <col min="2" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="6" width="10.83203125" style="16" customWidth="1"/>
     <col min="7" max="8" width="29.6640625" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="63" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="61" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" customWidth="1"/>
-    <col min="14" max="14" width="11.83203125" customWidth="1"/>
-    <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="19.33203125" customWidth="1"/>
-    <col min="17" max="17" width="18.33203125" style="65" customWidth="1"/>
+    <col min="11" max="11" width="17" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11" style="16" customWidth="1"/>
+    <col min="16" max="16" width="19.33203125" style="16" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" style="16" customWidth="1"/>
     <col min="18" max="18" width="32.33203125" customWidth="1"/>
     <col min="19" max="19" width="31.83203125" customWidth="1"/>
     <col min="20" max="20" width="27.6640625" customWidth="1"/>
@@ -4223,29 +4226,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="24" customHeight="1">
-      <c r="A1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="80"/>
+      <c r="A1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="83"/>
     </row>
     <row r="2" spans="1:21" s="7" customFormat="1" ht="51">
       <c r="A2" s="5" t="s">
@@ -4272,7 +4275,7 @@
       <c r="H2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="59" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -4293,7 +4296,7 @@
       <c r="O2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="5" t="s">
@@ -4325,19 +4328,19 @@
       <c r="D3" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="35">
-        <v>1</v>
-      </c>
-      <c r="F3" s="35">
+      <c r="E3" s="33">
+        <v>1</v>
+      </c>
+      <c r="F3" s="33">
         <v>2017</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="I3" s="60">
+      <c r="I3" s="58">
         <v>70</v>
       </c>
       <c r="J3" s="10" t="s">
@@ -4358,7 +4361,7 @@
       <c r="O3" s="3">
         <v>1</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="10" t="s">
         <v>270</v>
       </c>
       <c r="Q3" s="10">
@@ -4403,7 +4406,7 @@
       <c r="H4" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="62">
+      <c r="I4" s="60">
         <v>100</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -4424,7 +4427,7 @@
       <c r="O4" s="3">
         <v>1</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="Q4" s="10">
@@ -4463,7 +4466,7 @@
       <c r="H5" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="62">
+      <c r="I5" s="60">
         <v>100</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -4484,7 +4487,7 @@
       <c r="O5" s="3">
         <v>0</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="10" t="s">
         <v>270</v>
       </c>
       <c r="Q5" s="10">
@@ -4513,10 +4516,10 @@
       <c r="D6" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="36">
-        <v>1</v>
-      </c>
-      <c r="F6" s="36">
+      <c r="E6" s="34">
+        <v>1</v>
+      </c>
+      <c r="F6" s="34">
         <v>2019</v>
       </c>
       <c r="G6" s="20" t="s">
@@ -4525,7 +4528,7 @@
       <c r="H6" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="60" t="s">
         <v>39</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -4546,7 +4549,7 @@
       <c r="O6" s="3">
         <v>0</v>
       </c>
-      <c r="P6" s="29" t="s">
+      <c r="P6" s="85" t="s">
         <v>39</v>
       </c>
       <c r="Q6" s="3" t="s">
@@ -4591,7 +4594,7 @@
       <c r="H7" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="62">
+      <c r="I7" s="60">
         <v>10</v>
       </c>
       <c r="J7" s="3" t="s">
@@ -4612,7 +4615,7 @@
       <c r="O7" s="3">
         <v>0</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="3" t="s">
         <v>36</v>
       </c>
       <c r="Q7" s="10">
@@ -4653,7 +4656,7 @@
       <c r="H8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="62" t="s">
+      <c r="I8" s="60" t="s">
         <v>39</v>
       </c>
       <c r="J8" s="10" t="s">
@@ -4674,7 +4677,7 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="P8" s="10" t="s">
         <v>48</v>
       </c>
       <c r="Q8" s="3" t="s">
@@ -4701,7 +4704,7 @@
       <c r="B9" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="37" t="s">
         <v>244</v>
       </c>
       <c r="D9" s="25">
@@ -4719,7 +4722,7 @@
       <c r="H9" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="62" t="s">
+      <c r="I9" s="60" t="s">
         <v>54</v>
       </c>
       <c r="J9" s="3" t="s">
@@ -4740,7 +4743,7 @@
       <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="1"/>
+      <c r="P9" s="3"/>
       <c r="Q9" s="10">
         <v>1</v>
       </c>
@@ -4773,16 +4776,16 @@
       <c r="F10" s="3">
         <v>2018</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="46" t="s">
         <v>60</v>
       </c>
       <c r="H10" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="62">
+      <c r="I10" s="60">
         <v>10</v>
       </c>
-      <c r="J10" s="40" t="s">
+      <c r="J10" s="38" t="s">
         <v>268</v>
       </c>
       <c r="K10" s="11" t="s">
@@ -4800,7 +4803,7 @@
       <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="P10" s="10" t="s">
         <v>62</v>
       </c>
       <c r="Q10" s="3">
@@ -4841,7 +4844,7 @@
       <c r="H11" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="62">
+      <c r="I11" s="60">
         <v>100</v>
       </c>
       <c r="J11" s="3" t="s">
@@ -4896,13 +4899,13 @@
       <c r="F12" s="3">
         <v>2014</v>
       </c>
-      <c r="G12" s="48" t="s">
+      <c r="G12" s="46" t="s">
         <v>70</v>
       </c>
       <c r="H12" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="62" t="s">
+      <c r="I12" s="60" t="s">
         <v>39</v>
       </c>
       <c r="J12" s="28" t="s">
@@ -4923,7 +4926,7 @@
       <c r="O12" s="3">
         <v>0</v>
       </c>
-      <c r="P12" s="29" t="s">
+      <c r="P12" s="85" t="s">
         <v>39</v>
       </c>
       <c r="Q12" s="3">
@@ -4959,10 +4962,10 @@
       <c r="G13" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="62" t="s">
+      <c r="I13" s="60" t="s">
         <v>39</v>
       </c>
       <c r="J13" s="3" t="s">
@@ -4983,7 +4986,7 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="29" t="s">
+      <c r="P13" s="85" t="s">
         <v>39</v>
       </c>
       <c r="Q13" s="3">
@@ -5018,13 +5021,13 @@
       <c r="F14" s="3">
         <v>2017</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="60">
+      <c r="I14" s="58">
         <v>90</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -5045,7 +5048,7 @@
       <c r="O14" s="3">
         <v>1</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="3" t="s">
         <v>54</v>
       </c>
       <c r="Q14" s="3">
@@ -5058,7 +5061,7 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="15" spans="1:21" ht="112">
+    <row r="15" spans="1:21" ht="128">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5078,16 +5081,16 @@
       <c r="F15" s="10">
         <v>2013</v>
       </c>
-      <c r="G15" s="48" t="s">
+      <c r="G15" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="62">
+      <c r="I15" s="60">
         <v>30</v>
       </c>
-      <c r="J15" s="40" t="s">
+      <c r="J15" s="38" t="s">
         <v>268</v>
       </c>
       <c r="K15" s="12" t="s">
@@ -5105,7 +5108,7 @@
       <c r="O15" s="3">
         <v>1</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="10" t="s">
         <v>270</v>
       </c>
       <c r="Q15" s="3">
@@ -5142,13 +5145,13 @@
       <c r="F16" s="3">
         <v>2011</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="62">
+      <c r="I16" s="60">
         <v>80</v>
       </c>
       <c r="J16" s="5" t="s">
@@ -5169,7 +5172,7 @@
       <c r="O16" s="3">
         <v>1</v>
       </c>
-      <c r="P16" s="11"/>
+      <c r="P16" s="3"/>
       <c r="Q16" s="3">
         <v>0</v>
       </c>
@@ -5202,19 +5205,19 @@
       <c r="F17" s="3">
         <v>2007</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="I17" s="62">
+      <c r="I17" s="60">
         <v>80</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K17" s="31" t="s">
+      <c r="K17" s="30" t="s">
         <v>169</v>
       </c>
       <c r="L17" s="3" t="s">
@@ -5229,7 +5232,7 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-      <c r="P17" s="11" t="s">
+      <c r="P17" s="3" t="s">
         <v>97</v>
       </c>
       <c r="Q17" s="3">
@@ -5267,10 +5270,10 @@
       <c r="G18" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="I18" s="62">
+      <c r="I18" s="60">
         <v>70</v>
       </c>
       <c r="J18" s="5" t="s">
@@ -5291,7 +5294,7 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-      <c r="P18" s="33" t="s">
+      <c r="P18" s="38" t="s">
         <v>36</v>
       </c>
       <c r="Q18" s="10">
@@ -5329,10 +5332,10 @@
       <c r="G19" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="I19" s="62">
+      <c r="I19" s="60">
         <v>70</v>
       </c>
       <c r="J19" s="3" t="s">
@@ -5353,7 +5356,7 @@
       <c r="O19" s="3">
         <v>1</v>
       </c>
-      <c r="P19" s="11" t="s">
+      <c r="P19" s="3" t="s">
         <v>97</v>
       </c>
       <c r="Q19" s="3">
@@ -5391,16 +5394,16 @@
       <c r="G20" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="I20" s="62">
+      <c r="I20" s="60">
         <v>90</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K20" s="34" t="s">
+      <c r="K20" s="32" t="s">
         <v>108</v>
       </c>
       <c r="L20" s="3" t="s">
@@ -5415,7 +5418,7 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="12" t="s">
+      <c r="P20" s="10" t="s">
         <v>270</v>
       </c>
       <c r="Q20" s="3">
@@ -5454,7 +5457,7 @@
       <c r="H21" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="I21" s="62">
+      <c r="I21" s="60">
         <v>40</v>
       </c>
       <c r="J21" s="3" t="s">
@@ -5475,7 +5478,7 @@
       <c r="O21" s="3">
         <v>0</v>
       </c>
-      <c r="P21" s="12" t="s">
+      <c r="P21" s="10" t="s">
         <v>270</v>
       </c>
       <c r="Q21" s="3"/>
@@ -5511,10 +5514,10 @@
       <c r="G22" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="H22" s="42" t="s">
+      <c r="H22" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="I22" s="62">
+      <c r="I22" s="60">
         <v>70</v>
       </c>
       <c r="J22" s="3" t="s">
@@ -5535,7 +5538,7 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="11" t="s">
+      <c r="P22" s="3" t="s">
         <v>97</v>
       </c>
       <c r="Q22" s="10">
@@ -5574,7 +5577,7 @@
       <c r="H23" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="I23" s="62">
+      <c r="I23" s="60">
         <v>90</v>
       </c>
       <c r="J23" s="3" t="s">
@@ -5595,7 +5598,7 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-      <c r="P23" s="11"/>
+      <c r="P23" s="3"/>
       <c r="Q23" s="3">
         <v>1</v>
       </c>
@@ -5631,10 +5634,10 @@
       <c r="G24" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="H24" s="30" t="s">
+      <c r="H24" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="I24" s="62">
+      <c r="I24" s="60">
         <v>80</v>
       </c>
       <c r="J24" s="3" t="s">
@@ -5655,7 +5658,7 @@
       <c r="O24" s="3">
         <v>1</v>
       </c>
-      <c r="P24" s="11" t="s">
+      <c r="P24" s="3" t="s">
         <v>36</v>
       </c>
       <c r="Q24" s="3">
@@ -5693,13 +5696,13 @@
       <c r="G25" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="H25" s="30" t="s">
+      <c r="H25" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="I25" s="62">
+      <c r="I25" s="60">
         <v>30</v>
       </c>
-      <c r="J25" s="40" t="s">
+      <c r="J25" s="38" t="s">
         <v>268</v>
       </c>
       <c r="K25" s="11" t="s">
@@ -5717,7 +5720,7 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-      <c r="P25" s="11"/>
+      <c r="P25" s="3"/>
       <c r="Q25" s="3">
         <v>1</v>
       </c>
@@ -5755,13 +5758,13 @@
       <c r="G26" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="H26" s="30" t="s">
+      <c r="H26" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="I26" s="62">
+      <c r="I26" s="60">
         <v>30</v>
       </c>
-      <c r="J26" s="40" t="s">
+      <c r="J26" s="38" t="s">
         <v>268</v>
       </c>
       <c r="K26" s="11" t="s">
@@ -5779,7 +5782,7 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-      <c r="P26" s="11" t="s">
+      <c r="P26" s="3" t="s">
         <v>97</v>
       </c>
       <c r="Q26" s="3">
@@ -5815,10 +5818,10 @@
       <c r="G27" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="H27" s="30" t="s">
+      <c r="H27" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="I27" s="62">
+      <c r="I27" s="60">
         <v>90</v>
       </c>
       <c r="J27" s="5" t="s">
@@ -5839,7 +5842,7 @@
       <c r="O27" s="3">
         <v>1</v>
       </c>
-      <c r="P27" s="11"/>
+      <c r="P27" s="3"/>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
@@ -5875,10 +5878,10 @@
       <c r="G28" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="H28" s="30" t="s">
+      <c r="H28" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="I28" s="62">
+      <c r="I28" s="60">
         <v>90</v>
       </c>
       <c r="J28" s="3" t="s">
@@ -5899,7 +5902,7 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-      <c r="P28" s="11" t="s">
+      <c r="P28" s="3" t="s">
         <v>97</v>
       </c>
       <c r="Q28" s="3">
@@ -5932,19 +5935,19 @@
       <c r="F29" s="3">
         <v>2016</v>
       </c>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="35" t="s">
         <v>142</v>
       </c>
       <c r="H29" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="I29" s="62">
+      <c r="I29" s="60">
         <v>90</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K29" s="64" t="s">
+      <c r="K29" s="62" t="s">
         <v>162</v>
       </c>
       <c r="L29" s="10" t="s">
@@ -5959,7 +5962,7 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="11" t="s">
+      <c r="P29" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q29" s="3" t="s">
@@ -5995,16 +5998,16 @@
       <c r="G30" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="H30" s="30" t="s">
+      <c r="H30" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="I30" s="62">
+      <c r="I30" s="60">
         <v>90</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K30" s="43" t="s">
+      <c r="K30" s="41" t="s">
         <v>161</v>
       </c>
       <c r="L30" s="10" t="s">
@@ -6019,7 +6022,7 @@
       <c r="O30" s="3">
         <v>1</v>
       </c>
-      <c r="P30" s="12" t="s">
+      <c r="P30" s="10" t="s">
         <v>270</v>
       </c>
       <c r="Q30" s="3">
@@ -6041,10 +6044,10 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="37" t="s">
         <v>260</v>
       </c>
       <c r="D31" s="25">
@@ -6059,10 +6062,10 @@
       <c r="G31" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="H31" s="30" t="s">
+      <c r="H31" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="I31" s="62" t="s">
+      <c r="I31" s="60" t="s">
         <v>54</v>
       </c>
       <c r="J31" s="3" t="s">
@@ -6083,7 +6086,7 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-      <c r="P31" s="11" t="s">
+      <c r="P31" s="3" t="s">
         <v>19</v>
       </c>
       <c r="Q31" s="3" t="s">
@@ -6118,16 +6121,16 @@
       <c r="F32" s="3">
         <v>2018</v>
       </c>
-      <c r="G32" s="38" t="s">
+      <c r="G32" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="H32" s="30" t="s">
+      <c r="H32" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="I32" s="62">
+      <c r="I32" s="60">
         <v>60</v>
       </c>
-      <c r="J32" s="40" t="s">
+      <c r="J32" s="38" t="s">
         <v>268</v>
       </c>
       <c r="K32" s="11" t="s">
@@ -6181,10 +6184,10 @@
       <c r="G33" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="H33" s="40" t="s">
+      <c r="H33" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="I33" s="60">
+      <c r="I33" s="58">
         <v>80</v>
       </c>
       <c r="J33" s="5" t="s">
@@ -6245,16 +6248,16 @@
       <c r="G34" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="H34" s="30" t="s">
+      <c r="H34" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="I34" s="62">
+      <c r="I34" s="60">
         <v>90</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K34" s="45" t="s">
+      <c r="K34" s="43" t="s">
         <v>177</v>
       </c>
       <c r="L34" s="3" t="s">
@@ -6269,13 +6272,13 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-      <c r="P34" s="46" t="s">
+      <c r="P34" s="44" t="s">
         <v>36</v>
       </c>
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-      <c r="R34" s="44" t="s">
+      <c r="R34" s="42" t="s">
         <v>176</v>
       </c>
       <c r="S34" s="13"/>
@@ -6305,16 +6308,16 @@
       <c r="G35" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="H35" s="41" t="s">
+      <c r="H35" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="I35" s="62">
+      <c r="I35" s="60">
         <v>100</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K35" s="47" t="s">
+      <c r="K35" s="45" t="s">
         <v>177</v>
       </c>
       <c r="L35" s="3" t="s">
@@ -6365,10 +6368,10 @@
       <c r="G36" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="H36" s="30" t="s">
+      <c r="H36" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="I36" s="62">
+      <c r="I36" s="60">
         <v>90</v>
       </c>
       <c r="J36" s="3" t="s">
@@ -6427,16 +6430,16 @@
       <c r="G37" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="H37" s="30" t="s">
+      <c r="H37" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="I37" s="62">
+      <c r="I37" s="60">
         <v>70</v>
       </c>
       <c r="J37" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K37" s="45" t="s">
+      <c r="K37" s="43" t="s">
         <v>181</v>
       </c>
       <c r="L37" s="3" t="s">
@@ -6482,10 +6485,10 @@
       <c r="F38" s="3">
         <v>2016</v>
       </c>
-      <c r="G38" s="51" t="s">
+      <c r="G38" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="H38" s="30" t="s">
+      <c r="H38" s="29" t="s">
         <v>196</v>
       </c>
       <c r="I38" s="3" t="s">
@@ -6537,7 +6540,7 @@
       <c r="E39" s="3">
         <v>1</v>
       </c>
-      <c r="F39" s="49">
+      <c r="F39" s="47">
         <v>2018</v>
       </c>
       <c r="G39" s="13" t="s">
@@ -6598,7 +6601,7 @@
       <c r="F40" s="3">
         <v>2017</v>
       </c>
-      <c r="G40" s="50" t="s">
+      <c r="G40" s="48" t="s">
         <v>194</v>
       </c>
       <c r="H40" s="3" t="s">
@@ -6714,13 +6717,13 @@
       <c r="F42" s="3">
         <v>2017</v>
       </c>
-      <c r="G42" s="56" t="s">
+      <c r="G42" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="H42" s="54" t="s">
+      <c r="H42" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="I42" s="60">
+      <c r="I42" s="58">
         <v>50</v>
       </c>
       <c r="J42" s="7" t="s">
@@ -6747,7 +6750,7 @@
       <c r="Q42" s="10">
         <v>1</v>
       </c>
-      <c r="R42" s="52" t="s">
+      <c r="R42" s="50" t="s">
         <v>202</v>
       </c>
       <c r="S42" s="13" t="s">
@@ -6776,13 +6779,13 @@
       <c r="F43" s="3">
         <v>2017</v>
       </c>
-      <c r="G43" s="55" t="s">
+      <c r="G43" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="H43" s="30" t="s">
+      <c r="H43" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="I43" s="62">
+      <c r="I43" s="60">
         <v>100</v>
       </c>
       <c r="J43" s="3" t="s">
@@ -6836,13 +6839,13 @@
       <c r="F44" s="3">
         <v>2019</v>
       </c>
-      <c r="G44" s="56" t="s">
+      <c r="G44" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="H44" s="53" t="s">
+      <c r="H44" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="I44" s="62">
+      <c r="I44" s="60">
         <v>100</v>
       </c>
       <c r="J44" s="10" t="s">
@@ -6896,13 +6899,13 @@
       <c r="F45" s="3">
         <v>2018</v>
       </c>
-      <c r="G45" s="56" t="s">
+      <c r="G45" s="54" t="s">
         <v>212</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I45" s="62">
+      <c r="I45" s="60">
         <v>100</v>
       </c>
       <c r="J45" s="3" t="s">
@@ -6958,13 +6961,13 @@
       <c r="F46" s="3">
         <v>2019</v>
       </c>
-      <c r="G46" s="56" t="s">
+      <c r="G46" s="54" t="s">
         <v>216</v>
       </c>
       <c r="H46" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="I46" s="62">
+      <c r="I46" s="60">
         <v>100</v>
       </c>
       <c r="J46" s="10" t="s">
@@ -7020,13 +7023,13 @@
       <c r="F47" s="3">
         <v>2014</v>
       </c>
-      <c r="G47" s="58" t="s">
+      <c r="G47" s="56" t="s">
         <v>220</v>
       </c>
-      <c r="H47" s="30" t="s">
+      <c r="H47" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="I47" s="62">
+      <c r="I47" s="60">
         <v>80</v>
       </c>
       <c r="J47" s="5" t="s">
@@ -7053,7 +7056,7 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="R47" s="57" t="s">
+      <c r="R47" s="55" t="s">
         <v>223</v>
       </c>
       <c r="S47" s="13" t="s">
@@ -7086,16 +7089,16 @@
       <c r="F48" s="3">
         <v>2015</v>
       </c>
-      <c r="G48" s="55" t="s">
+      <c r="G48" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="H48" s="59" t="s">
+      <c r="H48" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="I48" s="62">
+      <c r="I48" s="60">
         <v>5</v>
       </c>
-      <c r="J48" s="40" t="s">
+      <c r="J48" s="38" t="s">
         <v>268</v>
       </c>
       <c r="K48" s="3" t="s">
@@ -7147,10 +7150,10 @@
       <c r="G49" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="H49" s="30" t="s">
+      <c r="H49" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="I49" s="62" t="s">
+      <c r="I49" s="60" t="s">
         <v>39</v>
       </c>
       <c r="J49" s="3" t="s">
@@ -7206,13 +7209,13 @@
       <c r="F50" s="18">
         <v>2019</v>
       </c>
-      <c r="G50" s="76" t="s">
+      <c r="G50" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="H50" s="30" t="s">
+      <c r="H50" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="I50" s="62">
+      <c r="I50" s="60">
         <v>5</v>
       </c>
       <c r="J50" s="3" t="s">
@@ -7257,7 +7260,7 @@
       <c r="B51" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C51" s="75" t="s">
+      <c r="C51" s="72" t="s">
         <v>279</v>
       </c>
       <c r="D51" s="18">
@@ -7269,16 +7272,16 @@
       <c r="F51" s="18">
         <v>1995</v>
       </c>
-      <c r="G51" s="84" t="s">
+      <c r="G51" s="77" t="s">
         <v>280</v>
       </c>
-      <c r="H51" s="77" t="s">
+      <c r="H51" s="74" t="s">
         <v>281</v>
       </c>
-      <c r="I51" s="62">
+      <c r="I51" s="60">
         <v>5</v>
       </c>
-      <c r="J51" s="40" t="s">
+      <c r="J51" s="38" t="s">
         <v>268</v>
       </c>
       <c r="K51" s="3" t="s">
@@ -7328,19 +7331,19 @@
       <c r="F52" s="3">
         <v>2019</v>
       </c>
-      <c r="G52" s="85" t="s">
+      <c r="G52" s="78" t="s">
         <v>285</v>
       </c>
-      <c r="H52" s="30" t="s">
+      <c r="H52" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="I52" s="62">
+      <c r="I52" s="60">
         <v>90</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K52" s="86" t="s">
+      <c r="K52" s="79" t="s">
         <v>288</v>
       </c>
       <c r="L52" s="3"/>
@@ -7383,13 +7386,13 @@
       <c r="F53" s="3">
         <v>2019</v>
       </c>
-      <c r="G53" s="87" t="s">
+      <c r="G53" s="80" t="s">
         <v>289</v>
       </c>
-      <c r="H53" s="30" t="s">
+      <c r="H53" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="I53" s="62" t="s">
+      <c r="I53" s="60" t="s">
         <v>292</v>
       </c>
       <c r="J53" s="3" t="s">
@@ -7443,10 +7446,10 @@
       <c r="G54" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="H54" s="53" t="s">
+      <c r="H54" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="I54" s="62">
+      <c r="I54" s="60">
         <v>80</v>
       </c>
       <c r="J54" s="3" t="s">
@@ -7500,10 +7503,10 @@
       <c r="G55" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="H55" s="77" t="s">
+      <c r="H55" s="74" t="s">
         <v>298</v>
       </c>
-      <c r="I55" s="62">
+      <c r="I55" s="60">
         <v>20</v>
       </c>
       <c r="J55" s="3" t="s">
@@ -7557,10 +7560,10 @@
       <c r="G56" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="H56" s="30" t="s">
+      <c r="H56" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="I56" s="62">
+      <c r="I56" s="60">
         <v>80</v>
       </c>
       <c r="J56" s="3" t="s">
@@ -7614,10 +7617,10 @@
       <c r="G57" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="H57" s="77" t="s">
+      <c r="H57" s="74" t="s">
         <v>305</v>
       </c>
-      <c r="I57" s="62">
+      <c r="I57" s="60">
         <v>80</v>
       </c>
       <c r="J57" s="3" t="s">
@@ -7649,24 +7652,58 @@
       <c r="T57" s="13"/>
       <c r="U57" s="13"/>
     </row>
-    <row r="58" spans="1:21" ht="115" customHeight="1">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="81"/>
-      <c r="I58" s="62"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="82"/>
-      <c r="N58" s="82"/>
-      <c r="O58" s="82"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="82"/>
+    <row r="58" spans="1:21" ht="107" customHeight="1">
+      <c r="A58" s="3">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2019</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="H58" s="74" t="s">
+        <v>310</v>
+      </c>
+      <c r="I58" s="60">
+        <v>90</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M58" s="3">
+        <v>1</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
       <c r="R58" s="13"/>
       <c r="S58" s="13"/>
       <c r="T58" s="13"/>
@@ -7680,16 +7717,16 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="81"/>
-      <c r="I59" s="62"/>
+      <c r="H59" s="75"/>
+      <c r="I59" s="60"/>
       <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="82"/>
-      <c r="N59" s="82"/>
-      <c r="O59" s="82"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="82"/>
+      <c r="K59" s="84"/>
+      <c r="L59" s="84"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
       <c r="R59" s="13"/>
       <c r="S59" s="13"/>
       <c r="T59" s="13"/>
@@ -7703,16 +7740,16 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="62"/>
+      <c r="H60" s="75"/>
+      <c r="I60" s="60"/>
       <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="82"/>
-      <c r="N60" s="82"/>
-      <c r="O60" s="82"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="82"/>
+      <c r="K60" s="84"/>
+      <c r="L60" s="84"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
       <c r="R60" s="13"/>
       <c r="S60" s="13"/>
       <c r="T60" s="13"/>
@@ -7726,16 +7763,16 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="81"/>
-      <c r="I61" s="62"/>
+      <c r="H61" s="75"/>
+      <c r="I61" s="60"/>
       <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="82"/>
-      <c r="N61" s="82"/>
-      <c r="O61" s="82"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="82"/>
+      <c r="K61" s="84"/>
+      <c r="L61" s="84"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
       <c r="R61" s="13"/>
       <c r="S61" s="13"/>
       <c r="T61" s="13"/>
@@ -7749,16 +7786,16 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="81"/>
-      <c r="I62" s="62"/>
+      <c r="H62" s="75"/>
+      <c r="I62" s="60"/>
       <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="82"/>
-      <c r="N62" s="82"/>
-      <c r="O62" s="82"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="82"/>
+      <c r="K62" s="84"/>
+      <c r="L62" s="84"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
       <c r="R62" s="13"/>
       <c r="S62" s="13"/>
       <c r="T62" s="13"/>
@@ -7772,16 +7809,16 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="81"/>
-      <c r="I63" s="62"/>
+      <c r="H63" s="75"/>
+      <c r="I63" s="60"/>
       <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="82"/>
-      <c r="N63" s="82"/>
-      <c r="O63" s="82"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="82"/>
+      <c r="K63" s="84"/>
+      <c r="L63" s="84"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
       <c r="R63" s="13"/>
       <c r="S63" s="13"/>
       <c r="T63" s="13"/>
@@ -7795,16 +7832,16 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="81"/>
-      <c r="I64" s="62"/>
+      <c r="H64" s="75"/>
+      <c r="I64" s="60"/>
       <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="82"/>
-      <c r="N64" s="82"/>
-      <c r="O64" s="82"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="82"/>
+      <c r="K64" s="84"/>
+      <c r="L64" s="84"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
       <c r="R64" s="13"/>
       <c r="S64" s="13"/>
       <c r="T64" s="13"/>
@@ -7818,16 +7855,16 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="81"/>
-      <c r="I65" s="62"/>
+      <c r="H65" s="75"/>
+      <c r="I65" s="60"/>
       <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="82"/>
-      <c r="N65" s="82"/>
-      <c r="O65" s="82"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="82"/>
+      <c r="K65" s="84"/>
+      <c r="L65" s="84"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
       <c r="R65" s="13"/>
       <c r="S65" s="13"/>
       <c r="T65" s="13"/>
@@ -7841,16 +7878,16 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="81"/>
-      <c r="I66" s="62"/>
+      <c r="H66" s="75"/>
+      <c r="I66" s="60"/>
       <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="82"/>
-      <c r="N66" s="82"/>
-      <c r="O66" s="82"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="82"/>
+      <c r="K66" s="84"/>
+      <c r="L66" s="84"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
       <c r="R66" s="13"/>
       <c r="S66" s="13"/>
       <c r="T66" s="13"/>
@@ -7864,16 +7901,16 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="81"/>
-      <c r="I67" s="62"/>
+      <c r="H67" s="75"/>
+      <c r="I67" s="60"/>
       <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="82"/>
-      <c r="N67" s="82"/>
-      <c r="O67" s="82"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="82"/>
+      <c r="K67" s="84"/>
+      <c r="L67" s="84"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
       <c r="R67" s="13"/>
       <c r="S67" s="13"/>
       <c r="T67" s="13"/>
@@ -7887,16 +7924,16 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="81"/>
-      <c r="I68" s="62"/>
+      <c r="H68" s="75"/>
+      <c r="I68" s="60"/>
       <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="82"/>
-      <c r="N68" s="82"/>
-      <c r="O68" s="82"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="82"/>
+      <c r="K68" s="84"/>
+      <c r="L68" s="84"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
       <c r="R68" s="13"/>
       <c r="S68" s="13"/>
       <c r="T68" s="13"/>
@@ -7911,15 +7948,15 @@
       <c r="F69" s="3"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-      <c r="I69" s="83"/>
+      <c r="I69" s="76"/>
       <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="82"/>
+      <c r="K69" s="84"/>
+      <c r="L69" s="84"/>
+      <c r="M69" s="84"/>
+      <c r="N69" s="84"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
@@ -7934,15 +7971,15 @@
       <c r="F70" s="3"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="83"/>
+      <c r="I70" s="76"/>
       <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="82"/>
+      <c r="K70" s="84"/>
+      <c r="L70" s="84"/>
+      <c r="M70" s="84"/>
+      <c r="N70" s="84"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
@@ -8001,6 +8038,7 @@
     <hyperlink ref="H55" r:id="rId45" xr:uid="{D02C6F54-81ED-8A4A-9FC2-AA25B415331F}"/>
     <hyperlink ref="H56" r:id="rId46" xr:uid="{3F243643-47F8-9642-BBB1-C073EA51E282}"/>
     <hyperlink ref="H57" r:id="rId47" xr:uid="{88D9FA4D-9F9C-5F42-B1D2-EA4F848C4896}"/>
+    <hyperlink ref="H58" r:id="rId48" xr:uid="{78C03330-D5C3-AB42-A027-FB4049D534AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8027,221 +8065,221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="64" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="73">
-        <v>1</v>
-      </c>
-      <c r="C1" s="73">
+      <c r="B1" s="70">
+        <v>1</v>
+      </c>
+      <c r="C1" s="70">
         <v>2</v>
       </c>
-      <c r="D1" s="73">
+      <c r="D1" s="70">
         <v>3</v>
       </c>
-      <c r="E1" s="73">
+      <c r="E1" s="70">
         <v>4</v>
       </c>
-      <c r="F1" s="73">
+      <c r="F1" s="70">
         <v>5</v>
       </c>
-      <c r="G1" s="73">
+      <c r="G1" s="70">
         <v>6</v>
       </c>
-      <c r="H1" s="73">
+      <c r="H1" s="70">
         <v>7</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="64" t="s">
         <v>271</v>
       </c>
-      <c r="K1" s="73">
-        <v>1</v>
-      </c>
-      <c r="L1" s="74">
+      <c r="K1" s="70">
+        <v>1</v>
+      </c>
+      <c r="L1" s="71">
         <v>2</v>
       </c>
-      <c r="M1" s="74">
+      <c r="M1" s="71">
         <v>3</v>
       </c>
-      <c r="N1" s="73">
+      <c r="N1" s="70">
         <v>4</v>
       </c>
-      <c r="O1" s="73">
+      <c r="O1" s="70">
         <v>5</v>
       </c>
-      <c r="P1" s="73">
+      <c r="P1" s="70">
         <v>6</v>
       </c>
-      <c r="Q1" s="73">
+      <c r="Q1" s="70">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68">
+      <c r="A2" s="64"/>
+      <c r="B2" s="65">
         <f>COUNTIF(Sheet1!B3:B100,"Peer reviewed")</f>
+        <v>48</v>
+      </c>
+      <c r="C2" s="65">
+        <f>COUNTIF(Sheet1!E3:E100,1)</f>
         <v>47</v>
       </c>
-      <c r="C2" s="68">
-        <f>COUNTIF(Sheet1!E3:E100,1)</f>
-        <v>46</v>
-      </c>
-      <c r="D2" s="68">
+      <c r="D2" s="65">
         <f>COUNTIF(Sheet1!I3:I101,"&lt;=50")</f>
         <v>11</v>
       </c>
-      <c r="E2" s="68">
+      <c r="E2" s="65">
         <f>COUNTIF(Sheet1!J3:J100,"*Mosquitoes*")</f>
         <v>17</v>
       </c>
-      <c r="F2" s="68">
+      <c r="F2" s="65">
         <f>COUNTIF(Sheet1!M3:M100,1)</f>
-        <v>27</v>
-      </c>
-      <c r="G2" s="68">
+        <v>28</v>
+      </c>
+      <c r="G2" s="65">
         <f>COUNTIF(Sheet1!P3:P100,"*Suppression*")+COUNTIF(Sheet1!P3:P100,"*Both*")</f>
-        <v>23</v>
-      </c>
-      <c r="H2" s="68">
+        <v>24</v>
+      </c>
+      <c r="H2" s="65">
         <f>COUNTIF(Sheet1!Q3:Q100,1)</f>
         <v>28</v>
       </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="68" t="s">
+      <c r="J2" s="67"/>
+      <c r="K2" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="L2" s="68" t="s">
+      <c r="L2" s="65" t="s">
         <v>272</v>
       </c>
-      <c r="M2" s="68" t="s">
+      <c r="M2" s="65" t="s">
         <v>273</v>
       </c>
-      <c r="N2" s="68" t="s">
+      <c r="N2" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="68" t="s">
+      <c r="O2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="68" t="s">
+      <c r="P2" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="Q2" s="68" t="s">
+      <c r="Q2" s="65" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="67"/>
-      <c r="B3" s="66">
+      <c r="A3" s="64"/>
+      <c r="B3" s="63">
         <f>COUNTIF(Sheet1!B3:B100,"Report")</f>
         <v>4</v>
       </c>
-      <c r="C3" s="66">
+      <c r="C3" s="63">
         <f>COUNTIF(Sheet1!E3:E100,0)</f>
         <v>9</v>
       </c>
-      <c r="D3" s="66">
+      <c r="D3" s="63">
         <f>COUNTIF(Sheet1!I3:I101,"&gt;=50")</f>
-        <v>33</v>
-      </c>
-      <c r="E3" s="66">
+        <v>34</v>
+      </c>
+      <c r="E3" s="63">
         <f>COUNTIF(Sheet1!J3:J100,"*Fruit Fly*")</f>
         <v>9</v>
       </c>
-      <c r="F3" s="66">
+      <c r="F3" s="63">
         <f>COUNTIF(Sheet1!N3:N100,1)</f>
         <v>14</v>
       </c>
-      <c r="G3" s="66">
+      <c r="G3" s="63">
         <f>COUNTIF(Sheet1!P3:P100,"*Replacement*")+COUNTIF(Sheet1!P3:P100,"*Both*")</f>
         <v>21</v>
       </c>
-      <c r="H3" s="66">
+      <c r="H3" s="63">
         <f>COUNTIF(Sheet1!Q3:Q100,0)</f>
-        <v>14</v>
-      </c>
-      <c r="J3" s="70"/>
-      <c r="K3" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="67"/>
+      <c r="K3" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="L3" s="71" t="s">
+      <c r="L3" s="68" t="s">
         <v>197</v>
       </c>
-      <c r="M3" s="71" t="s">
+      <c r="M3" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="N3" s="71" t="s">
+      <c r="N3" s="68" t="s">
         <v>198</v>
       </c>
-      <c r="O3" s="71" t="s">
+      <c r="O3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="71" t="s">
+      <c r="P3" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" s="71" t="s">
+      <c r="Q3" s="68" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68">
+      <c r="A4" s="64"/>
+      <c r="B4" s="65">
         <f>COUNTIF(Sheet1!B3:B100,"Preprint")</f>
         <v>4</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69">
+      <c r="C4" s="65"/>
+      <c r="D4" s="66">
         <f>COUNTIF(Sheet1!I3:I100,"Perspective")+COUNTIF(Sheet1!I3:I100,"Report")+COUNTIF(Sheet1!I3:I100,"Review")</f>
         <v>12</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="65">
         <f>COUNTIF(Sheet1!J3:J100,"*Generic*")</f>
-        <v>16</v>
-      </c>
-      <c r="F4" s="68">
+        <v>17</v>
+      </c>
+      <c r="F4" s="65">
         <f>COUNTIF(Sheet1!O3:O100,1)</f>
         <v>18</v>
       </c>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="68" t="s">
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="65" t="s">
         <v>255</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="69" t="s">
         <v>275</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="67"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66">
+      <c r="A5" s="64"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63">
         <f>COUNTIF(Sheet1!J3:J100,"*Rodents*")+COUNTIF(Sheet1!J4:J101,"*Beetle*")</f>
         <v>3</v>
       </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71" t="s">
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68" t="s">
         <v>276</v>
       </c>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/literature_database/literature_database.xlsx
+++ b/literature_database/literature_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/verma/Online_resources/literature_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE68081-E432-A94D-8E1A-848CC5931F06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089B3388-AC4C-7143-ADB7-E06BAF6B7721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="780" windowWidth="24200" windowHeight="15940" xr2:uid="{48D1C182-AEF1-824A-AF31-3D6131FB60DC}"/>
+    <workbookView xWindow="460" yWindow="780" windowWidth="24200" windowHeight="15940" xr2:uid="{48D1C182-AEF1-824A-AF31-3D6131FB60DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="314">
   <si>
     <t xml:space="preserve">Literature Review of Synthetic Gene Drive Technology </t>
   </si>
@@ -1015,6 +1015,12 @@
   </si>
   <si>
     <t>CRISPR, Homing Endonuclease Genes (HEGs)</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1073/pnas.1921698117</t>
+  </si>
+  <si>
+    <t>Cleave and Rescue, CRIPR</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1510,6 +1516,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1519,11 +1531,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1993,13 +2002,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>47</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>17</c:v>
@@ -2011,7 +2020,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2523,13 +2532,13 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>15</c:v>
@@ -4201,8 +4210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9F55AF-FB3A-6E45-BFC6-20E562A75AFE}">
   <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="R59" sqref="R59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4226,29 +4235,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="24" customHeight="1">
-      <c r="A1" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="83"/>
+      <c r="A1" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="85"/>
     </row>
     <row r="2" spans="1:21" s="7" customFormat="1" ht="51">
       <c r="A2" s="5" t="s">
@@ -4549,7 +4558,7 @@
       <c r="O6" s="3">
         <v>0</v>
       </c>
-      <c r="P6" s="85" t="s">
+      <c r="P6" s="82" t="s">
         <v>39</v>
       </c>
       <c r="Q6" s="3" t="s">
@@ -4926,7 +4935,7 @@
       <c r="O12" s="3">
         <v>0</v>
       </c>
-      <c r="P12" s="85" t="s">
+      <c r="P12" s="82" t="s">
         <v>39</v>
       </c>
       <c r="Q12" s="3">
@@ -4986,7 +4995,7 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="85" t="s">
+      <c r="P13" s="82" t="s">
         <v>39</v>
       </c>
       <c r="Q13" s="3">
@@ -5061,7 +5070,7 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="15" spans="1:21" ht="128">
+    <row r="15" spans="1:21" ht="112">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7671,7 +7680,7 @@
       <c r="F58" s="3">
         <v>2019</v>
       </c>
-      <c r="G58" s="14" t="s">
+      <c r="G58" s="86" t="s">
         <v>309</v>
       </c>
       <c r="H58" s="74" t="s">
@@ -7710,23 +7719,55 @@
       <c r="U58" s="13"/>
     </row>
     <row r="59" spans="1:21" ht="102" customHeight="1">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
+      <c r="A59" s="3">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2020</v>
+      </c>
       <c r="G59" s="1"/>
-      <c r="H59" s="75"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="84"/>
-      <c r="L59" s="84"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
+      <c r="H59" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="I59" s="60">
+        <v>10</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>1</v>
+      </c>
       <c r="R59" s="13"/>
       <c r="S59" s="13"/>
       <c r="T59" s="13"/>
@@ -7743,8 +7784,8 @@
       <c r="H60" s="75"/>
       <c r="I60" s="60"/>
       <c r="J60" s="1"/>
-      <c r="K60" s="84"/>
-      <c r="L60" s="84"/>
+      <c r="K60" s="81"/>
+      <c r="L60" s="81"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
@@ -7766,8 +7807,8 @@
       <c r="H61" s="75"/>
       <c r="I61" s="60"/>
       <c r="J61" s="1"/>
-      <c r="K61" s="84"/>
-      <c r="L61" s="84"/>
+      <c r="K61" s="81"/>
+      <c r="L61" s="81"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
@@ -7789,8 +7830,8 @@
       <c r="H62" s="75"/>
       <c r="I62" s="60"/>
       <c r="J62" s="1"/>
-      <c r="K62" s="84"/>
-      <c r="L62" s="84"/>
+      <c r="K62" s="81"/>
+      <c r="L62" s="81"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
@@ -7812,8 +7853,8 @@
       <c r="H63" s="75"/>
       <c r="I63" s="60"/>
       <c r="J63" s="1"/>
-      <c r="K63" s="84"/>
-      <c r="L63" s="84"/>
+      <c r="K63" s="81"/>
+      <c r="L63" s="81"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
@@ -7835,8 +7876,8 @@
       <c r="H64" s="75"/>
       <c r="I64" s="60"/>
       <c r="J64" s="1"/>
-      <c r="K64" s="84"/>
-      <c r="L64" s="84"/>
+      <c r="K64" s="81"/>
+      <c r="L64" s="81"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
@@ -7858,8 +7899,8 @@
       <c r="H65" s="75"/>
       <c r="I65" s="60"/>
       <c r="J65" s="1"/>
-      <c r="K65" s="84"/>
-      <c r="L65" s="84"/>
+      <c r="K65" s="81"/>
+      <c r="L65" s="81"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
@@ -7881,8 +7922,8 @@
       <c r="H66" s="75"/>
       <c r="I66" s="60"/>
       <c r="J66" s="1"/>
-      <c r="K66" s="84"/>
-      <c r="L66" s="84"/>
+      <c r="K66" s="81"/>
+      <c r="L66" s="81"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
@@ -7904,8 +7945,8 @@
       <c r="H67" s="75"/>
       <c r="I67" s="60"/>
       <c r="J67" s="1"/>
-      <c r="K67" s="84"/>
-      <c r="L67" s="84"/>
+      <c r="K67" s="81"/>
+      <c r="L67" s="81"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
@@ -7927,8 +7968,8 @@
       <c r="H68" s="75"/>
       <c r="I68" s="60"/>
       <c r="J68" s="1"/>
-      <c r="K68" s="84"/>
-      <c r="L68" s="84"/>
+      <c r="K68" s="81"/>
+      <c r="L68" s="81"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
@@ -7950,10 +7991,10 @@
       <c r="H69" s="1"/>
       <c r="I69" s="76"/>
       <c r="J69" s="1"/>
-      <c r="K69" s="84"/>
-      <c r="L69" s="84"/>
-      <c r="M69" s="84"/>
-      <c r="N69" s="84"/>
+      <c r="K69" s="81"/>
+      <c r="L69" s="81"/>
+      <c r="M69" s="81"/>
+      <c r="N69" s="81"/>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
@@ -7973,10 +8014,10 @@
       <c r="H70" s="1"/>
       <c r="I70" s="76"/>
       <c r="J70" s="1"/>
-      <c r="K70" s="84"/>
-      <c r="L70" s="84"/>
-      <c r="M70" s="84"/>
-      <c r="N70" s="84"/>
+      <c r="K70" s="81"/>
+      <c r="L70" s="81"/>
+      <c r="M70" s="81"/>
+      <c r="N70" s="81"/>
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
@@ -8039,6 +8080,7 @@
     <hyperlink ref="H56" r:id="rId46" xr:uid="{3F243643-47F8-9642-BBB1-C073EA51E282}"/>
     <hyperlink ref="H57" r:id="rId47" xr:uid="{88D9FA4D-9F9C-5F42-B1D2-EA4F848C4896}"/>
     <hyperlink ref="H58" r:id="rId48" xr:uid="{78C03330-D5C3-AB42-A027-FB4049D534AF}"/>
+    <hyperlink ref="H59" r:id="rId49" xr:uid="{4C3A9D7B-D77A-0541-BA20-29C30C7D28C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8118,15 +8160,15 @@
       <c r="A2" s="64"/>
       <c r="B2" s="65">
         <f>COUNTIF(Sheet1!B3:B100,"Peer reviewed")</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="65">
         <f>COUNTIF(Sheet1!E3:E100,1)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" s="65">
         <f>COUNTIF(Sheet1!I3:I101,"&lt;=50")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="65">
         <f>COUNTIF(Sheet1!J3:J100,"*Mosquitoes*")</f>
@@ -8142,7 +8184,7 @@
       </c>
       <c r="H2" s="65">
         <f>COUNTIF(Sheet1!Q3:Q100,1)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" s="67"/>
       <c r="K2" s="65" t="s">
@@ -8183,7 +8225,7 @@
       </c>
       <c r="E3" s="63">
         <f>COUNTIF(Sheet1!J3:J100,"*Fruit Fly*")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="63">
         <f>COUNTIF(Sheet1!N3:N100,1)</f>
@@ -8191,7 +8233,7 @@
       </c>
       <c r="G3" s="63">
         <f>COUNTIF(Sheet1!P3:P100,"*Replacement*")+COUNTIF(Sheet1!P3:P100,"*Both*")</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="63">
         <f>COUNTIF(Sheet1!Q3:Q100,0)</f>

--- a/literature_database/literature_database.xlsx
+++ b/literature_database/literature_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/verma/Online_resources/literature_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089B3388-AC4C-7143-ADB7-E06BAF6B7721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB81B2B8-83C5-1F42-AE91-898A505A1D93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="780" windowWidth="24200" windowHeight="15940" xr2:uid="{48D1C182-AEF1-824A-AF31-3D6131FB60DC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="315">
   <si>
     <t xml:space="preserve">Literature Review of Synthetic Gene Drive Technology </t>
   </si>
@@ -1021,6 +1021,9 @@
   </si>
   <si>
     <t>Cleave and Rescue, CRIPR</t>
+  </si>
+  <si>
+    <t>Oberhofer G, Ivy T, Hay BA. Gene drive and resilience through renewal with next generation Cleave and Rescue selfish genetic elements. Proceedings of the National Academy of Sciences. 2020 Apr 3.</t>
   </si>
 </sst>
 </file>
@@ -1522,6 +1525,9 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1530,9 +1536,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1623,7 +1626,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1764,7 +1767,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="ctr"/>
@@ -1964,7 +1967,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2128,7 +2131,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="ctr"/>
@@ -2315,7 +2318,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="ctr"/>
@@ -2446,7 +2449,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="ctr"/>
@@ -2486,7 +2489,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2707,7 +2710,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2831,7 +2834,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2918,7 +2921,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3082,7 +3085,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3120,7 +3123,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1302053552"/>
@@ -3235,7 +3238,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3273,7 +3276,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1301943488"/>
@@ -3314,7 +3317,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4210,8 +4213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9F55AF-FB3A-6E45-BFC6-20E562A75AFE}">
   <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="R59" sqref="R59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4235,29 +4238,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="24" customHeight="1">
-      <c r="A1" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="85"/>
+      <c r="A1" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="86"/>
     </row>
     <row r="2" spans="1:21" s="7" customFormat="1" ht="51">
       <c r="A2" s="5" t="s">
@@ -7680,7 +7683,7 @@
       <c r="F58" s="3">
         <v>2019</v>
       </c>
-      <c r="G58" s="86" t="s">
+      <c r="G58" s="83" t="s">
         <v>309</v>
       </c>
       <c r="H58" s="74" t="s">
@@ -7718,7 +7721,7 @@
       <c r="T58" s="13"/>
       <c r="U58" s="13"/>
     </row>
-    <row r="59" spans="1:21" ht="102" customHeight="1">
+    <row r="59" spans="1:21" ht="116" customHeight="1">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -7737,7 +7740,9 @@
       <c r="F59" s="3">
         <v>2020</v>
       </c>
-      <c r="G59" s="1"/>
+      <c r="G59" s="56" t="s">
+        <v>314</v>
+      </c>
       <c r="H59" s="29" t="s">
         <v>312</v>
       </c>

--- a/literature_database/literature_database.xlsx
+++ b/literature_database/literature_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/verma/Online_resources/literature_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB81B2B8-83C5-1F42-AE91-898A505A1D93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37327C6-8586-F540-BDF7-3CE10AB44E1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="780" windowWidth="24200" windowHeight="15940" xr2:uid="{48D1C182-AEF1-824A-AF31-3D6131FB60DC}"/>
+    <workbookView xWindow="720" yWindow="900" windowWidth="24200" windowHeight="15940" xr2:uid="{48D1C182-AEF1-824A-AF31-3D6131FB60DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="308">
   <si>
     <t xml:space="preserve">Literature Review of Synthetic Gene Drive Technology </t>
   </si>
@@ -100,9 +100,6 @@
     <t>CRISPR, Homing Endonuclease Genes (HEGs), Driving-Y and Population replacement</t>
   </si>
   <si>
-    <t>Supression</t>
-  </si>
-  <si>
     <t xml:space="preserve">Studied the effect of realistic seasonality in contrast to non-seasonality on vector population dynamics. Seasonality helps gene drive spread. Explored effect of spatial pattern, release timing, frequency, and migration rate on spread of malaria for 3 gene drive approaches (1) population supression (2) Driving Y (3) Population replacement. </t>
   </si>
   <si>
@@ -116,9 +113,6 @@
   </si>
   <si>
     <t>"We conclude with specific recommendations about how to address current challenges and foster more effective communication and decision- making for complex, post-normal issues, such as gene drives."</t>
-  </si>
-  <si>
-    <t>CRIPR</t>
   </si>
   <si>
     <t>"We provide a review of gene drives and their potential applications, as well as the role of journalists in communicating the extent of uncertainties around specific projects."</t>
@@ -605,9 +599,6 @@
     <t>" Table 1 Overview comparison of the gene drive systems explored in this manuscript "</t>
   </si>
   <si>
-    <t>Underdominance - CRISPR, meternal effect, reciprocal translocation, Haploinsucient RNA; Wolbachia, CRISPR</t>
-  </si>
-  <si>
     <t>"A simulation model was created to examine the impact of insertion bias on TE spread in mosquito populations. "</t>
   </si>
   <si>
@@ -629,12 +620,6 @@
     <t>" a synthetic genetic element, consisting of mosquito regulatory regions10 and the homing endonuclease gene I-SceI11–13, can substantially increase its transmission to the pro- geny in transgenic mosquitoes of the human malaria vector Anopheles gambiae. "</t>
   </si>
   <si>
-    <t>Paper acess</t>
-  </si>
-  <si>
-    <t>Journal Acess</t>
-  </si>
-  <si>
     <t>0.5</t>
   </si>
   <si>
@@ -654,21 +639,6 @@
   </si>
   <si>
     <t>Report</t>
-  </si>
-  <si>
-    <t>Forcing the Farm: how gene grive organisms could entrench industrial agriculture and threaten food sovereignty; {ETC Group} and {Heinrich Boll Foundation}</t>
-  </si>
-  <si>
-    <t>Gene Drives on the Horizon;  {Committee on gene drive research in non-human organisms: recommendations for responsible conduct}</t>
-  </si>
-  <si>
-    <t>Genome editing: scientific opportunities, public interests, and policy options in the EU; {European Academies Science Advisory Council}</t>
-  </si>
-  <si>
-    <t>The opportunity and limits of genome editing;  {Nationale Akademie der Wissenschaften Leopoldina, Deutsche Forschungsgemeinschaft, acatech – Deutsche Akademie der Technikwissenschaften, Union der deutschen Akademien der Wissenschaften}</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.17226/23405</t>
   </si>
   <si>
     <t>Closed</t>
@@ -798,9 +768,6 @@
     <t>"The one-fifth of respondents seeking out non–GMO–labeled food are more likely to oppose drives, although their support exceeds opposition for limited applications."</t>
   </si>
   <si>
-    <t>Publication name</t>
-  </si>
-  <si>
     <t>PNAS</t>
   </si>
   <si>
@@ -945,9 +912,6 @@
     <t>Proceedings of the Royal Society B</t>
   </si>
   <si>
-    <t xml:space="preserve">Z-linked, CRIPR based, uses HEG </t>
-  </si>
-  <si>
     <t>Raban RR, Marshall JM, Akbari OS. Progress towards engineering gene drives for population control. Journal of Experimental Biology. 2020 Feb 1;223(Suppl 1).</t>
   </si>
   <si>
@@ -1020,10 +984,25 @@
     <t>https://doi.org/10.1073/pnas.1921698117</t>
   </si>
   <si>
-    <t>Cleave and Rescue, CRIPR</t>
-  </si>
-  <si>
     <t>Oberhofer G, Ivy T, Hay BA. Gene drive and resilience through renewal with next generation Cleave and Rescue selfish genetic elements. Proceedings of the National Academy of Sciences. 2020 Apr 3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z-linked, CRISPR based, uses HEG </t>
+  </si>
+  <si>
+    <t>Cleave and Rescue, CRISPR</t>
+  </si>
+  <si>
+    <t>Journal name</t>
+  </si>
+  <si>
+    <t>Paper access</t>
+  </si>
+  <si>
+    <t>Journal Access</t>
+  </si>
+  <si>
+    <t>Underdominance - CRISPR, Maternal effect, reciprocal translocation, Haploinsufficient RNA; Wolbachia, CRISPR</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1428,23 +1407,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2008,7 +1975,7 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12</c:v>
@@ -2020,7 +1987,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>29</c:v>
@@ -2526,7 +2493,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9</c:v>
@@ -2541,10 +2508,10 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2750,7 +2717,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>17</c:v>
@@ -4211,10 +4178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9F55AF-FB3A-6E45-BFC6-20E562A75AFE}">
-  <dimension ref="A1:U70"/>
+  <dimension ref="A1:U66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B55" sqref="B55:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4222,7 +4189,7 @@
     <col min="2" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="6" width="10.83203125" style="16" customWidth="1"/>
     <col min="7" max="8" width="29.6640625" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="61" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="57" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" customWidth="1"/>
     <col min="11" max="11" width="17" style="2" customWidth="1"/>
     <col min="12" max="12" width="16.1640625" style="2" customWidth="1"/>
@@ -4238,56 +4205,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="24" customHeight="1">
-      <c r="A1" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="86"/>
+      <c r="A1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="82"/>
     </row>
     <row r="2" spans="1:21" s="7" customFormat="1" ht="51">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>239</v>
+        <v>304</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>184</v>
+        <v>306</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>183</v>
+        <v>305</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="55" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -4332,13 +4299,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E3" s="33">
         <v>1</v>
@@ -4347,16 +4314,16 @@
         <v>2017</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="I3" s="58">
+        <v>156</v>
+      </c>
+      <c r="I3" s="54">
         <v>70</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>21</v>
@@ -4374,13 +4341,13 @@
         <v>1</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="Q3" s="10">
         <v>1</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S3" s="17" t="s">
         <v>13</v>
@@ -4398,10 +4365,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
@@ -4416,13 +4383,13 @@
         <v>17</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="60">
+        <v>40</v>
+      </c>
+      <c r="I4" s="56">
         <v>100</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>20</v>
@@ -4439,14 +4406,14 @@
       <c r="O4" s="3">
         <v>1</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>22</v>
+      <c r="P4" s="38" t="s">
+        <v>34</v>
       </c>
       <c r="Q4" s="10">
         <v>1</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
@@ -4454,14 +4421,14 @@
     </row>
     <row r="5" spans="1:21" ht="101" customHeight="1">
       <c r="A5" s="3">
-        <f t="shared" ref="A5:A50" si="0">1+A4</f>
+        <f t="shared" ref="A5:A55" si="0">1+A4</f>
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
@@ -4476,13 +4443,13 @@
         <v>16</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="60">
+        <v>41</v>
+      </c>
+      <c r="I5" s="56">
         <v>100</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>20</v>
@@ -4500,16 +4467,16 @@
         <v>0</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="Q5" s="10">
         <v>1</v>
       </c>
       <c r="R5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="19" t="s">
         <v>25</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>26</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -4520,13 +4487,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E6" s="34">
         <v>1</v>
@@ -4535,19 +4502,19 @@
         <v>2019</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="60" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>37</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>19</v>
@@ -4561,23 +4528,23 @@
       <c r="O6" s="3">
         <v>0</v>
       </c>
-      <c r="P6" s="82" t="s">
-        <v>39</v>
+      <c r="P6" s="78" t="s">
+        <v>37</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R6" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S6" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="126" customHeight="1">
@@ -4586,13 +4553,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -4601,43 +4568,43 @@
         <v>2018</v>
       </c>
       <c r="G7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="56">
+        <v>10</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="60">
-        <v>10</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="K7" s="11" t="s">
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>1</v>
+      </c>
+      <c r="R7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>1</v>
-      </c>
-      <c r="R7" s="13" t="s">
+      <c r="S7" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>37</v>
       </c>
       <c r="T7" s="13"/>
       <c r="U7" s="1"/>
@@ -4648,10 +4615,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -4663,19 +4630,19 @@
         <v>2017</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="60" t="s">
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="I8" s="56" t="s">
+        <v>37</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>19</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>19</v>
@@ -4690,22 +4657,22 @@
         <v>0</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="R8" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U8" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="107" customHeight="1">
@@ -4714,10 +4681,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D9" s="25">
         <v>0</v>
@@ -4729,19 +4696,19 @@
         <v>2016</v>
       </c>
       <c r="G9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="60" t="s">
+      <c r="K9" s="23" t="s">
         <v>54</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>56</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>19</v>
@@ -4755,15 +4722,17 @@
       <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="3"/>
+      <c r="P9" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="Q9" s="10">
         <v>1</v>
       </c>
       <c r="R9" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S9" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -4774,13 +4743,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -4788,23 +4757,23 @@
       <c r="F10" s="3">
         <v>2018</v>
       </c>
-      <c r="G10" s="46" t="s">
-        <v>60</v>
+      <c r="G10" s="45" t="s">
+        <v>58</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="60">
+        <v>57</v>
+      </c>
+      <c r="I10" s="56">
         <v>10</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>20</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -4816,16 +4785,16 @@
         <v>0</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="3">
         <v>1</v>
       </c>
       <c r="R10" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="S10" s="27" t="s">
         <v>61</v>
-      </c>
-      <c r="S10" s="27" t="s">
-        <v>63</v>
       </c>
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
@@ -4836,10 +4805,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -4851,16 +4820,16 @@
         <v>2018</v>
       </c>
       <c r="G11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="56">
+        <v>100</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="60">
-        <v>100</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>20</v>
@@ -4877,17 +4846,20 @@
       <c r="O11" s="3">
         <v>1</v>
       </c>
+      <c r="P11" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="Q11" s="10">
         <v>1</v>
       </c>
       <c r="R11" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="T11" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="S11" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="T11" s="13" t="s">
-        <v>69</v>
       </c>
       <c r="U11" s="13"/>
     </row>
@@ -4897,10 +4869,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -4911,14 +4883,14 @@
       <c r="F12" s="3">
         <v>2014</v>
       </c>
-      <c r="G12" s="46" t="s">
-        <v>70</v>
+      <c r="G12" s="45" t="s">
+        <v>68</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="60" t="s">
-        <v>39</v>
+        <v>69</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>37</v>
       </c>
       <c r="J12" s="28" t="s">
         <v>19</v>
@@ -4938,14 +4910,14 @@
       <c r="O12" s="3">
         <v>0</v>
       </c>
-      <c r="P12" s="82" t="s">
-        <v>39</v>
+      <c r="P12" s="78" t="s">
+        <v>37</v>
       </c>
       <c r="Q12" s="3">
         <v>1</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
@@ -4957,10 +4929,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -4972,16 +4944,16 @@
         <v>2017</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H13" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="I13" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>20</v>
@@ -4998,17 +4970,17 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="82" t="s">
-        <v>39</v>
+      <c r="P13" s="78" t="s">
+        <v>37</v>
       </c>
       <c r="Q13" s="3">
         <v>1</v>
       </c>
       <c r="R13" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S13" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
@@ -5019,10 +4991,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -5033,17 +5005,17 @@
       <c r="F14" s="3">
         <v>2017</v>
       </c>
-      <c r="G14" s="46" t="s">
-        <v>79</v>
+      <c r="G14" s="45" t="s">
+        <v>77</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" s="58">
+        <v>78</v>
+      </c>
+      <c r="I14" s="54">
         <v>90</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>20</v>
@@ -5061,31 +5033,31 @@
         <v>1</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="3">
         <v>1</v>
       </c>
       <c r="R14" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="15" spans="1:21" ht="112">
+    <row r="15" spans="1:21" ht="128">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E15" s="10">
         <v>1</v>
@@ -5093,47 +5065,47 @@
       <c r="F15" s="10">
         <v>2013</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="56">
+        <v>30</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1</v>
+      </c>
+      <c r="R15" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" s="60">
-        <v>30</v>
-      </c>
-      <c r="J15" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="K15" s="12" t="s">
+      <c r="S15" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="T15" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M15" s="3">
-        <v>1</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>1</v>
-      </c>
-      <c r="P15" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>1</v>
-      </c>
-      <c r="R15" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="S15" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="T15" s="13" t="s">
-        <v>86</v>
       </c>
       <c r="U15" s="13"/>
     </row>
@@ -5143,10 +5115,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -5157,42 +5129,44 @@
       <c r="F16" s="3">
         <v>2011</v>
       </c>
-      <c r="G16" s="46" t="s">
-        <v>188</v>
+      <c r="G16" s="45" t="s">
+        <v>183</v>
       </c>
       <c r="H16" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="56">
+        <v>80</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="S16" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="I16" s="60">
-        <v>80</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="M16" s="3">
-        <v>1</v>
-      </c>
-      <c r="N16" s="3">
-        <v>1</v>
-      </c>
-      <c r="O16" s="3">
-        <v>1</v>
-      </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3">
-        <v>0</v>
-      </c>
-      <c r="R16" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="S16" s="13" t="s">
-        <v>90</v>
       </c>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
@@ -5203,10 +5177,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
@@ -5218,19 +5192,19 @@
         <v>2007</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="I17" s="60">
+        <v>92</v>
+      </c>
+      <c r="I17" s="56">
         <v>80</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K17" s="30" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>19</v>
@@ -5245,16 +5219,16 @@
         <v>0</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
       <c r="R17" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S17" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
@@ -5265,10 +5239,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D18" s="10">
         <v>1</v>
@@ -5280,22 +5254,22 @@
         <v>2017</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18" s="60">
+        <v>99</v>
+      </c>
+      <c r="I18" s="56">
         <v>70</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K18" s="11" t="s">
         <v>20</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3">
         <v>1</v>
@@ -5307,16 +5281,16 @@
         <v>0</v>
       </c>
       <c r="P18" s="38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="10">
         <v>1</v>
       </c>
       <c r="R18" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S18" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
@@ -5327,13 +5301,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
@@ -5342,19 +5316,19 @@
         <v>2011</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="I19" s="60">
+        <v>101</v>
+      </c>
+      <c r="I19" s="56">
         <v>70</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>19</v>
@@ -5369,16 +5343,16 @@
         <v>1</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q19" s="3">
         <v>0</v>
       </c>
       <c r="R19" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S19" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
@@ -5389,10 +5363,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -5404,19 +5378,19 @@
         <v>2009</v>
       </c>
       <c r="G20" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="56">
+        <v>90</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20" s="32" t="s">
         <v>106</v>
-      </c>
-      <c r="H20" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20" s="60">
-        <v>90</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K20" s="32" t="s">
-        <v>108</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>19</v>
@@ -5431,13 +5405,13 @@
         <v>0</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
@@ -5449,10 +5423,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -5464,19 +5438,19 @@
         <v>2017</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="I21" s="60">
+        <v>109</v>
+      </c>
+      <c r="I21" s="56">
         <v>40</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>19</v>
@@ -5491,14 +5465,16 @@
         <v>0</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q21" s="3"/>
+        <v>259</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
       <c r="R21" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="S21" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
@@ -5509,10 +5485,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -5524,40 +5500,40 @@
         <v>2019</v>
       </c>
       <c r="G22" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="I22" s="56">
+        <v>70</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="H22" s="40" t="s">
+      <c r="M22" s="3">
+        <v>1</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>1</v>
+      </c>
+      <c r="R22" s="13" t="s">
         <v>115</v>
-      </c>
-      <c r="I22" s="60">
-        <v>70</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q22" s="10">
-        <v>1</v>
-      </c>
-      <c r="R22" s="13" t="s">
-        <v>117</v>
       </c>
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
@@ -5569,10 +5545,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -5584,19 +5560,19 @@
         <v>2017</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="I23" s="60">
+        <v>116</v>
+      </c>
+      <c r="I23" s="56">
         <v>90</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>19</v>
@@ -5610,15 +5586,17 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-      <c r="P23" s="3"/>
+      <c r="P23" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="Q23" s="3">
         <v>1</v>
       </c>
       <c r="R23" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S23" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
@@ -5629,13 +5607,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -5644,19 +5622,19 @@
         <v>2019</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="I24" s="60">
+        <v>121</v>
+      </c>
+      <c r="I24" s="56">
         <v>80</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>19</v>
@@ -5671,16 +5649,16 @@
         <v>1</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q24" s="3">
         <v>1</v>
       </c>
       <c r="R24" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="S24" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
@@ -5691,13 +5669,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -5706,44 +5684,46 @@
         <v>2018</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="I25" s="60">
+        <v>125</v>
+      </c>
+      <c r="I25" s="56">
         <v>30</v>
       </c>
       <c r="J25" s="38" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="K25" s="11" t="s">
         <v>20</v>
       </c>
       <c r="L25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" s="3">
+        <v>1</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M25" s="3">
-        <v>1</v>
-      </c>
-      <c r="N25" s="3">
-        <v>0</v>
-      </c>
-      <c r="O25" s="3">
-        <v>0</v>
-      </c>
-      <c r="P25" s="3"/>
       <c r="Q25" s="3">
         <v>1</v>
       </c>
       <c r="R25" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="S25" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="T25" s="13" t="s">
         <v>128</v>
-      </c>
-      <c r="S25" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="T25" s="13" t="s">
-        <v>130</v>
       </c>
       <c r="U25" s="13"/>
     </row>
@@ -5753,13 +5733,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -5768,22 +5748,22 @@
         <v>2019</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="I26" s="60">
+        <v>130</v>
+      </c>
+      <c r="I26" s="56">
         <v>30</v>
       </c>
       <c r="J26" s="38" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="K26" s="11" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M26" s="3">
         <v>1</v>
@@ -5795,13 +5775,13 @@
         <v>0</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q26" s="3">
         <v>1</v>
       </c>
       <c r="R26" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
@@ -5813,13 +5793,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
@@ -5828,16 +5808,16 @@
         <v>2017</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="I27" s="60">
+        <v>132</v>
+      </c>
+      <c r="I27" s="56">
         <v>90</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K27" s="11" t="s">
         <v>20</v>
@@ -5854,15 +5834,17 @@
       <c r="O27" s="3">
         <v>1</v>
       </c>
-      <c r="P27" s="3"/>
+      <c r="P27" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
       <c r="R27" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S27" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="T27" s="13"/>
       <c r="U27" s="13"/>
@@ -5873,13 +5855,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
@@ -5888,19 +5870,19 @@
         <v>2017</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="I28" s="60">
+        <v>138</v>
+      </c>
+      <c r="I28" s="56">
         <v>90</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>19</v>
@@ -5915,13 +5897,13 @@
         <v>0</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q28" s="3">
         <v>1</v>
       </c>
       <c r="R28" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="S28" s="13"/>
       <c r="T28" s="13"/>
@@ -5933,10 +5915,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -5948,22 +5930,22 @@
         <v>2016</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="I29" s="60">
+        <v>141</v>
+      </c>
+      <c r="I29" s="56">
         <v>90</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K29" s="62" t="s">
-        <v>162</v>
+        <v>73</v>
+      </c>
+      <c r="K29" s="58" t="s">
+        <v>160</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M29" s="3">
         <v>1</v>
@@ -5981,7 +5963,7 @@
         <v>19</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
@@ -5993,10 +5975,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -6008,46 +5990,46 @@
         <v>2018</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="I30" s="60">
+        <v>142</v>
+      </c>
+      <c r="I30" s="56">
         <v>90</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K30" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M30" s="3">
+        <v>1</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>1</v>
+      </c>
+      <c r="P30" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="L30" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="M30" s="3">
-        <v>1</v>
-      </c>
-      <c r="N30" s="3">
-        <v>0</v>
-      </c>
-      <c r="O30" s="3">
-        <v>1</v>
-      </c>
-      <c r="P30" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>0</v>
-      </c>
-      <c r="R30" s="13" t="s">
+      <c r="S30" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="T30" s="13" t="s">
         <v>163</v>
-      </c>
-      <c r="S30" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="T30" s="13" t="s">
-        <v>165</v>
       </c>
       <c r="U30" s="13"/>
     </row>
@@ -6057,10 +6039,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="D31" s="25">
         <v>0</v>
@@ -6072,19 +6054,19 @@
         <v>2018</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="I31" s="60" t="s">
-        <v>54</v>
+        <v>144</v>
+      </c>
+      <c r="I31" s="56" t="s">
+        <v>52</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>19</v>
@@ -6105,10 +6087,10 @@
         <v>19</v>
       </c>
       <c r="R31" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="S31" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="T31" s="13"/>
       <c r="U31" s="13"/>
@@ -6119,13 +6101,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
@@ -6134,22 +6116,22 @@
         <v>2018</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="I32" s="60">
+        <v>145</v>
+      </c>
+      <c r="I32" s="56">
         <v>60</v>
       </c>
       <c r="J32" s="38" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M32" s="3">
         <v>1</v>
@@ -6160,14 +6142,14 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>36</v>
+      <c r="P32" s="38" t="s">
+        <v>34</v>
       </c>
       <c r="Q32" s="3">
         <v>1</v>
       </c>
       <c r="R32" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="S32" s="13"/>
       <c r="T32" s="13"/>
@@ -6179,13 +6161,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
@@ -6194,19 +6176,19 @@
         <v>2018</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="I33" s="58">
+        <v>146</v>
+      </c>
+      <c r="I33" s="54">
         <v>80</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>175</v>
+        <v>307</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>19</v>
@@ -6221,19 +6203,19 @@
         <v>0</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
       <c r="R33" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="S33" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="T33" s="13" t="s">
         <v>172</v>
-      </c>
-      <c r="S33" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="T33" s="13" t="s">
-        <v>174</v>
       </c>
       <c r="U33" s="13"/>
     </row>
@@ -6243,10 +6225,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
@@ -6258,19 +6240,19 @@
         <v>2005</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="I34" s="60">
+        <v>149</v>
+      </c>
+      <c r="I34" s="56">
         <v>90</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K34" s="43" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>19</v>
@@ -6284,14 +6266,14 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-      <c r="P34" s="44" t="s">
-        <v>36</v>
+      <c r="P34" s="38" t="s">
+        <v>34</v>
       </c>
       <c r="Q34" s="3">
         <v>0</v>
       </c>
       <c r="R34" s="42" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="S34" s="13"/>
       <c r="T34" s="13"/>
@@ -6303,10 +6285,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
@@ -6318,19 +6300,19 @@
         <v>2005</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H35" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="I35" s="60">
+        <v>150</v>
+      </c>
+      <c r="I35" s="56">
         <v>100</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K35" s="45" t="s">
-        <v>177</v>
+        <v>64</v>
+      </c>
+      <c r="K35" s="44" t="s">
+        <v>174</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>19</v>
@@ -6345,13 +6327,13 @@
         <v>0</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
       <c r="R35" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="S35" s="13"/>
       <c r="T35" s="13"/>
@@ -6363,10 +6345,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
@@ -6378,22 +6360,22 @@
         <v>2018</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="I36" s="60">
+        <v>152</v>
+      </c>
+      <c r="I36" s="56">
         <v>90</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M36" s="3">
         <v>1</v>
@@ -6405,16 +6387,16 @@
         <v>1</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q36" s="3">
         <v>0</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T36" s="13"/>
       <c r="U36" s="13"/>
@@ -6425,10 +6407,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>253</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>264</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
@@ -6440,22 +6422,22 @@
         <v>2011</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="I37" s="60">
+        <v>153</v>
+      </c>
+      <c r="I37" s="56">
         <v>70</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K37" s="43" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M37" s="3">
         <v>1</v>
@@ -6467,53 +6449,55 @@
         <v>0</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="Q37" s="3">
         <v>1</v>
       </c>
       <c r="R37" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="S37" s="13"/>
       <c r="T37" s="13"/>
       <c r="U37" s="13"/>
     </row>
-    <row r="38" spans="1:21" ht="81" customHeight="1">
+    <row r="38" spans="1:21" ht="119">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2017</v>
+      </c>
+      <c r="G38" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="H38" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="I38" s="54">
+        <v>50</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="10" t="s">
         <v>191</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3">
-        <v>2016</v>
-      </c>
-      <c r="G38" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="H38" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="M38" s="3" t="s">
         <v>19</v>
@@ -6525,84 +6509,90 @@
         <v>19</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q38" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>1</v>
+      </c>
+      <c r="R38" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="S38" s="13" t="s">
+        <v>193</v>
+      </c>
       <c r="T38" s="13"/>
       <c r="U38" s="13"/>
     </row>
-    <row r="39" spans="1:21" ht="84" customHeight="1">
+    <row r="39" spans="1:21" ht="115" customHeight="1">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="3">
+      <c r="B39" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D39" s="10">
         <v>1</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
       </c>
-      <c r="F39" s="47">
-        <v>2018</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>191</v>
+      <c r="F39" s="3">
+        <v>2017</v>
+      </c>
+      <c r="G39" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="I39" s="56">
+        <v>100</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O39" s="3" t="s">
-        <v>19</v>
+      <c r="M39" s="3">
+        <v>1</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R39" s="13"/>
+        <v>95</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>1</v>
+      </c>
+      <c r="R39" s="13" t="s">
+        <v>196</v>
+      </c>
       <c r="S39" s="13"/>
       <c r="T39" s="13"/>
       <c r="U39" s="13"/>
     </row>
-    <row r="40" spans="1:21" ht="85" customHeight="1">
+    <row r="40" spans="1:21" ht="85">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>19</v>
+        <v>199</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
@@ -6611,56 +6601,58 @@
         <v>1</v>
       </c>
       <c r="F40" s="3">
-        <v>2017</v>
-      </c>
-      <c r="G40" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>19</v>
+        <v>2019</v>
+      </c>
+      <c r="G40" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="H40" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="I40" s="56">
+        <v>100</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M40" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>19</v>
+      <c r="M40" s="3">
+        <v>1</v>
+      </c>
+      <c r="N40" s="3">
+        <v>1</v>
+      </c>
+      <c r="O40" s="3">
+        <v>1</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R40" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>1</v>
+      </c>
+      <c r="R40" s="13" t="s">
+        <v>200</v>
+      </c>
       <c r="S40" s="13"/>
       <c r="T40" s="13"/>
       <c r="U40" s="13"/>
     </row>
-    <row r="41" spans="1:21" ht="125" customHeight="1">
+    <row r="41" spans="1:21" ht="100" customHeight="1">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
@@ -6669,56 +6661,60 @@
         <v>1</v>
       </c>
       <c r="F41" s="3">
-        <v>2015</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>195</v>
+        <v>2018</v>
+      </c>
+      <c r="G41" s="50" t="s">
+        <v>202</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>191</v>
+      <c r="I41" s="56">
+        <v>100</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>19</v>
+      <c r="M41" s="3">
+        <v>1</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>1</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
+        <v>95</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="S41" s="13" t="s">
+        <v>203</v>
+      </c>
       <c r="T41" s="13"/>
       <c r="U41" s="13"/>
     </row>
-    <row r="42" spans="1:21" ht="119">
+    <row r="42" spans="1:21" ht="131" customHeight="1">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>253</v>
+      <c r="B42" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
@@ -6727,87 +6723,87 @@
         <v>1</v>
       </c>
       <c r="F42" s="3">
-        <v>2017</v>
-      </c>
-      <c r="G42" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="H42" s="52" t="s">
-        <v>200</v>
-      </c>
-      <c r="I42" s="58">
-        <v>50</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="M42" s="3" t="s">
+        <v>2019</v>
+      </c>
+      <c r="G42" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="I42" s="56">
+        <v>100</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="L42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>19</v>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>1</v>
+      </c>
+      <c r="O42" s="3">
+        <v>1</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q42" s="10">
-        <v>1</v>
-      </c>
-      <c r="R42" s="50" t="s">
-        <v>202</v>
+        <v>34</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>1</v>
+      </c>
+      <c r="R42" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="S42" s="13" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="T42" s="13"/>
       <c r="U42" s="13"/>
     </row>
-    <row r="43" spans="1:21" ht="115" customHeight="1">
+    <row r="43" spans="1:21" ht="120" customHeight="1">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="D43" s="10">
-        <v>1</v>
+        <v>255</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="E43" s="3">
         <v>1</v>
       </c>
       <c r="F43" s="3">
-        <v>2017</v>
-      </c>
-      <c r="G43" s="53" t="s">
-        <v>204</v>
+        <v>2014</v>
+      </c>
+      <c r="G43" s="52" t="s">
+        <v>210</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="I43" s="60">
-        <v>100</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>19</v>
+        <v>211</v>
+      </c>
+      <c r="I43" s="56">
+        <v>80</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="M43" s="3">
         <v>1</v>
@@ -6819,28 +6815,34 @@
         <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="Q43" s="3">
-        <v>1</v>
-      </c>
-      <c r="R43" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="S43" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="T43" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="U43" s="13" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="44" spans="1:21" ht="85">
+    <row r="44" spans="1:21" ht="87" customHeight="1">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>209</v>
+      <c r="B44" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>245</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
@@ -6849,58 +6851,58 @@
         <v>1</v>
       </c>
       <c r="F44" s="3">
-        <v>2019</v>
-      </c>
-      <c r="G44" s="54" t="s">
-        <v>207</v>
-      </c>
-      <c r="H44" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="I44" s="60">
-        <v>100</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>66</v>
+        <v>2015</v>
+      </c>
+      <c r="G44" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="H44" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="I44" s="56">
+        <v>5</v>
+      </c>
+      <c r="J44" s="38" t="s">
+        <v>257</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="L44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M44" s="3">
-        <v>1</v>
-      </c>
-      <c r="N44" s="3">
-        <v>1</v>
-      </c>
-      <c r="O44" s="3">
-        <v>1</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>1</v>
-      </c>
       <c r="R44" s="13" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="S44" s="13"/>
       <c r="T44" s="13"/>
       <c r="U44" s="13"/>
     </row>
-    <row r="45" spans="1:21" ht="100" customHeight="1">
+    <row r="45" spans="1:21" ht="96">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>211</v>
+      <c r="B45" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="D45" s="3">
         <v>1</v>
@@ -6911,268 +6913,262 @@
       <c r="F45" s="3">
         <v>2018</v>
       </c>
-      <c r="G45" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="H45" s="3" t="s">
+      <c r="G45" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="I45" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="J45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I45" s="60">
-        <v>100</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="K45" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M45" s="3">
-        <v>1</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1</v>
+      <c r="M45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="R45" s="13" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="S45" s="13" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="T45" s="13"/>
       <c r="U45" s="13"/>
     </row>
-    <row r="46" spans="1:21" ht="131" customHeight="1">
+    <row r="46" spans="1:21" ht="117" customHeight="1">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D46" s="3">
-        <v>1</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="B46" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D46" s="18">
+        <v>1</v>
+      </c>
+      <c r="E46" s="18">
+        <v>1</v>
+      </c>
+      <c r="F46" s="18">
         <v>2019</v>
       </c>
-      <c r="G46" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="I46" s="60">
-        <v>100</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>215</v>
+      <c r="G46" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="I46" s="56">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1</v>
-      </c>
-      <c r="O46" s="3">
-        <v>1</v>
+      <c r="M46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="R46" s="13" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="S46" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="T46" s="13"/>
+        <v>227</v>
+      </c>
+      <c r="T46" s="27" t="s">
+        <v>228</v>
+      </c>
       <c r="U46" s="13"/>
     </row>
-    <row r="47" spans="1:21" ht="120" customHeight="1">
+    <row r="47" spans="1:21" ht="129" customHeight="1">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1</v>
-      </c>
-      <c r="F47" s="3">
-        <v>2014</v>
-      </c>
-      <c r="G47" s="56" t="s">
-        <v>220</v>
-      </c>
-      <c r="H47" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="I47" s="60">
-        <v>80</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K47" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="L47" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="M47" s="3">
-        <v>1</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="B47" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C47" s="68" t="s">
+        <v>268</v>
+      </c>
+      <c r="D47" s="18">
+        <v>0</v>
+      </c>
+      <c r="E47" s="18">
+        <v>0</v>
+      </c>
+      <c r="F47" s="18">
+        <v>1995</v>
+      </c>
+      <c r="G47" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="H47" s="70" t="s">
+        <v>270</v>
+      </c>
+      <c r="I47" s="56">
+        <v>5</v>
+      </c>
+      <c r="J47" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="S47" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="T47" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="U47" s="13" t="s">
-        <v>226</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R47" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
     </row>
-    <row r="48" spans="1:21" ht="87" customHeight="1">
+    <row r="48" spans="1:21" ht="98" customHeight="1">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="D48" s="3">
-        <v>1</v>
+      <c r="B48" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="E48" s="3">
         <v>1</v>
       </c>
       <c r="F48" s="3">
-        <v>2015</v>
-      </c>
-      <c r="G48" s="53" t="s">
-        <v>227</v>
-      </c>
-      <c r="H48" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="I48" s="60">
-        <v>5</v>
-      </c>
-      <c r="J48" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L48" s="3" t="s">
+        <v>2019</v>
+      </c>
+      <c r="G48" s="74" t="s">
+        <v>274</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="I48" s="56">
+        <v>90</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K48" s="75" t="s">
+        <v>302</v>
+      </c>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>1</v>
+      </c>
+      <c r="O48" s="3">
+        <v>1</v>
+      </c>
+      <c r="P48" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R48" s="13" t="s">
-        <v>229</v>
-      </c>
+      <c r="Q48" s="3">
+        <v>1</v>
+      </c>
+      <c r="R48" s="13"/>
       <c r="S48" s="13"/>
       <c r="T48" s="13"/>
       <c r="U48" s="13"/>
     </row>
-    <row r="49" spans="1:21" ht="96">
+    <row r="49" spans="1:21" ht="108" customHeight="1">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D49" s="3">
-        <v>1</v>
+      <c r="B49" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="E49" s="3">
         <v>1</v>
       </c>
       <c r="F49" s="3">
-        <v>2018</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>230</v>
+        <v>2019</v>
+      </c>
+      <c r="G49" s="76" t="s">
+        <v>277</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="I49" s="60" t="s">
-        <v>39</v>
+        <v>279</v>
+      </c>
+      <c r="I49" s="56" t="s">
+        <v>280</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>19</v>
@@ -7187,120 +7183,111 @@
         <v>19</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R49" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="S49" s="13" t="s">
-        <v>233</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>1</v>
+      </c>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
       <c r="T49" s="13"/>
       <c r="U49" s="13"/>
     </row>
-    <row r="50" spans="1:21" ht="117" customHeight="1">
+    <row r="50" spans="1:21" ht="119" customHeight="1">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>253</v>
+      <c r="B50" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="D50" s="18">
-        <v>1</v>
-      </c>
-      <c r="E50" s="18">
-        <v>1</v>
-      </c>
-      <c r="F50" s="18">
+        <v>282</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
         <v>2019</v>
       </c>
-      <c r="G50" s="73" t="s">
-        <v>234</v>
-      </c>
-      <c r="H50" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="I50" s="60">
-        <v>5</v>
+      <c r="G50" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="H50" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="I50" s="56">
+        <v>80</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O50" s="3" t="s">
-        <v>19</v>
+      <c r="M50" s="3">
+        <v>1</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>1</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R50" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="S50" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="T50" s="27" t="s">
-        <v>238</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
       <c r="U50" s="13"/>
     </row>
-    <row r="51" spans="1:21" ht="129" customHeight="1">
+    <row r="51" spans="1:21" ht="100" customHeight="1">
       <c r="A51" s="3">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C51" s="72" t="s">
-        <v>279</v>
-      </c>
-      <c r="D51" s="18">
-        <v>0</v>
-      </c>
-      <c r="E51" s="18">
-        <v>0</v>
-      </c>
-      <c r="F51" s="18">
-        <v>1995</v>
-      </c>
-      <c r="G51" s="77" t="s">
-        <v>280</v>
-      </c>
-      <c r="H51" s="74" t="s">
-        <v>281</v>
-      </c>
-      <c r="I51" s="60">
-        <v>5</v>
-      </c>
-      <c r="J51" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>283</v>
+      <c r="B51" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3">
+        <v>2007</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="I51" s="56">
+        <v>20</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>19</v>
@@ -7312,55 +7299,56 @@
         <v>19</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q51" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R51" s="13" t="s">
-        <v>284</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>1</v>
+      </c>
+      <c r="R51" s="13"/>
       <c r="S51" s="13"/>
       <c r="T51" s="13"/>
       <c r="U51" s="13"/>
     </row>
-    <row r="52" spans="1:21" ht="98" customHeight="1">
+    <row r="52" spans="1:21" ht="133" customHeight="1">
       <c r="A52" s="3">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
       </c>
       <c r="F52" s="3">
-        <v>2019</v>
-      </c>
-      <c r="G52" s="78" t="s">
-        <v>285</v>
+        <v>2020</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>288</v>
       </c>
       <c r="H52" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="I52" s="60">
-        <v>90</v>
+        <v>290</v>
+      </c>
+      <c r="I52" s="56">
+        <v>80</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K52" s="79" t="s">
-        <v>288</v>
-      </c>
-      <c r="L52" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>292</v>
+      </c>
       <c r="M52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" s="3">
         <v>1</v>
@@ -7369,7 +7357,7 @@
         <v>1</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>36</v>
+        <v>259</v>
       </c>
       <c r="Q52" s="3">
         <v>1</v>
@@ -7379,72 +7367,74 @@
       <c r="T52" s="13"/>
       <c r="U52" s="13"/>
     </row>
-    <row r="53" spans="1:21" ht="108" customHeight="1">
+    <row r="53" spans="1:21" ht="119" customHeight="1">
       <c r="A53" s="3">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>185</v>
+        <v>295</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1</v>
       </c>
       <c r="E53" s="3">
         <v>1</v>
       </c>
       <c r="F53" s="3">
-        <v>2019</v>
-      </c>
-      <c r="G53" s="80" t="s">
-        <v>289</v>
-      </c>
-      <c r="H53" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="I53" s="60" t="s">
-        <v>292</v>
+        <v>2020</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="H53" s="70" t="s">
+        <v>293</v>
+      </c>
+      <c r="I53" s="56">
+        <v>80</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>54</v>
+        <v>296</v>
       </c>
       <c r="L53" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M53" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O53" s="3" t="s">
-        <v>19</v>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>1</v>
+      </c>
+      <c r="O53" s="3">
+        <v>1</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>270</v>
+        <v>95</v>
       </c>
       <c r="Q53" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53" s="13"/>
       <c r="S53" s="13"/>
       <c r="T53" s="13"/>
       <c r="U53" s="13"/>
     </row>
-    <row r="54" spans="1:21" ht="119" customHeight="1">
+    <row r="54" spans="1:21" ht="107" customHeight="1">
       <c r="A54" s="3">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>294</v>
+      <c r="B54" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="D54" s="3">
         <v>1</v>
@@ -7455,20 +7445,20 @@
       <c r="F54" s="3">
         <v>2019</v>
       </c>
-      <c r="G54" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="H54" s="51" t="s">
-        <v>293</v>
-      </c>
-      <c r="I54" s="60">
-        <v>80</v>
+      <c r="G54" s="79" t="s">
+        <v>297</v>
+      </c>
+      <c r="H54" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="I54" s="56">
+        <v>90</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>296</v>
+        <v>64</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>299</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>19</v>
@@ -7480,10 +7470,10 @@
         <v>0</v>
       </c>
       <c r="O54" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>270</v>
+        <v>34</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
@@ -7493,42 +7483,43 @@
       <c r="T54" s="13"/>
       <c r="U54" s="13"/>
     </row>
-    <row r="55" spans="1:21" ht="100" customHeight="1">
+    <row r="55" spans="1:21" ht="116" customHeight="1">
       <c r="A55" s="3">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="D55" s="3">
-        <v>1</v>
+      <c r="B55" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="E55" s="3">
         <v>1</v>
       </c>
       <c r="F55" s="3">
-        <v>2007</v>
-      </c>
-      <c r="G55" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="H55" s="74" t="s">
-        <v>298</v>
-      </c>
-      <c r="I55" s="60">
-        <v>20</v>
+        <v>2020</v>
+      </c>
+      <c r="G55" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="H55" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="I55" s="56">
+        <v>10</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="K55" s="10" t="s">
-        <v>299</v>
+        <v>257</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="M55" s="3" t="s">
         <v>19</v>
@@ -7540,7 +7531,7 @@
         <v>19</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q55" s="3">
         <v>1</v>
@@ -7550,235 +7541,99 @@
       <c r="T55" s="13"/>
       <c r="U55" s="13"/>
     </row>
-    <row r="56" spans="1:21" ht="133" customHeight="1">
-      <c r="A56" s="3">
-        <v>54</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E56" s="3">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3">
-        <v>2020</v>
-      </c>
-      <c r="G56" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="H56" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="I56" s="60">
-        <v>80</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K56" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="M56" s="3">
-        <v>1</v>
-      </c>
-      <c r="N56" s="3">
-        <v>1</v>
-      </c>
-      <c r="O56" s="3">
-        <v>1</v>
-      </c>
-      <c r="P56" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q56" s="3">
-        <v>1</v>
-      </c>
+    <row r="56" spans="1:21" ht="113" customHeight="1">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="71"/>
+      <c r="I56" s="56"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="77"/>
+      <c r="L56" s="77"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
       <c r="R56" s="13"/>
       <c r="S56" s="13"/>
       <c r="T56" s="13"/>
       <c r="U56" s="13"/>
     </row>
-    <row r="57" spans="1:21" ht="119" customHeight="1">
-      <c r="A57" s="3">
-        <v>55</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="D57" s="3">
-        <v>1</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2020</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="H57" s="74" t="s">
-        <v>305</v>
-      </c>
-      <c r="I57" s="60">
-        <v>80</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
+    <row r="57" spans="1:21" ht="112" customHeight="1">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="71"/>
+      <c r="I57" s="56"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="77"/>
+      <c r="L57" s="77"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
       <c r="R57" s="13"/>
       <c r="S57" s="13"/>
       <c r="T57" s="13"/>
       <c r="U57" s="13"/>
     </row>
-    <row r="58" spans="1:21" ht="107" customHeight="1">
-      <c r="A58" s="3">
-        <v>56</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D58" s="3">
-        <v>1</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2019</v>
-      </c>
-      <c r="G58" s="83" t="s">
-        <v>309</v>
-      </c>
-      <c r="H58" s="74" t="s">
-        <v>310</v>
-      </c>
-      <c r="I58" s="60">
-        <v>90</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K58" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
+    <row r="58" spans="1:21" ht="113" customHeight="1">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="71"/>
+      <c r="I58" s="56"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="77"/>
+      <c r="L58" s="77"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
       <c r="R58" s="13"/>
       <c r="S58" s="13"/>
       <c r="T58" s="13"/>
       <c r="U58" s="13"/>
     </row>
-    <row r="59" spans="1:21" ht="116" customHeight="1">
-      <c r="A59" s="3">
-        <v>57</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1</v>
-      </c>
-      <c r="F59" s="3">
-        <v>2020</v>
-      </c>
-      <c r="G59" s="56" t="s">
-        <v>314</v>
-      </c>
-      <c r="H59" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="I59" s="60">
-        <v>10</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1</v>
-      </c>
+    <row r="59" spans="1:21" ht="99" customHeight="1">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="71"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="77"/>
+      <c r="L59" s="77"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
       <c r="R59" s="13"/>
       <c r="S59" s="13"/>
       <c r="T59" s="13"/>
       <c r="U59" s="13"/>
     </row>
-    <row r="60" spans="1:21" ht="113" customHeight="1">
+    <row r="60" spans="1:21">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -7786,11 +7641,11 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="75"/>
-      <c r="I60" s="60"/>
+      <c r="H60" s="71"/>
+      <c r="I60" s="56"/>
       <c r="J60" s="1"/>
-      <c r="K60" s="81"/>
-      <c r="L60" s="81"/>
+      <c r="K60" s="77"/>
+      <c r="L60" s="77"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
@@ -7801,7 +7656,7 @@
       <c r="T60" s="13"/>
       <c r="U60" s="13"/>
     </row>
-    <row r="61" spans="1:21" ht="112" customHeight="1">
+    <row r="61" spans="1:21">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -7809,11 +7664,11 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="75"/>
-      <c r="I61" s="60"/>
+      <c r="H61" s="71"/>
+      <c r="I61" s="56"/>
       <c r="J61" s="1"/>
-      <c r="K61" s="81"/>
-      <c r="L61" s="81"/>
+      <c r="K61" s="77"/>
+      <c r="L61" s="77"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
@@ -7824,7 +7679,7 @@
       <c r="T61" s="13"/>
       <c r="U61" s="13"/>
     </row>
-    <row r="62" spans="1:21" ht="113" customHeight="1">
+    <row r="62" spans="1:21">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -7832,11 +7687,11 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="75"/>
-      <c r="I62" s="60"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="56"/>
       <c r="J62" s="1"/>
-      <c r="K62" s="81"/>
-      <c r="L62" s="81"/>
+      <c r="K62" s="77"/>
+      <c r="L62" s="77"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
@@ -7847,7 +7702,7 @@
       <c r="T62" s="13"/>
       <c r="U62" s="13"/>
     </row>
-    <row r="63" spans="1:21" ht="99" customHeight="1">
+    <row r="63" spans="1:21">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -7855,11 +7710,11 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="75"/>
-      <c r="I63" s="60"/>
+      <c r="H63" s="71"/>
+      <c r="I63" s="56"/>
       <c r="J63" s="1"/>
-      <c r="K63" s="81"/>
-      <c r="L63" s="81"/>
+      <c r="K63" s="77"/>
+      <c r="L63" s="77"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
@@ -7878,11 +7733,11 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="75"/>
-      <c r="I64" s="60"/>
+      <c r="H64" s="71"/>
+      <c r="I64" s="56"/>
       <c r="J64" s="1"/>
-      <c r="K64" s="81"/>
-      <c r="L64" s="81"/>
+      <c r="K64" s="77"/>
+      <c r="L64" s="77"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
@@ -7894,142 +7749,50 @@
       <c r="U64" s="13"/>
     </row>
     <row r="65" spans="1:21">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="75"/>
-      <c r="I65" s="60"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="72"/>
       <c r="J65" s="1"/>
-      <c r="K65" s="81"/>
-      <c r="L65" s="81"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
+      <c r="K65" s="77"/>
+      <c r="L65" s="77"/>
+      <c r="M65" s="77"/>
+      <c r="N65" s="77"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
-      <c r="R65" s="13"/>
-      <c r="S65" s="13"/>
-      <c r="T65" s="13"/>
-      <c r="U65" s="13"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="75"/>
-      <c r="I66" s="60"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="72"/>
       <c r="J66" s="1"/>
-      <c r="K66" s="81"/>
-      <c r="L66" s="81"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
+      <c r="K66" s="77"/>
+      <c r="L66" s="77"/>
+      <c r="M66" s="77"/>
+      <c r="N66" s="77"/>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
-      <c r="R66" s="13"/>
-      <c r="S66" s="13"/>
-      <c r="T66" s="13"/>
-      <c r="U66" s="13"/>
-    </row>
-    <row r="67" spans="1:21">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="75"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="81"/>
-      <c r="L67" s="81"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="13"/>
-      <c r="S67" s="13"/>
-      <c r="T67" s="13"/>
-      <c r="U67" s="13"/>
-    </row>
-    <row r="68" spans="1:21">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="75"/>
-      <c r="I68" s="60"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="81"/>
-      <c r="L68" s="81"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="13"/>
-      <c r="S68" s="13"/>
-      <c r="T68" s="13"/>
-      <c r="U68" s="13"/>
-    </row>
-    <row r="69" spans="1:21">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="76"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="81"/>
-      <c r="L69" s="81"/>
-      <c r="M69" s="81"/>
-      <c r="N69" s="81"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
-    </row>
-    <row r="70" spans="1:21">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="76"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="81"/>
-      <c r="L70" s="81"/>
-      <c r="M70" s="81"/>
-      <c r="N70" s="81"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
-      <c r="T70" s="1"/>
-      <c r="U70" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8068,24 +7831,23 @@
     <hyperlink ref="H14" r:id="rId29" xr:uid="{66E5104D-DF86-7E40-9839-6F81EE2E38FC}"/>
     <hyperlink ref="H15" r:id="rId30" xr:uid="{FFA97E5C-9421-AF44-A51D-5E55D71CD569}"/>
     <hyperlink ref="H21" r:id="rId31" xr:uid="{3CA253C6-242D-DC46-B441-5E8DDAADB284}"/>
-    <hyperlink ref="H38" r:id="rId32" xr:uid="{2D401AFE-7EC5-9B42-B0B0-2CD0C584647F}"/>
-    <hyperlink ref="H42" r:id="rId33" xr:uid="{4A8C5DBA-CE50-E044-8844-2FDF44112B35}"/>
-    <hyperlink ref="H43" r:id="rId34" xr:uid="{6848B189-B214-824C-BE9D-474C2A48EAC3}"/>
-    <hyperlink ref="H44" r:id="rId35" xr:uid="{5BFACBD3-8CB0-7343-BE5E-92D8A0230C27}"/>
-    <hyperlink ref="H46" r:id="rId36" xr:uid="{78EBFF56-E3AF-D242-A35F-DD75E311A7DB}"/>
-    <hyperlink ref="H47" r:id="rId37" xr:uid="{2441405C-AE85-1C45-B8D2-F505966BF23A}"/>
-    <hyperlink ref="H48" r:id="rId38" xr:uid="{0E63125C-3A6E-1F42-B212-272182F8F31E}"/>
-    <hyperlink ref="H49" r:id="rId39" xr:uid="{02456DD8-B45F-6B41-9AB9-D17BAA3DC4A7}"/>
-    <hyperlink ref="H50" r:id="rId40" xr:uid="{99738256-C76A-1E4A-B128-3B19433EFC8E}"/>
-    <hyperlink ref="H51" r:id="rId41" xr:uid="{9748E7DD-AEBB-8944-9FB7-E2226F944909}"/>
-    <hyperlink ref="H52" r:id="rId42" xr:uid="{C29E1CF6-F40F-AF42-8E3C-2E3D5DE63471}"/>
-    <hyperlink ref="H53" r:id="rId43" xr:uid="{B267B161-5023-A144-AB34-5BFCB9644024}"/>
-    <hyperlink ref="H54" r:id="rId44" xr:uid="{84275D22-EDA7-5349-BC0D-0A0507081CB5}"/>
-    <hyperlink ref="H55" r:id="rId45" xr:uid="{D02C6F54-81ED-8A4A-9FC2-AA25B415331F}"/>
-    <hyperlink ref="H56" r:id="rId46" xr:uid="{3F243643-47F8-9642-BBB1-C073EA51E282}"/>
-    <hyperlink ref="H57" r:id="rId47" xr:uid="{88D9FA4D-9F9C-5F42-B1D2-EA4F848C4896}"/>
-    <hyperlink ref="H58" r:id="rId48" xr:uid="{78C03330-D5C3-AB42-A027-FB4049D534AF}"/>
-    <hyperlink ref="H59" r:id="rId49" xr:uid="{4C3A9D7B-D77A-0541-BA20-29C30C7D28C6}"/>
+    <hyperlink ref="H38" r:id="rId32" xr:uid="{4A8C5DBA-CE50-E044-8844-2FDF44112B35}"/>
+    <hyperlink ref="H39" r:id="rId33" xr:uid="{6848B189-B214-824C-BE9D-474C2A48EAC3}"/>
+    <hyperlink ref="H40" r:id="rId34" xr:uid="{5BFACBD3-8CB0-7343-BE5E-92D8A0230C27}"/>
+    <hyperlink ref="H42" r:id="rId35" xr:uid="{78EBFF56-E3AF-D242-A35F-DD75E311A7DB}"/>
+    <hyperlink ref="H43" r:id="rId36" xr:uid="{2441405C-AE85-1C45-B8D2-F505966BF23A}"/>
+    <hyperlink ref="H44" r:id="rId37" xr:uid="{0E63125C-3A6E-1F42-B212-272182F8F31E}"/>
+    <hyperlink ref="H45" r:id="rId38" xr:uid="{02456DD8-B45F-6B41-9AB9-D17BAA3DC4A7}"/>
+    <hyperlink ref="H46" r:id="rId39" xr:uid="{99738256-C76A-1E4A-B128-3B19433EFC8E}"/>
+    <hyperlink ref="H47" r:id="rId40" xr:uid="{9748E7DD-AEBB-8944-9FB7-E2226F944909}"/>
+    <hyperlink ref="H48" r:id="rId41" xr:uid="{C29E1CF6-F40F-AF42-8E3C-2E3D5DE63471}"/>
+    <hyperlink ref="H49" r:id="rId42" xr:uid="{B267B161-5023-A144-AB34-5BFCB9644024}"/>
+    <hyperlink ref="H50" r:id="rId43" xr:uid="{84275D22-EDA7-5349-BC0D-0A0507081CB5}"/>
+    <hyperlink ref="H51" r:id="rId44" xr:uid="{D02C6F54-81ED-8A4A-9FC2-AA25B415331F}"/>
+    <hyperlink ref="H52" r:id="rId45" xr:uid="{3F243643-47F8-9642-BBB1-C073EA51E282}"/>
+    <hyperlink ref="H53" r:id="rId46" xr:uid="{88D9FA4D-9F9C-5F42-B1D2-EA4F848C4896}"/>
+    <hyperlink ref="H54" r:id="rId47" xr:uid="{78C03330-D5C3-AB42-A027-FB4049D534AF}"/>
+    <hyperlink ref="H55" r:id="rId48" xr:uid="{4C3A9D7B-D77A-0541-BA20-29C30C7D28C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8112,221 +7874,221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="B1" s="70">
-        <v>1</v>
-      </c>
-      <c r="C1" s="70">
+      <c r="A1" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="66">
+        <v>1</v>
+      </c>
+      <c r="C1" s="66">
         <v>2</v>
       </c>
-      <c r="D1" s="70">
+      <c r="D1" s="66">
         <v>3</v>
       </c>
-      <c r="E1" s="70">
+      <c r="E1" s="66">
         <v>4</v>
       </c>
-      <c r="F1" s="70">
+      <c r="F1" s="66">
         <v>5</v>
       </c>
-      <c r="G1" s="70">
+      <c r="G1" s="66">
         <v>6</v>
       </c>
-      <c r="H1" s="70">
+      <c r="H1" s="66">
         <v>7</v>
       </c>
-      <c r="J1" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="K1" s="70">
-        <v>1</v>
-      </c>
-      <c r="L1" s="71">
+      <c r="J1" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1" s="66">
+        <v>1</v>
+      </c>
+      <c r="L1" s="67">
         <v>2</v>
       </c>
-      <c r="M1" s="71">
+      <c r="M1" s="67">
         <v>3</v>
       </c>
-      <c r="N1" s="70">
+      <c r="N1" s="66">
         <v>4</v>
       </c>
-      <c r="O1" s="70">
+      <c r="O1" s="66">
         <v>5</v>
       </c>
-      <c r="P1" s="70">
+      <c r="P1" s="66">
         <v>6</v>
       </c>
-      <c r="Q1" s="70">
+      <c r="Q1" s="66">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65">
-        <f>COUNTIF(Sheet1!B3:B100,"Peer reviewed")</f>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61">
+        <f>COUNTIF(Sheet1!B3:B96,"Peer reviewed")</f>
         <v>49</v>
       </c>
-      <c r="C2" s="65">
-        <f>COUNTIF(Sheet1!E3:E100,1)</f>
-        <v>48</v>
-      </c>
-      <c r="D2" s="65">
-        <f>COUNTIF(Sheet1!I3:I101,"&lt;=50")</f>
+      <c r="C2" s="61">
+        <f>COUNTIF(Sheet1!E3:E96,1)</f>
+        <v>44</v>
+      </c>
+      <c r="D2" s="61">
+        <f>COUNTIF(Sheet1!I3:I97,"&lt;=50")</f>
         <v>12</v>
       </c>
-      <c r="E2" s="65">
-        <f>COUNTIF(Sheet1!J3:J100,"*Mosquitoes*")</f>
+      <c r="E2" s="61">
+        <f>COUNTIF(Sheet1!J3:J96,"*Mosquitoes*")</f>
         <v>17</v>
       </c>
-      <c r="F2" s="65">
-        <f>COUNTIF(Sheet1!M3:M100,1)</f>
+      <c r="F2" s="61">
+        <f>COUNTIF(Sheet1!M3:M96,1)</f>
         <v>28</v>
       </c>
-      <c r="G2" s="65">
-        <f>COUNTIF(Sheet1!P3:P100,"*Suppression*")+COUNTIF(Sheet1!P3:P100,"*Both*")</f>
-        <v>24</v>
-      </c>
-      <c r="H2" s="65">
-        <f>COUNTIF(Sheet1!Q3:Q100,1)</f>
+      <c r="G2" s="61">
+        <f>COUNTIF(Sheet1!P3:P96,"*Suppression*")+COUNTIF(Sheet1!P3:P96,"*Both*")</f>
+        <v>28</v>
+      </c>
+      <c r="H2" s="61">
+        <f>COUNTIF(Sheet1!Q3:Q96,1)</f>
         <v>29</v>
       </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="65" t="s">
-        <v>253</v>
-      </c>
-      <c r="L2" s="65" t="s">
-        <v>272</v>
-      </c>
-      <c r="M2" s="65" t="s">
-        <v>273</v>
-      </c>
-      <c r="N2" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" s="65" t="s">
+      <c r="J2" s="63"/>
+      <c r="K2" s="61" t="s">
+        <v>242</v>
+      </c>
+      <c r="L2" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="M2" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="N2" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q2" s="65" t="s">
-        <v>278</v>
+      <c r="P2" s="61" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q2" s="61" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="64"/>
-      <c r="B3" s="63">
-        <f>COUNTIF(Sheet1!B3:B100,"Report")</f>
+      <c r="A3" s="60"/>
+      <c r="B3" s="59">
+        <f>COUNTIF(Sheet1!B3:B96,"Report")</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="59">
+        <f>COUNTIF(Sheet1!E3:E96,0)</f>
+        <v>9</v>
+      </c>
+      <c r="D3" s="59">
+        <f>COUNTIF(Sheet1!I3:I97,"&gt;=50")</f>
+        <v>34</v>
+      </c>
+      <c r="E3" s="59">
+        <f>COUNTIF(Sheet1!J3:J96,"*Fruit Fly*")</f>
+        <v>10</v>
+      </c>
+      <c r="F3" s="59">
+        <f>COUNTIF(Sheet1!N3:N96,1)</f>
+        <v>14</v>
+      </c>
+      <c r="G3" s="59">
+        <f>COUNTIF(Sheet1!P3:P96,"*Replacement*")+COUNTIF(Sheet1!P3:P96,"*Both*")</f>
+        <v>25</v>
+      </c>
+      <c r="H3" s="59">
+        <f>COUNTIF(Sheet1!Q3:Q96,0)</f>
+        <v>16</v>
+      </c>
+      <c r="J3" s="63"/>
+      <c r="K3" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="L3" s="64" t="s">
+        <v>187</v>
+      </c>
+      <c r="M3" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="N3" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="O3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="63">
-        <f>COUNTIF(Sheet1!E3:E100,0)</f>
-        <v>9</v>
-      </c>
-      <c r="D3" s="63">
-        <f>COUNTIF(Sheet1!I3:I101,"&gt;=50")</f>
-        <v>34</v>
-      </c>
-      <c r="E3" s="63">
-        <f>COUNTIF(Sheet1!J3:J100,"*Fruit Fly*")</f>
-        <v>10</v>
-      </c>
-      <c r="F3" s="63">
-        <f>COUNTIF(Sheet1!N3:N100,1)</f>
-        <v>14</v>
-      </c>
-      <c r="G3" s="63">
-        <f>COUNTIF(Sheet1!P3:P100,"*Replacement*")+COUNTIF(Sheet1!P3:P100,"*Both*")</f>
-        <v>22</v>
-      </c>
-      <c r="H3" s="63">
-        <f>COUNTIF(Sheet1!Q3:Q100,0)</f>
-        <v>15</v>
-      </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="68" t="s">
-        <v>191</v>
-      </c>
-      <c r="L3" s="68" t="s">
-        <v>197</v>
-      </c>
-      <c r="M3" s="68" t="s">
-        <v>274</v>
-      </c>
-      <c r="N3" s="68" t="s">
-        <v>198</v>
-      </c>
-      <c r="O3" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q3" s="68" t="s">
-        <v>92</v>
+      <c r="P3" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q3" s="64" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65">
-        <f>COUNTIF(Sheet1!B3:B100,"Preprint")</f>
+      <c r="A4" s="60"/>
+      <c r="B4" s="61">
+        <f>COUNTIF(Sheet1!B3:B96,"Preprint")</f>
         <v>4</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66">
-        <f>COUNTIF(Sheet1!I3:I100,"Perspective")+COUNTIF(Sheet1!I3:I100,"Report")+COUNTIF(Sheet1!I3:I100,"Review")</f>
-        <v>12</v>
-      </c>
-      <c r="E4" s="65">
-        <f>COUNTIF(Sheet1!J3:J100,"*Generic*")</f>
+      <c r="C4" s="61"/>
+      <c r="D4" s="62">
+        <f>COUNTIF(Sheet1!I3:I96,"Perspective")+COUNTIF(Sheet1!I3:I96,"Report")+COUNTIF(Sheet1!I3:I96,"Review")</f>
+        <v>8</v>
+      </c>
+      <c r="E4" s="61">
+        <f>COUNTIF(Sheet1!J3:J96,"*Generic*")</f>
         <v>17</v>
       </c>
-      <c r="F4" s="65">
-        <f>COUNTIF(Sheet1!O3:O100,1)</f>
+      <c r="F4" s="61">
+        <f>COUNTIF(Sheet1!O3:O96,1)</f>
         <v>18</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="65" t="s">
-        <v>255</v>
-      </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="69" t="s">
-        <v>275</v>
-      </c>
-      <c r="N4" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" s="65" t="s">
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="61" t="s">
+        <v>244</v>
+      </c>
+      <c r="L4" s="61"/>
+      <c r="M4" s="65" t="s">
+        <v>264</v>
+      </c>
+      <c r="N4" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="64"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63">
-        <f>COUNTIF(Sheet1!J3:J100,"*Rodents*")+COUNTIF(Sheet1!J4:J101,"*Beetle*")</f>
+      <c r="A5" s="60"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59">
+        <f>COUNTIF(Sheet1!J3:J96,"*Rodents*")+COUNTIF(Sheet1!J4:J97,"*Beetle*")</f>
         <v>3</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68" t="s">
-        <v>276</v>
-      </c>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/literature_database/literature_database.xlsx
+++ b/literature_database/literature_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/verma/Online_resources/literature_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37327C6-8586-F540-BDF7-3CE10AB44E1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CCB7B5-F1E7-554B-BC64-1C1158A038F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="900" windowWidth="24200" windowHeight="15940" xr2:uid="{48D1C182-AEF1-824A-AF31-3D6131FB60DC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="307">
   <si>
     <t xml:space="preserve">Literature Review of Synthetic Gene Drive Technology </t>
   </si>
@@ -64,33 +64,21 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>Aim of the Study (Suppresion/replacement)</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
     <t>Scope (Theory/Experiment)</t>
   </si>
   <si>
-    <t xml:space="preserve">how three different gene drive tech- niques—population suppression through dual-germline fertility disruption, population suppression with a driving-Y chromo- some, and population replacement—would fare upon release in two well-studied, field data-rich, and previously modeled settings. </t>
-  </si>
-  <si>
     <t xml:space="preserve">We show that, if an NHEJ allele has wild-type fecundity, it is very difficult for the original gene drive construct to succeed. The population will revert to its preintervention dynamics, but with the original wild type replaced by a resistant genotype. </t>
   </si>
   <si>
-    <t>Epidemological modelling takes into account stochasticity, vector populations, larval dynamics, Adult feeding behaviour, closed egg laying, spatial for human and vectors, migration, data from subsaharan africa</t>
-  </si>
-  <si>
     <t xml:space="preserve">M. R. Vella, C. E. Gunning, A. L. Lloyd, and F. Gould, “Evaluating strategies for reversing CRISPR-Cas9 gene drives,” Scientific Reports, vol. 7, dec 2017. </t>
   </si>
   <si>
     <t xml:space="preserve">C. Noble, B. Adlam, G. M. Church, K. M. Esvelt, and M. A. Nowak, “Current CRISPR gene drive systems are likely to be highly invasive in wild populations,” eLife, vol. 7, June 2018. </t>
   </si>
   <si>
-    <t xml:space="preserve">Emperical data in modelling. Sub Sharan Africa. Namawala (Tanzania) and Garki (Nigeria)  </t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -100,18 +88,9 @@
     <t>CRISPR, Homing Endonuclease Genes (HEGs), Driving-Y and Population replacement</t>
   </si>
   <si>
-    <t xml:space="preserve">Studied the effect of realistic seasonality in contrast to non-seasonality on vector population dynamics. Seasonality helps gene drive spread. Explored effect of spatial pattern, release timing, frequency, and migration rate on spread of malaria for 3 gene drive approaches (1) population supression (2) Driving Y (3) Population replacement. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Aim - Stochastic, spatial and migration effect on invasion of drive allele in the population.  </t>
   </si>
   <si>
-    <t>Aim - Analytical modelling to evaluate the efficiency of synthetic resitance, reversal drives and immunizing reversal drives in eliminating HD. Countermeasures against the spread of drive alleles</t>
-  </si>
-  <si>
-    <t>Synthetic resitance and reversal drives are unlikely to prevent Homing drive fixation because of stable polymorphic equlibrium. Immunizing Reversal Drives (IRD) theoretically ensure elimination of HD. But Cas9 remains</t>
-  </si>
-  <si>
     <t>"We conclude with specific recommendations about how to address current challenges and foster more effective communication and decision- making for complex, post-normal issues, such as gene drives."</t>
   </si>
   <si>
@@ -176,32 +155,6 @@
   </si>
   <si>
     <t>Ref 20: "Champer et al. [20] show that resistance to a CRISPR gene drive engineered in the germ line of D. melanogaster"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> Ref 17-19 "Lyttle’s caged popula- tions of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Drosophila" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Ref 21: " supported by a new flour beetle study analyzing preexisting DNA sequence variation in genomic sites that would be prime candidates for CRISPR-Cas9 GDSs "</t>
-    </r>
   </si>
   <si>
     <t>Review of different experimental studies leading to resistance in Gene Drive Systems.</t>
@@ -260,9 +213,6 @@
     <t>"we explore the feasibility and effectiveness of gRNA multiplexing, male germline drive activity, and reduction of so- matic activity for resistance reduction by studying several CRISPR homing gene drive constructs in D. melanogaster"</t>
   </si>
   <si>
-    <t>Experiment to demostrate the gRNA multiplexing as mechanism against gene drive resistance.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Use genetic simulation framework SLiM, See Figure 3 </t>
   </si>
   <si>
@@ -275,9 +225,6 @@
     <t>Generic</t>
   </si>
   <si>
-    <t>"Here, we use a population genetics model to compare the expected characteristics of three spatially self-limiting gene drive systems: one-locus underdominance, two-locus underdominance and daisychain drives. We find large differences b"</t>
-  </si>
-  <si>
     <t>Assumptions: Decreate time model, nonoverlapping generations, variable fitness cost for population suppression or replacement, Population is very large, Migration effect taken on 2 island populations, individual mate randomly.</t>
   </si>
   <si>
@@ -302,9 +249,6 @@
     <t>Rodents</t>
   </si>
   <si>
-    <t>Newzealand, gene drive system, risks</t>
-  </si>
-  <si>
     <t>"we explore the risk of accidental spread posed by self-propagating gene drive technologies, highlight new gene drive designs that might achieve better outcomes"</t>
   </si>
   <si>
@@ -335,9 +279,6 @@
     <t>" To investigate the confinement properties of single- and two-locus UDMEL, we follow the framework of Marshall and Hay"</t>
   </si>
   <si>
-    <t xml:space="preserve">Medea and engineered underedominance </t>
-  </si>
-  <si>
     <t>https://doi.org/10.1111/j.1752-4571.2010.00153.x</t>
   </si>
   <si>
@@ -347,15 +288,9 @@
     <t>" Results show that patchy release generally requires the release of fewer engineered insects to achieve success than central release. "</t>
   </si>
   <si>
-    <t>Emperical data</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t xml:space="preserve">Y. Huang, K. Magori, A. L. Lloyd, and F. Gould, “Introducing transgenes into insect populations using combined gene-drive strategies: Modeling and analysis,” Insect Biochemistry and Molecular Biology, vol. 37, pp. 1054– 1063, Oct. 2007. </t>
-  </si>
-  <si>
     <t>https://doi.org/10.1016/j.ibmb.2007.06.002</t>
   </si>
   <si>
@@ -401,9 +336,6 @@
     <t>homing endonuclease genes, transposable elements, Medea elements, the intracellular bacterium Wolbachia, engineered underdominance genes, and meiotic drive</t>
   </si>
   <si>
-    <t>"we develop stochastic models to analyze the loss probabilities for several gene drive mechanisms, including homing endonuclease genes, transposable elements, Medea elements, the intracellular bacterium Wolbachia, engineered underdominance genes, and meiotic drive."</t>
-  </si>
-  <si>
     <t xml:space="preserve">J. Min, C. Noble, D. Najjar, and K. Esvelt, “Daisy quorum drives for the genetic restoration of wild populations,” Mar. 2017. </t>
   </si>
   <si>
@@ -434,9 +366,6 @@
     <t xml:space="preserve">C. Noble, J. Olejarz, K. M. Esvelt, G. M. Church, and M. A. Nowak, “Evolutionary dynamics of CRISPR gene drives,” Science Advances, vol. 3, p. e1601964, Apr. 2017. </t>
   </si>
   <si>
-    <t>"we constructed and analyzed a mathematical model of CRISPR gene drive that includes multiplex cutting via multiple gRNAs and allows for multiple costly and cost-free resistant alleles. "</t>
-  </si>
-  <si>
     <t>"we concluded that this architecture could substantially improve the stability of CRISPR gene drives by minimizing the effects of NHEJ-mediated resistance."</t>
   </si>
   <si>
@@ -446,9 +375,6 @@
     <t>https://doi.org/10.1073/pnas.1716358116</t>
   </si>
   <si>
-    <t>"We develop mathematical models which suggest that daisy-chain-drive systems will not spread indefi- nitely through successive populations, and we report numer- ous CRISPR targeting sequences which could offer enhanced stability."</t>
-  </si>
-  <si>
     <t>See Appendix for analysis of equations</t>
   </si>
   <si>
@@ -497,12 +423,6 @@
     <t>https://doi.org/10.1534/genetics.116.197285</t>
   </si>
   <si>
-    <t xml:space="preserve">" we develop a population genetic framework for modeling CGD dynamics, which incorporates potential resistance mechanisms as well as random genetic drift." </t>
-  </si>
-  <si>
-    <t>G. Backus and K. Gross, “Genetic engineering to eradicate invasive mice on islands: Modeling the efficiency and ecological impacts,” Ecosphere, vol. 7, no. 12, 2016.</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1002/ecs2.1589</t>
   </si>
   <si>
@@ -551,9 +471,6 @@
     <t>https://doi.org/10.1073/pnas.1611064114</t>
   </si>
   <si>
-    <t>"mathematical model to analyze the population dynamics of eradication with this genetically engineered mouse and determined its eradication efficiency through model analysis and simulations."</t>
-  </si>
-  <si>
     <t xml:space="preserve">M. Edgington and L. Alphey, “Population dynamics of engineered under- dominance and killer rescue gene drives in the control of disease vectors,” PLoS Computational Biology, vol. 14, no. 3, 2018. </t>
   </si>
   <si>
@@ -675,27 +592,18 @@
   </si>
   <si>
     <t>https://doi.org/10.1101/728006</t>
-  </si>
-  <si>
-    <t>Biorxiv</t>
   </si>
   <si>
     <t>"Here we use simple models to show that spatial structure in the vector population can greatly
 facilitate persistence and evolution of resistance by the disease agent."</t>
   </si>
   <si>
-    <t>ArXiv</t>
-  </si>
-  <si>
     <t>Calvez V, Débarre F, Girardin L. Catch me if you can: a spatial model for a brake-driven gene drive reversal. arXiv preprint arXiv:1812.06641. 2018 Dec 17.</t>
   </si>
   <si>
     <t>"Our results indicate that some drives may be unstoppable, and that, if gene drives are ever deployed in nature, threshold drives, that only spread if introduced in high enough frequencies, should be preferred."</t>
   </si>
   <si>
-    <t>"Here, we consider a reaction-diffusion system modeling the release of a gene drive (of fitness 1 − a) and a brake (fitness 1 − b, b ≤ a) in a wild-type population (fitness 1)."</t>
-  </si>
-  <si>
     <t>Female fertility homing drive, Both-sex fertility drive, Driving Y, Toxin-Antidote Dominant Sperm suppression drive</t>
   </si>
   <si>
@@ -759,9 +667,6 @@
     <t>https://doi.org/10.1126/sciadv.aau8462</t>
   </si>
   <si>
-    <t>"We analyze a statistically representative survey (n = 1018) of U.S. adult attitudes toward agricultural gene drives."</t>
-  </si>
-  <si>
     <t>"Uncertain human health and ecological effects are the public’s most important concerns to resolve."</t>
   </si>
   <si>
@@ -795,18 +700,12 @@
     <t>Current Biology</t>
   </si>
   <si>
-    <t>Insect Biochemisry and Molecular Biology</t>
-  </si>
-  <si>
     <t>Journal of Heredity</t>
   </si>
   <si>
     <t>Journal of Theoretical Biology</t>
   </si>
   <si>
-    <t>BioX</t>
-  </si>
-  <si>
     <t>Peer reviewed</t>
   </si>
   <si>
@@ -972,9 +871,6 @@
     <t>Underdominance</t>
   </si>
   <si>
-    <t>Heffel MG, Finnigan GC. Mathematical modeling of self-contained CRISPR gene drive reversal systems. Scientific Reports. 2019 Dec 27;9(1):1-0.</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1038/s41598-019-54805-8</t>
   </si>
   <si>
@@ -1003,6 +899,107 @@
   </si>
   <si>
     <t>Underdominance - CRISPR, Maternal effect, reciprocal translocation, Haploinsufficient RNA; Wolbachia, CRISPR</t>
+  </si>
+  <si>
+    <t>Aim of the Study (Suppression/replacement)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical data in modelling. Sub Sharan Africa. Namawala (Tanzania) and Garki (Nigeria)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Studied the effect of realistic seasonality in contrast to non-seasonality on vector population dynamics. Seasonality helps gene drive spread. Explored effect of spatial pattern, release timing, frequency, and migration rate on spread of malaria for 3 gene drive approaches (1) population suppression (2) Driving Y (3) Population replacement. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">how three different gene drive tech- niques—population suppression through dual-germline fertility disruption, population suppression with a driving-Y chromo- some, and population replacement—would fare upon release in two well-studied, field data-rich, and previously modelled settings. </t>
+  </si>
+  <si>
+    <t>Epidemiological modelling takes into account stochasticity, vector populations, larval dynamics, Adult feeding behaviour, closed egg laying, spatial for human and vectors, migration, data from sub-Saharan Africa</t>
+  </si>
+  <si>
+    <t>Aim - Analytical modelling to evaluate the efficiency of synthetic resistance, reversal drives and immunizing reversal drives in eliminating HD. Countermeasures against the spread of drive alleles</t>
+  </si>
+  <si>
+    <t>Synthetic resistance and reversal drives are unlikely to prevent Homing drive fixation because of stable polymorphic equilibrium. Immunizing Reversal Drives (IRD) theoretically ensure elimination of HD. But Cas9 remains</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Ref 17-19 "Lyttle’s caged popular- tions of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Drosophila" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ref 21: " supported by a new flour beetle study analysing pre-existing DNA sequence variation in genomic sites that would be prime candidates for CRISPR-Cas9 GDSs "</t>
+    </r>
+  </si>
+  <si>
+    <t>Experiment to demonstrate the gRNA multiplexing as mechanism against gene drive resistance.</t>
+  </si>
+  <si>
+    <t>"Here, we use a population genetics model to compare the expected characteristics of three spatially self-limiting gene drive systems: one-locus underdominance, two-locus underdominance and daisy chain drives. We find large differences b"</t>
+  </si>
+  <si>
+    <t>New Zealand, gene drive system, risks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medea and engineered underdominance </t>
+  </si>
+  <si>
+    <t>Empirical data</t>
+  </si>
+  <si>
+    <t>Insect Biochemistry and Molecular Biology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y. Huang, K. Magori, A. L. Lloyd, and F. Gould, “Introducing transgenes into insect populations using combined gene-drive strategies: Modelling and analysis,” Insect Biochemistry and Molecular Biology, vol. 37, pp. 1054– 1063, Oct. 2007. </t>
+  </si>
+  <si>
+    <t>"we develop stochastic models to analyse the loss probabilities for several gene drive mechanisms, including homing endonuclease genes, transposable elements, Medea elements, the intracellular bacterium Wolbachia, engineered underdominance genes, and meiotic drive."</t>
+  </si>
+  <si>
+    <t>"we constructed and analysed a mathematical model of CRISPR gene drive that includes multiplex cutting via multiple gRNAs and allows for multiple costly and cost-free resistant alleles. "</t>
+  </si>
+  <si>
+    <t>"We develop mathematical models which suggest that daisy-chain-drive systems will not spread indefi- nitely through successive populations, and we report number- ous CRISPR targeting sequences which could offer enhanced stability."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">" we develop a population genetic framework for modelling CGD dynamics, which incorporates potential resistance mechanisms as well as random genetic drift." </t>
+  </si>
+  <si>
+    <t>G. Backus and K. Gross, “Genetic engineering to eradicate invasive mice on islands: Modelling the efficiency and ecological impacts,” Ecosphere, vol. 7, no. 12, 2016.</t>
+  </si>
+  <si>
+    <t>"mathematical model to analyse the population dynamics of eradication with this genetically engineered mouse and determined its eradication efficiency through model analysis and simulations."</t>
+  </si>
+  <si>
+    <t>"Here, we consider a reaction-diffusion system modelling the release of a gene drive (of fitness 1 − a) and a brake (fitness 1 − b, b ≤ a) in a wild-type population (fitness 1)."</t>
+  </si>
+  <si>
+    <t>"We analyse a statistically representative survey (n = 1018) of U.S. adult attitudes toward agricultural gene drives."</t>
+  </si>
+  <si>
+    <t>Heffel MG, Finnigan GC. Mathematical modelling of self-contained CRISPR gene drive reversal systems. Scientific Reports. 2019 Dec 27;9(1):1-0.</t>
+  </si>
+  <si>
+    <t>arXiv</t>
+  </si>
+  <si>
+    <t>bioRxiv</t>
   </si>
 </sst>
 </file>
@@ -4181,7 +4178,7 @@
   <dimension ref="A1:U66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55:B56"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4231,31 +4228,31 @@
     </row>
     <row r="2" spans="1:21" s="7" customFormat="1" ht="51">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I2" s="55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>1</v>
@@ -4276,7 +4273,7 @@
         <v>5</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>10</v>
+        <v>281</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>7</v>
@@ -4299,13 +4296,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E3" s="33">
         <v>1</v>
@@ -4314,22 +4311,22 @@
         <v>2017</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="I3" s="54">
         <v>70</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="M3" s="3">
         <v>0</v>
@@ -4341,22 +4338,22 @@
         <v>1</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="Q3" s="10">
         <v>1</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>22</v>
+        <v>283</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>13</v>
+        <v>284</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>15</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="94" customHeight="1">
@@ -4365,10 +4362,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
@@ -4380,22 +4377,22 @@
         <v>2018</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I4" s="56">
         <v>100</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M4" s="3">
         <v>0</v>
@@ -4407,13 +4404,13 @@
         <v>1</v>
       </c>
       <c r="P4" s="38" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="10">
         <v>1</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
@@ -4425,10 +4422,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
@@ -4440,22 +4437,22 @@
         <v>2017</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I5" s="56">
         <v>100</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M5" s="3">
         <v>1</v>
@@ -4467,16 +4464,16 @@
         <v>0</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="10">
         <v>1</v>
       </c>
       <c r="R5" s="13" t="s">
-        <v>24</v>
+        <v>286</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>25</v>
+        <v>287</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -4487,13 +4484,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E6" s="34">
         <v>1</v>
@@ -4502,49 +4499,49 @@
         <v>2019</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="S6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="T6" s="17" t="s">
-        <v>26</v>
-      </c>
       <c r="U6" s="1" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="126" customHeight="1">
@@ -4553,13 +4550,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -4568,22 +4565,22 @@
         <v>2018</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I7" s="56">
         <v>10</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M7" s="3">
         <v>0</v>
@@ -4595,16 +4592,16 @@
         <v>0</v>
       </c>
       <c r="P7" s="38" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="10">
         <v>1</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="T7" s="13"/>
       <c r="U7" s="1"/>
@@ -4615,10 +4612,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -4630,22 +4627,22 @@
         <v>2017</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I8" s="56" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -4657,22 +4654,22 @@
         <v>0</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="R8" s="13" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>48</v>
+        <v>288</v>
       </c>
       <c r="U8" s="17" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="107" customHeight="1">
@@ -4681,10 +4678,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="D9" s="25">
         <v>0</v>
@@ -4696,22 +4693,22 @@
         <v>2016</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I9" s="56" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -4723,16 +4720,16 @@
         <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="10">
         <v>1</v>
       </c>
       <c r="R9" s="24" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="S9" s="22" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -4743,13 +4740,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -4758,22 +4755,22 @@
         <v>2018</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I10" s="56">
         <v>10</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -4785,16 +4782,16 @@
         <v>0</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>60</v>
+        <v>289</v>
       </c>
       <c r="Q10" s="3">
         <v>1</v>
       </c>
       <c r="R10" s="26" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="S10" s="27" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
@@ -4805,10 +4802,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -4820,22 +4817,22 @@
         <v>2018</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I11" s="56">
         <v>100</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M11" s="3">
         <v>1</v>
@@ -4847,19 +4844,19 @@
         <v>1</v>
       </c>
       <c r="P11" s="16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q11" s="10">
         <v>1</v>
       </c>
       <c r="R11" s="13" t="s">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="T11" s="13" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="U11" s="13"/>
     </row>
@@ -4869,10 +4866,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -4884,22 +4881,22 @@
         <v>2014</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I12" s="56" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
@@ -4911,13 +4908,13 @@
         <v>0</v>
       </c>
       <c r="P12" s="78" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="3">
         <v>1</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
@@ -4929,10 +4926,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -4944,22 +4941,22 @@
         <v>2017</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I13" s="56" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M13" s="3">
         <v>0</v>
@@ -4971,16 +4968,16 @@
         <v>0</v>
       </c>
       <c r="P13" s="78" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="3">
         <v>1</v>
       </c>
       <c r="R13" s="13" t="s">
-        <v>74</v>
+        <v>291</v>
       </c>
       <c r="S13" s="13" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
@@ -4991,10 +4988,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -5006,22 +5003,22 @@
         <v>2017</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="I14" s="54">
         <v>90</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M14" s="3">
         <v>1</v>
@@ -5033,13 +5030,13 @@
         <v>1</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="Q14" s="3">
         <v>1</v>
       </c>
       <c r="R14" s="13" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
@@ -5051,13 +5048,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E15" s="10">
         <v>1</v>
@@ -5066,22 +5063,22 @@
         <v>2013</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="I15" s="56">
         <v>30</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M15" s="3">
         <v>1</v>
@@ -5093,19 +5090,19 @@
         <v>1</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="Q15" s="3">
         <v>1</v>
       </c>
       <c r="R15" s="13" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="S15" s="13" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="T15" s="13" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="U15" s="13"/>
     </row>
@@ -5115,10 +5112,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -5130,22 +5127,22 @@
         <v>2011</v>
       </c>
       <c r="G16" s="45" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I16" s="56">
         <v>80</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>85</v>
+        <v>292</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>89</v>
+        <v>293</v>
       </c>
       <c r="M16" s="3">
         <v>1</v>
@@ -5157,16 +5154,16 @@
         <v>1</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="3">
         <v>0</v>
       </c>
       <c r="R16" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="S16" s="13" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
@@ -5177,10 +5174,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>238</v>
+        <v>294</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
@@ -5192,22 +5189,22 @@
         <v>2007</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>91</v>
+        <v>295</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I17" s="56">
         <v>80</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K17" s="30" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M17" s="3">
         <v>1</v>
@@ -5219,16 +5216,16 @@
         <v>0</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
       <c r="R17" s="13" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="S17" s="13" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
@@ -5239,10 +5236,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="D18" s="10">
         <v>1</v>
@@ -5254,22 +5251,22 @@
         <v>2017</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I18" s="56">
         <v>70</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="M18" s="3">
         <v>1</v>
@@ -5281,16 +5278,16 @@
         <v>0</v>
       </c>
       <c r="P18" s="38" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q18" s="10">
         <v>1</v>
       </c>
       <c r="R18" s="13" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="S18" s="13" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
@@ -5301,13 +5298,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
@@ -5316,22 +5313,22 @@
         <v>2011</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="I19" s="56">
         <v>70</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M19" s="3">
         <v>1</v>
@@ -5343,16 +5340,16 @@
         <v>1</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="3">
         <v>0</v>
       </c>
       <c r="R19" s="13" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="S19" s="13" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
@@ -5363,10 +5360,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -5378,22 +5375,22 @@
         <v>2009</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="I20" s="56">
         <v>90</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K20" s="32" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -5405,13 +5402,13 @@
         <v>0</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="13" t="s">
-        <v>107</v>
+        <v>296</v>
       </c>
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
@@ -5423,10 +5420,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>241</v>
+        <v>306</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -5438,22 +5435,22 @@
         <v>2017</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="I21" s="56">
         <v>40</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
@@ -5465,16 +5462,16 @@
         <v>0</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="Q21" s="3">
         <v>0</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="S21" s="13" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
@@ -5485,10 +5482,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -5500,22 +5497,22 @@
         <v>2019</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="H22" s="40" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="I22" s="56">
         <v>70</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="M22" s="3">
         <v>1</v>
@@ -5527,13 +5524,13 @@
         <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q22" s="10">
         <v>1</v>
       </c>
       <c r="R22" s="13" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
@@ -5545,10 +5542,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -5560,22 +5557,22 @@
         <v>2017</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="I23" s="56">
         <v>90</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M23" s="3">
         <v>1</v>
@@ -5587,16 +5584,16 @@
         <v>0</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="3">
         <v>1</v>
       </c>
       <c r="R23" s="13" t="s">
-        <v>118</v>
+        <v>297</v>
       </c>
       <c r="S23" s="13" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
@@ -5607,13 +5604,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -5622,22 +5619,22 @@
         <v>2019</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="I24" s="56">
         <v>80</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M24" s="3">
         <v>1</v>
@@ -5649,16 +5646,16 @@
         <v>1</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q24" s="3">
         <v>1</v>
       </c>
       <c r="R24" s="13" t="s">
-        <v>122</v>
+        <v>298</v>
       </c>
       <c r="S24" s="13" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
@@ -5669,13 +5666,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -5684,22 +5681,22 @@
         <v>2018</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="I25" s="56">
         <v>30</v>
       </c>
       <c r="J25" s="38" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M25" s="3">
         <v>1</v>
@@ -5711,19 +5708,19 @@
         <v>0</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q25" s="3">
         <v>1</v>
       </c>
       <c r="R25" s="13" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="S25" s="13" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="T25" s="13" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="U25" s="13"/>
     </row>
@@ -5733,13 +5730,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -5748,22 +5745,22 @@
         <v>2019</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="I26" s="56">
         <v>30</v>
       </c>
       <c r="J26" s="38" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M26" s="3">
         <v>1</v>
@@ -5775,13 +5772,13 @@
         <v>0</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q26" s="3">
         <v>1</v>
       </c>
       <c r="R26" s="13" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
@@ -5793,13 +5790,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
@@ -5808,22 +5805,22 @@
         <v>2017</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="I27" s="56">
         <v>90</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M27" s="3">
         <v>1</v>
@@ -5835,16 +5832,16 @@
         <v>1</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
       <c r="R27" s="13" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="S27" s="13" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="T27" s="13"/>
       <c r="U27" s="13"/>
@@ -5855,13 +5852,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
@@ -5870,22 +5867,22 @@
         <v>2017</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="I28" s="56">
         <v>90</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M28" s="3">
         <v>1</v>
@@ -5897,13 +5894,13 @@
         <v>0</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q28" s="3">
         <v>1</v>
       </c>
       <c r="R28" s="13" t="s">
-        <v>139</v>
+        <v>299</v>
       </c>
       <c r="S28" s="13"/>
       <c r="T28" s="13"/>
@@ -5915,10 +5912,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -5930,22 +5927,22 @@
         <v>2016</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="I29" s="56">
         <v>90</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="K29" s="58" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="M29" s="3">
         <v>1</v>
@@ -5957,13 +5954,13 @@
         <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>157</v>
+        <v>301</v>
       </c>
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
@@ -5975,10 +5972,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -5990,22 +5987,22 @@
         <v>2018</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="I30" s="56">
         <v>90</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K30" s="41" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="M30" s="3">
         <v>1</v>
@@ -6017,19 +6014,19 @@
         <v>1</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="Q30" s="3">
         <v>0</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="S30" s="13" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="T30" s="13" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="U30" s="13"/>
     </row>
@@ -6039,10 +6036,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="D31" s="25">
         <v>0</v>
@@ -6054,22 +6051,22 @@
         <v>2018</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="H31" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="I31" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="I31" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>164</v>
-      </c>
       <c r="L31" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M31" s="3">
         <v>0</v>
@@ -6081,16 +6078,16 @@
         <v>0</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="R31" s="13" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="S31" s="13" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="T31" s="13"/>
       <c r="U31" s="13"/>
@@ -6101,13 +6098,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
@@ -6116,22 +6113,22 @@
         <v>2018</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="I32" s="56">
         <v>60</v>
       </c>
       <c r="J32" s="38" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="M32" s="3">
         <v>1</v>
@@ -6143,13 +6140,13 @@
         <v>0</v>
       </c>
       <c r="P32" s="38" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q32" s="3">
         <v>1</v>
       </c>
       <c r="R32" s="13" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="S32" s="13"/>
       <c r="T32" s="13"/>
@@ -6161,13 +6158,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
@@ -6176,22 +6173,22 @@
         <v>2018</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="I33" s="54">
         <v>80</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
@@ -6203,19 +6200,19 @@
         <v>0</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
       <c r="R33" s="13" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="S33" s="13" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="T33" s="13" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="U33" s="13"/>
     </row>
@@ -6225,10 +6222,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>238</v>
+        <v>294</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
@@ -6240,22 +6237,22 @@
         <v>2005</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="I34" s="56">
         <v>90</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K34" s="43" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M34" s="3">
         <v>0</v>
@@ -6267,13 +6264,13 @@
         <v>0</v>
       </c>
       <c r="P34" s="38" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q34" s="3">
         <v>0</v>
       </c>
       <c r="R34" s="42" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="S34" s="13"/>
       <c r="T34" s="13"/>
@@ -6285,10 +6282,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
@@ -6300,22 +6297,22 @@
         <v>2005</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="H35" s="39" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="I35" s="56">
         <v>100</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K35" s="44" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M35" s="3">
         <v>1</v>
@@ -6327,13 +6324,13 @@
         <v>0</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
       <c r="R35" s="13" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="S35" s="13"/>
       <c r="T35" s="13"/>
@@ -6345,10 +6342,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
@@ -6360,22 +6357,22 @@
         <v>2018</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="I36" s="56">
         <v>90</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="M36" s="3">
         <v>1</v>
@@ -6387,16 +6384,16 @@
         <v>1</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q36" s="3">
         <v>0</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="T36" s="13"/>
       <c r="U36" s="13"/>
@@ -6407,10 +6404,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
@@ -6422,22 +6419,22 @@
         <v>2011</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="I37" s="56">
         <v>70</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K37" s="43" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M37" s="3">
         <v>1</v>
@@ -6449,13 +6446,13 @@
         <v>0</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="Q37" s="3">
         <v>1</v>
       </c>
       <c r="R37" s="13" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="S37" s="13"/>
       <c r="T37" s="13"/>
@@ -6467,10 +6464,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -6482,43 +6479,43 @@
         <v>2017</v>
       </c>
       <c r="G38" s="50" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="H38" s="48" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="I38" s="54">
         <v>50</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q38" s="10">
         <v>1</v>
       </c>
       <c r="R38" s="46" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="S38" s="13" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="T38" s="13"/>
       <c r="U38" s="13"/>
@@ -6529,10 +6526,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="D39" s="10">
         <v>1</v>
@@ -6544,22 +6541,22 @@
         <v>2017</v>
       </c>
       <c r="G39" s="49" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="I39" s="56">
         <v>100</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M39" s="3">
         <v>1</v>
@@ -6571,13 +6568,13 @@
         <v>0</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q39" s="3">
         <v>1</v>
       </c>
       <c r="R39" s="13" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="S39" s="13"/>
       <c r="T39" s="13"/>
@@ -6589,10 +6586,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>199</v>
+        <v>306</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
@@ -6604,22 +6601,22 @@
         <v>2019</v>
       </c>
       <c r="G40" s="50" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="H40" s="47" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="I40" s="56">
         <v>100</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M40" s="3">
         <v>1</v>
@@ -6631,13 +6628,13 @@
         <v>1</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q40" s="3">
         <v>1</v>
       </c>
       <c r="R40" s="13" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="S40" s="13"/>
       <c r="T40" s="13"/>
@@ -6649,10 +6646,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>201</v>
+        <v>305</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
@@ -6664,22 +6661,22 @@
         <v>2018</v>
       </c>
       <c r="G41" s="50" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I41" s="56">
         <v>100</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M41" s="3">
         <v>1</v>
@@ -6691,16 +6688,16 @@
         <v>1</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
       <c r="R41" s="13" t="s">
-        <v>204</v>
+        <v>302</v>
       </c>
       <c r="S41" s="13" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="T41" s="13"/>
       <c r="U41" s="13"/>
@@ -6711,10 +6708,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>199</v>
+        <v>306</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
@@ -6726,22 +6723,22 @@
         <v>2019</v>
       </c>
       <c r="G42" s="50" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="I42" s="56">
         <v>100</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -6753,16 +6750,16 @@
         <v>1</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q42" s="3">
         <v>1</v>
       </c>
       <c r="R42" s="13" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="S42" s="13" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="T42" s="13"/>
       <c r="U42" s="13"/>
@@ -6773,13 +6770,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E43" s="3">
         <v>1</v>
@@ -6788,22 +6785,22 @@
         <v>2014</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="I43" s="56">
         <v>80</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="M43" s="3">
         <v>1</v>
@@ -6815,22 +6812,22 @@
         <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
       <c r="R43" s="51" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="S43" s="13" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="T43" s="13" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="U43" s="13" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="87" customHeight="1">
@@ -6839,10 +6836,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
@@ -6854,22 +6851,22 @@
         <v>2015</v>
       </c>
       <c r="G44" s="49" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="H44" s="53" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="I44" s="56">
         <v>5</v>
       </c>
       <c r="J44" s="38" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -6881,13 +6878,13 @@
         <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="R44" s="13" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="S44" s="13"/>
       <c r="T44" s="13"/>
@@ -6899,10 +6896,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="D45" s="3">
         <v>1</v>
@@ -6914,43 +6911,43 @@
         <v>2018</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="H45" s="29" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="I45" s="56" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="R45" s="13" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="S45" s="13" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="T45" s="13"/>
       <c r="U45" s="13"/>
@@ -6961,10 +6958,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="D46" s="18">
         <v>1</v>
@@ -6976,46 +6973,46 @@
         <v>2019</v>
       </c>
       <c r="G46" s="69" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="I46" s="56">
         <v>5</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="R46" s="13" t="s">
-        <v>226</v>
+        <v>303</v>
       </c>
       <c r="S46" s="13" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="T46" s="27" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="U46" s="13"/>
     </row>
@@ -7025,10 +7022,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47" s="68" t="s">
         <v>242</v>
-      </c>
-      <c r="C47" s="68" t="s">
-        <v>268</v>
       </c>
       <c r="D47" s="18">
         <v>0</v>
@@ -7040,40 +7037,40 @@
         <v>1995</v>
       </c>
       <c r="G47" s="73" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="H47" s="70" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="I47" s="56">
         <v>5</v>
       </c>
       <c r="J47" s="38" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="R47" s="13" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="S47" s="13"/>
       <c r="T47" s="13"/>
@@ -7085,13 +7082,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E48" s="3">
         <v>1</v>
@@ -7100,19 +7097,19 @@
         <v>2019</v>
       </c>
       <c r="G48" s="74" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="I48" s="56">
         <v>90</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K48" s="75" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="3">
@@ -7125,7 +7122,7 @@
         <v>1</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q48" s="3">
         <v>1</v>
@@ -7141,13 +7138,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E49" s="3">
         <v>1</v>
@@ -7156,34 +7153,34 @@
         <v>2019</v>
       </c>
       <c r="G49" s="76" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="I49" s="56" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="Q49" s="3">
         <v>1</v>
@@ -7199,10 +7196,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="D50" s="3">
         <v>1</v>
@@ -7214,22 +7211,22 @@
         <v>2019</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="H50" s="47" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="I50" s="56">
         <v>80</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M50" s="3">
         <v>1</v>
@@ -7241,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="Q50" s="3">
         <v>0</v>
@@ -7257,10 +7254,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="D51" s="3">
         <v>1</v>
@@ -7272,34 +7269,34 @@
         <v>2007</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="I51" s="56">
         <v>20</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q51" s="3">
         <v>1</v>
@@ -7315,13 +7312,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
@@ -7330,22 +7327,22 @@
         <v>2020</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="H52" s="29" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="I52" s="56">
         <v>80</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="M52" s="3">
         <v>1</v>
@@ -7357,7 +7354,7 @@
         <v>1</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="Q52" s="3">
         <v>1</v>
@@ -7373,10 +7370,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="D53" s="3">
         <v>1</v>
@@ -7388,22 +7385,22 @@
         <v>2020</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="H53" s="70" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="I53" s="56">
         <v>80</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M53" s="3">
         <v>0</v>
@@ -7415,7 +7412,7 @@
         <v>1</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q53" s="3">
         <v>0</v>
@@ -7431,10 +7428,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="D54" s="3">
         <v>1</v>
@@ -7446,22 +7443,22 @@
         <v>2019</v>
       </c>
       <c r="G54" s="79" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="H54" s="29" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="I54" s="56">
         <v>90</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M54" s="3">
         <v>1</v>
@@ -7473,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
@@ -7489,13 +7486,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E55" s="3">
         <v>1</v>
@@ -7504,34 +7501,34 @@
         <v>2020</v>
       </c>
       <c r="G55" s="52" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="H55" s="29" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="I55" s="56">
         <v>10</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q55" s="3">
         <v>1</v>
@@ -7875,7 +7872,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="60" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="B1" s="66">
         <v>1</v>
@@ -7899,7 +7896,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="60" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="K1" s="66">
         <v>1</v>
@@ -7955,25 +7952,25 @@
       </c>
       <c r="J2" s="63"/>
       <c r="K2" s="61" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="L2" s="61" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="M2" s="61" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="N2" s="61" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="O2" s="61" t="s">
         <v>3</v>
       </c>
       <c r="P2" s="61" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="Q2" s="61" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -8008,25 +8005,25 @@
       </c>
       <c r="J3" s="63"/>
       <c r="K3" s="64" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="L3" s="64" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="M3" s="64" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="N3" s="64" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="O3" s="64" t="s">
         <v>4</v>
       </c>
       <c r="P3" s="64" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="64" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -8052,14 +8049,14 @@
       <c r="H4" s="61"/>
       <c r="J4" s="63"/>
       <c r="K4" s="61" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="L4" s="61"/>
       <c r="M4" s="65" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="N4" s="61" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="O4" s="61" t="s">
         <v>5</v>
@@ -8084,7 +8081,7 @@
       <c r="L5" s="64"/>
       <c r="M5" s="64"/>
       <c r="N5" s="64" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="O5" s="64"/>
       <c r="P5" s="64"/>

--- a/literature_database/literature_database.xlsx
+++ b/literature_database/literature_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/verma/Online_resources/literature_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CCB7B5-F1E7-554B-BC64-1C1158A038F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8E79F9-6E89-F440-B087-1BF5C7AF2BF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="900" windowWidth="24200" windowHeight="15940" xr2:uid="{48D1C182-AEF1-824A-AF31-3D6131FB60DC}"/>
+    <workbookView xWindow="0" yWindow="820" windowWidth="24200" windowHeight="15940" xr2:uid="{48D1C182-AEF1-824A-AF31-3D6131FB60DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="312">
   <si>
     <t xml:space="preserve">Literature Review of Synthetic Gene Drive Technology </t>
   </si>
@@ -1000,6 +1000,21 @@
   </si>
   <si>
     <t>bioRxiv</t>
+  </si>
+  <si>
+    <t>Gene Drives on the Horizon;  {Committee on gene drive research in non-human organisms: recommendations for responsible conduct}</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17226/23405</t>
+  </si>
+  <si>
+    <t>Forcing the Farm: how gene grive organisms could entrench industrial agriculture and threaten food sovereignty; {ETC Group} and {Heinrich Boll Foundation}</t>
+  </si>
+  <si>
+    <t>Genome editing: scientific opportunities, public interests, and policy options in the EU; {European Academies Science Advisory Council}</t>
+  </si>
+  <si>
+    <t>The opportunity and limits of genome editing;  {Nationale Akademie der Wissenschaften Leopoldina, Deutsche Forschungsgemeinschaft, acatech – Deutsche Akademie der Technikwissenschaften, Union der deutschen Akademien der Wissenschaften}</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1500,6 +1515,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1972,7 +1993,7 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12</c:v>
@@ -2490,7 +2511,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9</c:v>
@@ -2714,7 +2735,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>17</c:v>
@@ -4178,7 +4199,7 @@
   <dimension ref="A1:U66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4418,7 +4439,7 @@
     </row>
     <row r="5" spans="1:21" ht="101" customHeight="1">
       <c r="A5" s="3">
-        <f t="shared" ref="A5:A55" si="0">1+A4</f>
+        <f t="shared" ref="A5:A59" si="0">1+A4</f>
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -5042,7 +5063,7 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="15" spans="1:21" ht="128">
+    <row r="15" spans="1:21" ht="112">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7539,92 +7560,232 @@
       <c r="U55" s="13"/>
     </row>
     <row r="56" spans="1:21" ht="113" customHeight="1">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="77"/>
-      <c r="L56" s="77"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
+      <c r="A56" s="3">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>2016</v>
+      </c>
+      <c r="G56" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="H56" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q56" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="R56" s="13"/>
       <c r="S56" s="13"/>
       <c r="T56" s="13"/>
       <c r="U56" s="13"/>
     </row>
     <row r="57" spans="1:21" ht="112" customHeight="1">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="77"/>
-      <c r="L57" s="77"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
+      <c r="A57" s="3">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2018</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="R57" s="13"/>
       <c r="S57" s="13"/>
       <c r="T57" s="13"/>
       <c r="U57" s="13"/>
     </row>
     <row r="58" spans="1:21" ht="113" customHeight="1">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="77"/>
-      <c r="L58" s="77"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
+      <c r="A58" s="3">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2017</v>
+      </c>
+      <c r="G58" s="84" t="s">
+        <v>310</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="R58" s="13"/>
       <c r="S58" s="13"/>
       <c r="T58" s="13"/>
       <c r="U58" s="13"/>
     </row>
-    <row r="59" spans="1:21" ht="99" customHeight="1">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="77"/>
-      <c r="L59" s="77"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
+    <row r="59" spans="1:21" ht="109" customHeight="1">
+      <c r="A59" s="3">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2015</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="R59" s="13"/>
       <c r="S59" s="13"/>
       <c r="T59" s="13"/>
@@ -7845,6 +8006,7 @@
     <hyperlink ref="H53" r:id="rId46" xr:uid="{88D9FA4D-9F9C-5F42-B1D2-EA4F848C4896}"/>
     <hyperlink ref="H54" r:id="rId47" xr:uid="{78C03330-D5C3-AB42-A027-FB4049D534AF}"/>
     <hyperlink ref="H55" r:id="rId48" xr:uid="{4C3A9D7B-D77A-0541-BA20-29C30C7D28C6}"/>
+    <hyperlink ref="H56" r:id="rId49" xr:uid="{54563644-5704-5841-A519-744A5F1178A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7928,7 +8090,7 @@
       </c>
       <c r="C2" s="61">
         <f>COUNTIF(Sheet1!E3:E96,1)</f>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D2" s="61">
         <f>COUNTIF(Sheet1!I3:I97,"&lt;=50")</f>
@@ -7977,7 +8139,7 @@
       <c r="A3" s="60"/>
       <c r="B3" s="59">
         <f>COUNTIF(Sheet1!B3:B96,"Report")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" s="59">
         <f>COUNTIF(Sheet1!E3:E96,0)</f>
@@ -8035,7 +8197,7 @@
       <c r="C4" s="61"/>
       <c r="D4" s="62">
         <f>COUNTIF(Sheet1!I3:I96,"Perspective")+COUNTIF(Sheet1!I3:I96,"Report")+COUNTIF(Sheet1!I3:I96,"Review")</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4" s="61">
         <f>COUNTIF(Sheet1!J3:J96,"*Generic*")</f>

--- a/literature_database/literature_database.xlsx
+++ b/literature_database/literature_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/verma/Online_resources/literature_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8E79F9-6E89-F440-B087-1BF5C7AF2BF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF29F2FF-A66D-3744-8BCC-949D2335848C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="820" windowWidth="24200" windowHeight="15940" xr2:uid="{48D1C182-AEF1-824A-AF31-3D6131FB60DC}"/>
+    <workbookView xWindow="6640" yWindow="480" windowWidth="24200" windowHeight="15940" xr2:uid="{48D1C182-AEF1-824A-AF31-3D6131FB60DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="317">
   <si>
     <t xml:space="preserve">Literature Review of Synthetic Gene Drive Technology </t>
   </si>
@@ -1015,6 +1015,21 @@
   </si>
   <si>
     <t>The opportunity and limits of genome editing;  {Nationale Akademie der Wissenschaften Leopoldina, Deutsche Forschungsgemeinschaft, acatech – Deutsche Akademie der Technikwissenschaften, Union der deutschen Akademien der Wissenschaften}</t>
+  </si>
+  <si>
+    <t>Dhole S, Lloyd AL, Gould F. Gene drive dynamics in natural populations: The importance of density-dependence, space and sex. arXiv preprint arXiv:2005.01838. 2020 May 4.</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.1146/annurev-ecolsys-031120-101013</t>
+  </si>
+  <si>
+    <t>Bennett JB, Wu SL, Rašić G, Akbari OS, Marshall JM. Modeling confinement and reversibility of threshold-dependent gene drive systems in spatially-explicit Aedes aegypti populations. BMC biology. 2020 Dec;18(1):1-4.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12915-020-0759-9</t>
+  </si>
+  <si>
+    <t>Reciprocal chromosomal translocations and a form of toxin-antidote-based underdominance known as UDMEL</t>
   </si>
 </sst>
 </file>
@@ -1507,6 +1522,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1515,12 +1536,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1990,25 +2005,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2517,19 +2532,19 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2732,16 +2747,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4198,8 +4213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9F55AF-FB3A-6E45-BFC6-20E562A75AFE}">
   <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="R61" sqref="R61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4223,29 +4238,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="24" customHeight="1">
-      <c r="A1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="82"/>
+      <c r="A1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="84"/>
     </row>
     <row r="2" spans="1:21" s="7" customFormat="1" ht="51">
       <c r="A2" s="5" t="s">
@@ -6978,7 +6993,7 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="12" t="s">
         <v>216</v>
       </c>
       <c r="C46" s="10" t="s">
@@ -7042,7 +7057,7 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="12" t="s">
         <v>216</v>
       </c>
       <c r="C47" s="68" t="s">
@@ -7448,7 +7463,7 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="11" t="s">
         <v>216</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -7506,7 +7521,7 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="11" t="s">
         <v>216</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -7579,7 +7594,7 @@
       <c r="F56" s="3">
         <v>2016</v>
       </c>
-      <c r="G56" s="83" t="s">
+      <c r="G56" s="80" t="s">
         <v>307</v>
       </c>
       <c r="H56" s="29" t="s">
@@ -7695,7 +7710,7 @@
       <c r="F58" s="3">
         <v>2017</v>
       </c>
-      <c r="G58" s="84" t="s">
+      <c r="G58" s="81" t="s">
         <v>310</v>
       </c>
       <c r="H58" s="3" t="s">
@@ -7791,47 +7806,115 @@
       <c r="T59" s="13"/>
       <c r="U59" s="13"/>
     </row>
-    <row r="60" spans="1:21">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="71"/>
-      <c r="I60" s="56"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="77"/>
-      <c r="L60" s="77"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="13"/>
+    <row r="60" spans="1:21" ht="104" customHeight="1">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2020</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="H60" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="I60" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>1</v>
+      </c>
+      <c r="R60" s="10"/>
       <c r="S60" s="13"/>
       <c r="T60" s="13"/>
       <c r="U60" s="13"/>
     </row>
-    <row r="61" spans="1:21">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="77"/>
-      <c r="L61" s="77"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
+    <row r="61" spans="1:21" ht="123" customHeight="1">
+      <c r="A61" s="3">
+        <v>59</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2020</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="H61" s="70" t="s">
+        <v>315</v>
+      </c>
+      <c r="I61" s="56">
+        <v>80</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="L61" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>1</v>
+      </c>
+      <c r="O61" s="3">
+        <v>1</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
       <c r="R61" s="13"/>
       <c r="S61" s="13"/>
       <c r="T61" s="13"/>
@@ -7839,7 +7922,7 @@
     </row>
     <row r="62" spans="1:21">
       <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
+      <c r="B62" s="11"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -7862,7 +7945,7 @@
     </row>
     <row r="63" spans="1:21">
       <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
+      <c r="B63" s="11"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -7885,7 +7968,7 @@
     </row>
     <row r="64" spans="1:21">
       <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
+      <c r="B64" s="11"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -7908,7 +7991,7 @@
     </row>
     <row r="65" spans="1:21">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+      <c r="B65" s="11"/>
       <c r="C65" s="1"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -8007,6 +8090,8 @@
     <hyperlink ref="H54" r:id="rId47" xr:uid="{78C03330-D5C3-AB42-A027-FB4049D534AF}"/>
     <hyperlink ref="H55" r:id="rId48" xr:uid="{4C3A9D7B-D77A-0541-BA20-29C30C7D28C6}"/>
     <hyperlink ref="H56" r:id="rId49" xr:uid="{54563644-5704-5841-A519-744A5F1178A9}"/>
+    <hyperlink ref="H60" r:id="rId50" xr:uid="{92796595-BBB0-4A4D-B49D-D4ED2E21D548}"/>
+    <hyperlink ref="H61" r:id="rId51" xr:uid="{3D151479-4FE8-CB4B-A4F7-02E00C6DF269}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8086,11 +8171,11 @@
       <c r="A2" s="60"/>
       <c r="B2" s="61">
         <f>COUNTIF(Sheet1!B3:B96,"Peer reviewed")</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="61">
         <f>COUNTIF(Sheet1!E3:E96,1)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" s="61">
         <f>COUNTIF(Sheet1!I3:I97,"&lt;=50")</f>
@@ -8098,7 +8183,7 @@
       </c>
       <c r="E2" s="61">
         <f>COUNTIF(Sheet1!J3:J96,"*Mosquitoes*")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="61">
         <f>COUNTIF(Sheet1!M3:M96,1)</f>
@@ -8106,11 +8191,11 @@
       </c>
       <c r="G2" s="61">
         <f>COUNTIF(Sheet1!P3:P96,"*Suppression*")+COUNTIF(Sheet1!P3:P96,"*Both*")</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2" s="61">
         <f>COUNTIF(Sheet1!Q3:Q96,1)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" s="63"/>
       <c r="K2" s="61" t="s">
@@ -8147,7 +8232,7 @@
       </c>
       <c r="D3" s="59">
         <f>COUNTIF(Sheet1!I3:I97,"&gt;=50")</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="59">
         <f>COUNTIF(Sheet1!J3:J96,"*Fruit Fly*")</f>
@@ -8155,15 +8240,15 @@
       </c>
       <c r="F3" s="59">
         <f>COUNTIF(Sheet1!N3:N96,1)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="59">
         <f>COUNTIF(Sheet1!P3:P96,"*Replacement*")+COUNTIF(Sheet1!P3:P96,"*Both*")</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3" s="59">
         <f>COUNTIF(Sheet1!Q3:Q96,0)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" s="63"/>
       <c r="K3" s="64" t="s">
@@ -8192,12 +8277,12 @@
       <c r="A4" s="60"/>
       <c r="B4" s="61">
         <f>COUNTIF(Sheet1!B3:B96,"Preprint")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="61"/>
       <c r="D4" s="62">
         <f>COUNTIF(Sheet1!I3:I96,"Perspective")+COUNTIF(Sheet1!I3:I96,"Report")+COUNTIF(Sheet1!I3:I96,"Review")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="61">
         <f>COUNTIF(Sheet1!J3:J96,"*Generic*")</f>
@@ -8205,7 +8290,7 @@
       </c>
       <c r="F4" s="61">
         <f>COUNTIF(Sheet1!O3:O96,1)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="61"/>
       <c r="H4" s="61"/>

--- a/literature_database/literature_database.xlsx
+++ b/literature_database/literature_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/verma/Online_resources/literature_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF29F2FF-A66D-3744-8BCC-949D2335848C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA00A35-A12A-3746-AC3B-371EA5A22DAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6640" yWindow="480" windowWidth="24200" windowHeight="15940" xr2:uid="{48D1C182-AEF1-824A-AF31-3D6131FB60DC}"/>
+    <workbookView xWindow="1540" yWindow="500" windowWidth="24200" windowHeight="15940" xr2:uid="{48D1C182-AEF1-824A-AF31-3D6131FB60DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="319">
   <si>
     <t xml:space="preserve">Literature Review of Synthetic Gene Drive Technology </t>
   </si>
@@ -1031,12 +1025,18 @@
   <si>
     <t>Reciprocal chromosomal translocations and a form of toxin-antidote-based underdominance known as UDMEL</t>
   </si>
+  <si>
+    <t>Grunwald HA, Gantz VM, Poplawski G, Xu XR, Bier E, Cooper KL. Super-Mendelian inheritance mediated by CRISPR–Cas9 in the female mouse germline. Nature. 2019 Feb;566(7742):105-9.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.2003087</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1680,7 +1680,9 @@
               <c:showBubbleSize val="0"/>
               <c:separator>, </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-C7B3-E945-989C-E11F77ADBBBE}"/>
                 </c:ext>
@@ -1779,7 +1781,9 @@
               <c:showBubbleSize val="0"/>
               <c:separator>, </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-C7B3-E945-989C-E11F77ADBBBE}"/>
                 </c:ext>
@@ -1808,7 +1812,9 @@
               <c:showBubbleSize val="0"/>
               <c:separator>, </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-C7B3-E945-989C-E11F77ADBBBE}"/>
                 </c:ext>
@@ -1837,7 +1843,9 @@
               <c:showBubbleSize val="0"/>
               <c:separator>, </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000F-C7B3-E945-989C-E11F77ADBBBE}"/>
                 </c:ext>
@@ -1871,7 +1879,9 @@
               <c:showBubbleSize val="0"/>
               <c:separator>, </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-C7B3-E945-989C-E11F77ADBBBE}"/>
                 </c:ext>
@@ -1905,7 +1915,9 @@
               <c:showBubbleSize val="0"/>
               <c:separator>, </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-C7B3-E945-989C-E11F77ADBBBE}"/>
                 </c:ext>
@@ -1938,7 +1950,9 @@
               <c:showBubbleSize val="0"/>
               <c:separator>, </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-C7B3-E945-989C-E11F77ADBBBE}"/>
                 </c:ext>
@@ -2005,13 +2019,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>18</c:v>
@@ -2023,7 +2037,7 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2142,7 +2156,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-C7B3-E945-989C-E11F77ADBBBE}"/>
                 </c:ext>
@@ -2175,7 +2191,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-C7B3-E945-989C-E11F77ADBBBE}"/>
                 </c:ext>
@@ -2203,7 +2221,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000011-C7B3-E945-989C-E11F77ADBBBE}"/>
                 </c:ext>
@@ -2231,7 +2251,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-C7B3-E945-989C-E11F77ADBBBE}"/>
                 </c:ext>
@@ -2329,7 +2351,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-C7B3-E945-989C-E11F77ADBBBE}"/>
                 </c:ext>
@@ -2362,7 +2386,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-C7B3-E945-989C-E11F77ADBBBE}"/>
                 </c:ext>
@@ -2460,7 +2486,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-C7B3-E945-989C-E11F77ADBBBE}"/>
                 </c:ext>
@@ -2529,7 +2557,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>35</c:v>
@@ -2541,7 +2569,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>17</c:v>
@@ -2593,7 +2621,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-C7B3-E945-989C-E11F77ADBBBE}"/>
                 </c:ext>
@@ -2621,7 +2651,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-C7B3-E945-989C-E11F77ADBBBE}"/>
                 </c:ext>
@@ -2649,7 +2681,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000D-C7B3-E945-989C-E11F77ADBBBE}"/>
                 </c:ext>
@@ -2681,7 +2715,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-C7B3-E945-989C-E11F77ADBBBE}"/>
                 </c:ext>
@@ -2805,7 +2841,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-C7B3-E945-989C-E11F77ADBBBE}"/>
                 </c:ext>
@@ -2871,7 +2909,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4213,11 +4251,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9F55AF-FB3A-6E45-BFC6-20E562A75AFE}">
   <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="R61" sqref="R61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="6" width="10.83203125" style="16" customWidth="1"/>
@@ -4237,7 +4275,7 @@
     <col min="21" max="21" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="24" customHeight="1">
+    <row r="1" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
@@ -4262,7 +4300,7 @@
       <c r="T1" s="83"/>
       <c r="U1" s="84"/>
     </row>
-    <row r="2" spans="1:21" s="7" customFormat="1" ht="51">
+    <row r="2" spans="1:21" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -4327,7 +4365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" ht="142" customHeight="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" ht="142" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4392,7 +4430,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="94" customHeight="1">
+    <row r="4" spans="1:21" ht="94" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <f>1+A3</f>
         <v>2</v>
@@ -4452,7 +4490,7 @@
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" spans="1:21" ht="101" customHeight="1">
+    <row r="5" spans="1:21" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <f t="shared" ref="A5:A59" si="0">1+A4</f>
         <v>3</v>
@@ -4514,7 +4552,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="104" customHeight="1">
+    <row r="6" spans="1:21" ht="104" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4580,7 +4618,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="126" customHeight="1">
+    <row r="7" spans="1:21" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4642,7 +4680,7 @@
       <c r="T7" s="13"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" ht="110" customHeight="1">
+    <row r="8" spans="1:21" ht="110" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4708,7 +4746,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="107" customHeight="1">
+    <row r="9" spans="1:21" ht="107" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4770,7 +4808,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:21" ht="116" customHeight="1">
+    <row r="10" spans="1:21" ht="116" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4832,7 +4870,7 @@
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
     </row>
-    <row r="11" spans="1:21" ht="118" customHeight="1">
+    <row r="11" spans="1:21" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4896,7 +4934,7 @@
       </c>
       <c r="U11" s="13"/>
     </row>
-    <row r="12" spans="1:21" ht="87" customHeight="1">
+    <row r="12" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4956,7 +4994,7 @@
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
     </row>
-    <row r="13" spans="1:21" ht="81" customHeight="1">
+    <row r="13" spans="1:21" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5018,7 +5056,7 @@
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
     </row>
-    <row r="14" spans="1:21" ht="80" customHeight="1">
+    <row r="14" spans="1:21" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5078,7 +5116,7 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="15" spans="1:21" ht="112">
+    <row r="15" spans="1:21" ht="112" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5142,7 +5180,7 @@
       </c>
       <c r="U15" s="13"/>
     </row>
-    <row r="16" spans="1:21" ht="96" customHeight="1">
+    <row r="16" spans="1:21" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5204,7 +5242,7 @@
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
     </row>
-    <row r="17" spans="1:21" ht="112" customHeight="1">
+    <row r="17" spans="1:21" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5266,7 +5304,7 @@
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
     </row>
-    <row r="18" spans="1:21" ht="97" customHeight="1">
+    <row r="18" spans="1:21" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5328,7 +5366,7 @@
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
     </row>
-    <row r="19" spans="1:21" ht="102">
+    <row r="19" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5390,7 +5428,7 @@
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
     </row>
-    <row r="20" spans="1:21" ht="157" customHeight="1">
+    <row r="20" spans="1:21" ht="157" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5450,7 +5488,7 @@
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
     </row>
-    <row r="21" spans="1:21" ht="82" customHeight="1">
+    <row r="21" spans="1:21" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5512,7 +5550,7 @@
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
     </row>
-    <row r="22" spans="1:21" ht="99" customHeight="1">
+    <row r="22" spans="1:21" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5572,7 +5610,7 @@
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
     </row>
-    <row r="23" spans="1:21" ht="109" customHeight="1">
+    <row r="23" spans="1:21" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5634,7 +5672,7 @@
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
     </row>
-    <row r="24" spans="1:21" ht="123" customHeight="1">
+    <row r="24" spans="1:21" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5696,7 +5734,7 @@
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
     </row>
-    <row r="25" spans="1:21" ht="134" customHeight="1">
+    <row r="25" spans="1:21" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5760,7 +5798,7 @@
       </c>
       <c r="U25" s="13"/>
     </row>
-    <row r="26" spans="1:21" ht="97" customHeight="1">
+    <row r="26" spans="1:21" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5820,7 +5858,7 @@
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
     </row>
-    <row r="27" spans="1:21" ht="101" customHeight="1">
+    <row r="27" spans="1:21" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5882,7 +5920,7 @@
       <c r="T27" s="13"/>
       <c r="U27" s="13"/>
     </row>
-    <row r="28" spans="1:21" ht="86" customHeight="1">
+    <row r="28" spans="1:21" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5942,7 +5980,7 @@
       <c r="T28" s="13"/>
       <c r="U28" s="13"/>
     </row>
-    <row r="29" spans="1:21" ht="83" customHeight="1">
+    <row r="29" spans="1:21" ht="83" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6002,7 +6040,7 @@
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
     </row>
-    <row r="30" spans="1:21" ht="97" customHeight="1">
+    <row r="30" spans="1:21" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6066,7 +6104,7 @@
       </c>
       <c r="U30" s="13"/>
     </row>
-    <row r="31" spans="1:21" ht="80">
+    <row r="31" spans="1:21" ht="80" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6128,7 +6166,7 @@
       <c r="T31" s="13"/>
       <c r="U31" s="13"/>
     </row>
-    <row r="32" spans="1:21" ht="132" customHeight="1">
+    <row r="32" spans="1:21" ht="132" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6188,7 +6226,7 @@
       <c r="T32" s="13"/>
       <c r="U32" s="13"/>
     </row>
-    <row r="33" spans="1:21" ht="119">
+    <row r="33" spans="1:21" ht="119" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <f>1+A32</f>
         <v>31</v>
@@ -6252,7 +6290,7 @@
       </c>
       <c r="U33" s="13"/>
     </row>
-    <row r="34" spans="1:21" ht="96" customHeight="1">
+    <row r="34" spans="1:21" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -6312,7 +6350,7 @@
       <c r="T34" s="13"/>
       <c r="U34" s="13"/>
     </row>
-    <row r="35" spans="1:21" ht="112" customHeight="1">
+    <row r="35" spans="1:21" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -6372,7 +6410,7 @@
       <c r="T35" s="13"/>
       <c r="U35" s="13"/>
     </row>
-    <row r="36" spans="1:21" ht="85" customHeight="1">
+    <row r="36" spans="1:21" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -6434,7 +6472,7 @@
       <c r="T36" s="13"/>
       <c r="U36" s="13"/>
     </row>
-    <row r="37" spans="1:21" ht="134" customHeight="1">
+    <row r="37" spans="1:21" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -6494,7 +6532,7 @@
       <c r="T37" s="13"/>
       <c r="U37" s="13"/>
     </row>
-    <row r="38" spans="1:21" ht="119">
+    <row r="38" spans="1:21" ht="119" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -6556,7 +6594,7 @@
       <c r="T38" s="13"/>
       <c r="U38" s="13"/>
     </row>
-    <row r="39" spans="1:21" ht="115" customHeight="1">
+    <row r="39" spans="1:21" ht="115" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -6616,7 +6654,7 @@
       <c r="T39" s="13"/>
       <c r="U39" s="13"/>
     </row>
-    <row r="40" spans="1:21" ht="85">
+    <row r="40" spans="1:21" ht="85" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -6676,7 +6714,7 @@
       <c r="T40" s="13"/>
       <c r="U40" s="13"/>
     </row>
-    <row r="41" spans="1:21" ht="100" customHeight="1">
+    <row r="41" spans="1:21" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -6738,7 +6776,7 @@
       <c r="T41" s="13"/>
       <c r="U41" s="13"/>
     </row>
-    <row r="42" spans="1:21" ht="131" customHeight="1">
+    <row r="42" spans="1:21" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6800,7 +6838,7 @@
       <c r="T42" s="13"/>
       <c r="U42" s="13"/>
     </row>
-    <row r="43" spans="1:21" ht="120" customHeight="1">
+    <row r="43" spans="1:21" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6866,7 +6904,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="87" customHeight="1">
+    <row r="44" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -6926,7 +6964,7 @@
       <c r="T44" s="13"/>
       <c r="U44" s="13"/>
     </row>
-    <row r="45" spans="1:21" ht="96">
+    <row r="45" spans="1:21" ht="96" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -6988,7 +7026,7 @@
       <c r="T45" s="13"/>
       <c r="U45" s="13"/>
     </row>
-    <row r="46" spans="1:21" ht="117" customHeight="1">
+    <row r="46" spans="1:21" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -7052,7 +7090,7 @@
       </c>
       <c r="U46" s="13"/>
     </row>
-    <row r="47" spans="1:21" ht="129" customHeight="1">
+    <row r="47" spans="1:21" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -7112,7 +7150,7 @@
       <c r="T47" s="13"/>
       <c r="U47" s="13"/>
     </row>
-    <row r="48" spans="1:21" ht="98" customHeight="1">
+    <row r="48" spans="1:21" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -7168,7 +7206,7 @@
       <c r="T48" s="13"/>
       <c r="U48" s="13"/>
     </row>
-    <row r="49" spans="1:21" ht="108" customHeight="1">
+    <row r="49" spans="1:21" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -7226,7 +7264,7 @@
       <c r="T49" s="13"/>
       <c r="U49" s="13"/>
     </row>
-    <row r="50" spans="1:21" ht="119" customHeight="1">
+    <row r="50" spans="1:21" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -7284,7 +7322,7 @@
       <c r="T50" s="13"/>
       <c r="U50" s="13"/>
     </row>
-    <row r="51" spans="1:21" ht="100" customHeight="1">
+    <row r="51" spans="1:21" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -7342,7 +7380,7 @@
       <c r="T51" s="13"/>
       <c r="U51" s="13"/>
     </row>
-    <row r="52" spans="1:21" ht="133" customHeight="1">
+    <row r="52" spans="1:21" ht="133" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -7400,7 +7438,7 @@
       <c r="T52" s="13"/>
       <c r="U52" s="13"/>
     </row>
-    <row r="53" spans="1:21" ht="119" customHeight="1">
+    <row r="53" spans="1:21" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -7458,7 +7496,7 @@
       <c r="T53" s="13"/>
       <c r="U53" s="13"/>
     </row>
-    <row r="54" spans="1:21" ht="107" customHeight="1">
+    <row r="54" spans="1:21" ht="107" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -7516,7 +7554,7 @@
       <c r="T54" s="13"/>
       <c r="U54" s="13"/>
     </row>
-    <row r="55" spans="1:21" ht="116" customHeight="1">
+    <row r="55" spans="1:21" ht="116" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -7574,7 +7612,7 @@
       <c r="T55" s="13"/>
       <c r="U55" s="13"/>
     </row>
-    <row r="56" spans="1:21" ht="113" customHeight="1">
+    <row r="56" spans="1:21" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -7632,7 +7670,7 @@
       <c r="T56" s="13"/>
       <c r="U56" s="13"/>
     </row>
-    <row r="57" spans="1:21" ht="112" customHeight="1">
+    <row r="57" spans="1:21" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -7690,7 +7728,7 @@
       <c r="T57" s="13"/>
       <c r="U57" s="13"/>
     </row>
-    <row r="58" spans="1:21" ht="113" customHeight="1">
+    <row r="58" spans="1:21" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -7748,7 +7786,7 @@
       <c r="T58" s="13"/>
       <c r="U58" s="13"/>
     </row>
-    <row r="59" spans="1:21" ht="109" customHeight="1">
+    <row r="59" spans="1:21" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -7806,7 +7844,7 @@
       <c r="T59" s="13"/>
       <c r="U59" s="13"/>
     </row>
-    <row r="60" spans="1:21" ht="104" customHeight="1">
+    <row r="60" spans="1:21" ht="104" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -7863,7 +7901,7 @@
       <c r="T60" s="13"/>
       <c r="U60" s="13"/>
     </row>
-    <row r="61" spans="1:21" ht="123" customHeight="1">
+    <row r="61" spans="1:21" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>59</v>
       </c>
@@ -7920,30 +7958,64 @@
       <c r="T61" s="13"/>
       <c r="U61" s="13"/>
     </row>
-    <row r="62" spans="1:21">
-      <c r="A62" s="3"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="56"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="77"/>
-      <c r="L62" s="77"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
+    <row r="62" spans="1:21" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>60</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2019</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="H62" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="I62" s="56">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>1</v>
+      </c>
       <c r="R62" s="13"/>
       <c r="S62" s="13"/>
       <c r="T62" s="13"/>
       <c r="U62" s="13"/>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="11"/>
       <c r="C63" s="3"/>
@@ -7966,7 +8038,7 @@
       <c r="T63" s="13"/>
       <c r="U63" s="13"/>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="11"/>
       <c r="C64" s="3"/>
@@ -7989,7 +8061,7 @@
       <c r="T64" s="13"/>
       <c r="U64" s="13"/>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="11"/>
       <c r="C65" s="1"/>
@@ -8012,7 +8084,7 @@
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -8092,6 +8164,7 @@
     <hyperlink ref="H56" r:id="rId49" xr:uid="{54563644-5704-5841-A519-744A5F1178A9}"/>
     <hyperlink ref="H60" r:id="rId50" xr:uid="{92796595-BBB0-4A4D-B49D-D4ED2E21D548}"/>
     <hyperlink ref="H61" r:id="rId51" xr:uid="{3D151479-4FE8-CB4B-A4F7-02E00C6DF269}"/>
+    <hyperlink ref="H62" r:id="rId52" xr:uid="{78FD5095-135A-9C4B-8374-AFCDC5245422}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8102,11 +8175,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178CD172-0D52-754C-82C4-99997D10B8F8}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="12" max="12" width="15.5" customWidth="1"/>
     <col min="13" max="13" width="14.1640625" customWidth="1"/>
@@ -8117,7 +8190,7 @@
     <col min="18" max="18" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="60" t="s">
         <v>234</v>
       </c>
@@ -8167,11 +8240,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="60"/>
       <c r="B2" s="61">
         <f>COUNTIF(Sheet1!B3:B96,"Peer reviewed")</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="61">
         <f>COUNTIF(Sheet1!E3:E96,1)</f>
@@ -8179,7 +8252,7 @@
       </c>
       <c r="D2" s="61">
         <f>COUNTIF(Sheet1!I3:I97,"&lt;=50")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="61">
         <f>COUNTIF(Sheet1!J3:J96,"*Mosquitoes*")</f>
@@ -8195,7 +8268,7 @@
       </c>
       <c r="H2" s="61">
         <f>COUNTIF(Sheet1!Q3:Q96,1)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2" s="63"/>
       <c r="K2" s="61" t="s">
@@ -8220,7 +8293,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="60"/>
       <c r="B3" s="59">
         <f>COUNTIF(Sheet1!B3:B96,"Report")</f>
@@ -8228,7 +8301,7 @@
       </c>
       <c r="C3" s="59">
         <f>COUNTIF(Sheet1!E3:E96,0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="59">
         <f>COUNTIF(Sheet1!I3:I97,"&gt;=50")</f>
@@ -8244,7 +8317,7 @@
       </c>
       <c r="G3" s="59">
         <f>COUNTIF(Sheet1!P3:P96,"*Replacement*")+COUNTIF(Sheet1!P3:P96,"*Both*")</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="59">
         <f>COUNTIF(Sheet1!Q3:Q96,0)</f>
@@ -8273,7 +8346,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="60"/>
       <c r="B4" s="61">
         <f>COUNTIF(Sheet1!B3:B96,"Preprint")</f>
@@ -8311,14 +8384,14 @@
       <c r="P4" s="61"/>
       <c r="Q4" s="61"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="60"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
       <c r="D5" s="59"/>
       <c r="E5" s="59">
         <f>COUNTIF(Sheet1!J3:J96,"*Rodents*")+COUNTIF(Sheet1!J4:J97,"*Beetle*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="59"/>
       <c r="G5" s="59"/>

--- a/literature_database/literature_database.xlsx
+++ b/literature_database/literature_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/verma/Online_resources/literature_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA00A35-A12A-3746-AC3B-371EA5A22DAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A44CA1-BB98-2640-BA84-A966E9C83C29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="500" windowWidth="24200" windowHeight="15940" xr2:uid="{48D1C182-AEF1-824A-AF31-3D6131FB60DC}"/>
+    <workbookView xWindow="1540" yWindow="500" windowWidth="24200" windowHeight="15940" activeTab="1" xr2:uid="{48D1C182-AEF1-824A-AF31-3D6131FB60DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4251,7 +4251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9F55AF-FB3A-6E45-BFC6-20E562A75AFE}">
   <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
@@ -8175,8 +8175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178CD172-0D52-754C-82C4-99997D10B8F8}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/literature_database/literature_database.xlsx
+++ b/literature_database/literature_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/verma/Online_resources/literature_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A44CA1-BB98-2640-BA84-A966E9C83C29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B36991-CD2F-BC44-8E9B-FAA7B76CDDC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="500" windowWidth="24200" windowHeight="15940" activeTab="1" xr2:uid="{48D1C182-AEF1-824A-AF31-3D6131FB60DC}"/>
+    <workbookView xWindow="9020" yWindow="2800" windowWidth="36060" windowHeight="21680" xr2:uid="{48D1C182-AEF1-824A-AF31-3D6131FB60DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="370">
   <si>
     <t xml:space="preserve">Literature Review of Synthetic Gene Drive Technology </t>
   </si>
@@ -1031,12 +1031,165 @@
   <si>
     <t>https://doi.org/10.5281/zenodo.2003087</t>
   </si>
+  <si>
+    <t>Li M, Yang T, Bui M, Gamez S, Wise T, Kandul NP, Liu J, Alcantara L, Lee H, Edula JR, Raban R. Eliminating Mosquitoes with Precision Guided Sterile Males. BioRxiv preprint. 2021.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2021.03.05.434167</t>
+  </si>
+  <si>
+    <t>Hartley S, Smith RD, Kokotovich A, Opesen C, Habtewold T, Ledingham K, Raymond B, Rwabukwali CB. Ugandan stakeholder hopes and concerns about gene drive mosquitoes for malaria control: new directions for gene drive risk governance. Malaria Journal. 2021 Dec;20(1):1-3.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12936-021-03682-6</t>
+  </si>
+  <si>
+    <t>Malaria Journal</t>
+  </si>
+  <si>
+    <t>Risk Assessment</t>
+  </si>
+  <si>
+    <t>We are all optimistic that this will succeed and we shall have a big breakthrough in reducing malaria transmission in all the malaria endemic countries.</t>
+  </si>
+  <si>
+    <t>There are other tools that have been brought up lately, mosquito nets, malaria drugs, but they have turned out to be not very effective because of the conception of the people. That’s why [gene drive] has been introduced, with the thinking that when they let the mosquito out, a particular type of mosquito with some effect, it will do its work without even the knowledge of the community people.</t>
+  </si>
+  <si>
+    <t>I’m convinced that gene drive is a sure way of eliminating malaria, it’s a sure way … Now if it is exposed to the laws that have restricted the other GMOs it might cut us from having the sure way of eliminating malaria. It has been very hard to convince these bodies to implement it here … Even if we know the results will be good, it can be stopped.</t>
+  </si>
+  <si>
+    <t>First there have been issues on liability, issues to do with liability, who is liable if anything goes wrong, who takes responsibility. That has been a major concern.</t>
+  </si>
+  <si>
+    <t>Oberhofer G, Ivy T, Hay BA. Split versions of Cleave and Rescue selfish genetic elements for measured self limiting gene drive. PLoS genetics. 2021 Feb 18;17(2):e1009385.</t>
+  </si>
+  <si>
+    <t>PLoS genetics</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pgen.1009385</t>
+  </si>
+  <si>
+    <t>Zapletal J, Najmitabrizi N, Erraguntla M, Lawley MA, Myles KM, Adelman ZN. Making gene drive biodegradable. Philosophical Transactions of the Royal Society B. 2021 Feb 15;376(1818):20190804.</t>
+  </si>
+  <si>
+    <t>Philosophical Transactions of the Royal Society B</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1098/RSTB.2019.0804</t>
+  </si>
+  <si>
+    <t>homing endonuclease, self-elimination</t>
+  </si>
+  <si>
+    <t>de Graeff N, Jongsma KR, Bredenoord AL. Experts’ moral views on gene drive technologies: a qualitative interview study. BMC medical ethics. 2021 Dec;22(1):1-5.</t>
+  </si>
+  <si>
+    <t>BMC medical ethics</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12910-021-00588-5</t>
+  </si>
+  <si>
+    <t>Interviews</t>
+  </si>
+  <si>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>Greenbaum G, Feldman MW, Rosenberg NA, Kim J. Designing gene drives to limit spillover to non-target populations. PLoS genetics. 2021 Feb 25;17(2):e1009278.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pgen.1009278</t>
+  </si>
+  <si>
+    <t>Nolan T. Control of malaria-transmitting mosquitoes using gene drives. Philosophical Transactions of the Royal Society B. 2021 Feb 15;376(1818):20190803.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1098/rstb.2019.0803</t>
+  </si>
+  <si>
+    <t>Kandul NP, Liu J, Bennett JB, Marshall JM, Akbari OS. A confinable home-and-rescue gene drive for population modification. Elife. 2021 Mar 5;10:e65939.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7554/eLife.65939</t>
+  </si>
+  <si>
+    <t>home-and-rescue (HomeR) drive</t>
+  </si>
+  <si>
+    <t>Hoermann A, Tapanelli S, Capriotti P, Del Corsano G, Masters EK, Habtewold T, Christophides GK, Windbichler N. Converting endogenous genes of the malaria mosquito into simple non-autonomous gene drives for population replacement. Elife. 2021 Apr 13;10:e58791.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7554/eLife.58791</t>
+  </si>
+  <si>
+    <t>Simoni A, Hammond AM, Beaghton AK, Galizi R, Taxiarchi C, Kyrou K, Meacci D, Gribble M, Morselli G, Burt A, Nolan T. A male-biased sex-distorter gene drive for the human malaria vector Anopheles gambiae. Nature biotechnology. 2020 May 11:1-7.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41587-020-0508-1</t>
+  </si>
+  <si>
+    <t>Nature biotechnology</t>
+  </si>
+  <si>
+    <t>CRISPR-based male-biased sex-distorter gene drive (SDGD)</t>
+  </si>
+  <si>
+    <t>North AR, Burt A, Godfray HC. Modelling the suppression of a malaria vector using a CRISPR-Cas9 gene drive to reduce female fertility. BMC biology. 2020 Dec;18(1):1-4.</t>
+  </si>
+  <si>
+    <t>BMC biology</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12915-020-00834-z</t>
+  </si>
+  <si>
+    <t>Lab Experiment and Parameter values form field study</t>
+  </si>
+  <si>
+    <t>Parameter values form study</t>
+  </si>
+  <si>
+    <t>Price TA, Windbichler N, Unckless RL, Sutter A, Runge JN, Ross PA, Pomiankowski A, Nuckolls NL, Montchamp‐Moreau C, Mideo N, Martin OY. Resistance to natural and synthetic gene drive systems. Journal of evolutionary biology. 2020 Oct;33(10):1345-60.</t>
+  </si>
+  <si>
+    <t>Journal of evolutionary biology</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/jeb.13693</t>
+  </si>
+  <si>
+    <t>Edgington MP, Harvey-Samuel T, Alphey L. Split drive killer-rescue provides a novel threshold-dependent gene drive. Scientific reports. 2020 Nov 25;10(1):1-3.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-020-77544-7</t>
+  </si>
+  <si>
+    <t>combination of toxin-antidote and CRISPR components</t>
+  </si>
+  <si>
+    <t>Champer J, Kim IK, Champer SE, Clark AG, Messer PW. Performance analysis of novel toxin-antidote CRISPR gene drive systems. BMC biology. 2020 Dec;18(1):1-7.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12915-020-0761-2</t>
+  </si>
+  <si>
+    <t>CRISPR based  toxin-antidote, TADE, TARE</t>
+  </si>
+  <si>
+    <t>Oberhofer G, Ivy T, Hay BA. Gene drive and resilience through renewal with next generation Cleave and Rescue selfish genetic elements. Proceedings of the National Academy of Sciences. 2020 Apr 21;117(16):9013-21.</t>
+  </si>
+  <si>
+    <t>Cleave and Rescue</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1183,6 +1336,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1305,7 +1474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1319,9 +1488,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1346,9 +1512,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1467,9 +1630,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1495,9 +1655,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1536,6 +1693,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2019,25 +2191,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>51</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2557,22 +2729,22 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2783,16 +2955,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0">
-                  <c:v>13</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4249,26 +4421,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9F55AF-FB3A-6E45-BFC6-20E562A75AFE}">
-  <dimension ref="A1:U66"/>
+  <dimension ref="A1:U78"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="6" width="10.83203125" style="16" customWidth="1"/>
+    <col min="4" max="6" width="10.83203125" style="14" customWidth="1"/>
     <col min="7" max="8" width="29.6640625" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="57" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="54" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" customWidth="1"/>
     <col min="11" max="11" width="17" style="2" customWidth="1"/>
     <col min="12" max="12" width="16.1640625" style="2" customWidth="1"/>
     <col min="13" max="13" width="13.1640625" style="2" customWidth="1"/>
     <col min="14" max="14" width="11.83203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11" style="16" customWidth="1"/>
-    <col min="16" max="16" width="19.33203125" style="16" customWidth="1"/>
-    <col min="17" max="17" width="18.33203125" style="16" customWidth="1"/>
+    <col min="15" max="15" width="11" style="14" customWidth="1"/>
+    <col min="16" max="16" width="19.33203125" style="14" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" style="14" customWidth="1"/>
     <col min="18" max="18" width="32.33203125" customWidth="1"/>
     <col min="19" max="19" width="31.83203125" customWidth="1"/>
     <col min="20" max="20" width="27.6640625" customWidth="1"/>
@@ -4276,92 +4449,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="84"/>
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="80"/>
     </row>
-    <row r="2" spans="1:21" s="7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:21" s="85" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="81" t="s">
         <v>277</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="81" t="s">
         <v>279</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="82" t="s">
         <v>278</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="81" t="s">
         <v>281</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="81" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4369,31 +4542,31 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E3" s="33">
-        <v>1</v>
-      </c>
-      <c r="F3" s="33">
+      <c r="E3" s="31">
+        <v>1</v>
+      </c>
+      <c r="F3" s="31">
         <v>2017</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="I3" s="54">
+      <c r="I3" s="52">
         <v>70</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>45</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -4411,19 +4584,19 @@
       <c r="O3" s="3">
         <v>1</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="Q3" s="10">
-        <v>1</v>
-      </c>
-      <c r="R3" s="8" t="s">
+      <c r="Q3" s="9">
+        <v>1</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="S3" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="U3" s="4" t="s">
@@ -4435,34 +4608,34 @@
         <f>1+A3</f>
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
         <v>2018</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="56">
+      <c r="I4" s="53">
         <v>100</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="L4" s="3" t="s">
@@ -4477,13 +4650,13 @@
       <c r="O4" s="3">
         <v>1</v>
       </c>
-      <c r="P4" s="38" t="s">
+      <c r="P4" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="10">
-        <v>1</v>
-      </c>
-      <c r="R4" s="13" t="s">
+      <c r="Q4" s="9">
+        <v>1</v>
+      </c>
+      <c r="R4" s="12" t="s">
         <v>18</v>
       </c>
       <c r="S4" s="3"/>
@@ -4492,37 +4665,37 @@
     </row>
     <row r="5" spans="1:21" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <f t="shared" ref="A5:A59" si="0">1+A4</f>
+        <f t="shared" ref="A5:A68" si="0">1+A4</f>
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
         <v>2017</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="56">
+      <c r="I5" s="53">
         <v>100</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="L5" s="3" t="s">
@@ -4537,16 +4710,16 @@
       <c r="O5" s="3">
         <v>0</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="Q5" s="10">
-        <v>1</v>
-      </c>
-      <c r="R5" s="13" t="s">
+      <c r="Q5" s="9">
+        <v>1</v>
+      </c>
+      <c r="R5" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="S5" s="19" t="s">
+      <c r="S5" s="17" t="s">
         <v>287</v>
       </c>
       <c r="T5" s="1"/>
@@ -4563,28 +4736,28 @@
       <c r="C6" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="34">
-        <v>1</v>
-      </c>
-      <c r="F6" s="34">
+      <c r="E6" s="32">
+        <v>1</v>
+      </c>
+      <c r="F6" s="32">
         <v>2019</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="56" t="s">
+      <c r="I6" s="53" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="L6" s="3" t="s">
@@ -4599,19 +4772,19 @@
       <c r="O6" s="3">
         <v>0</v>
       </c>
-      <c r="P6" s="78" t="s">
+      <c r="P6" s="74" t="s">
         <v>30</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="R6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="S6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="15" t="s">
         <v>19</v>
       </c>
       <c r="U6" s="1" t="s">
@@ -4638,19 +4811,19 @@
       <c r="F7" s="3">
         <v>2018</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="56">
+      <c r="I7" s="53">
         <v>10</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="10" t="s">
         <v>24</v>
       </c>
       <c r="L7" s="3" t="s">
@@ -4665,19 +4838,19 @@
       <c r="O7" s="3">
         <v>0</v>
       </c>
-      <c r="P7" s="38" t="s">
+      <c r="P7" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="10">
-        <v>1</v>
-      </c>
-      <c r="R7" s="13" t="s">
+      <c r="Q7" s="9">
+        <v>1</v>
+      </c>
+      <c r="R7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="S7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="T7" s="13"/>
+      <c r="T7" s="12"/>
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="1:21" ht="110" customHeight="1" x14ac:dyDescent="0.2">
@@ -4685,10 +4858,10 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>208</v>
       </c>
       <c r="D8" s="3">
@@ -4700,22 +4873,22 @@
       <c r="F8" s="3">
         <v>2017</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="56" t="s">
+      <c r="I8" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="11" t="s">
+      <c r="J8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="M8" s="3">
@@ -4727,22 +4900,22 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="P8" s="9" t="s">
         <v>39</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R8" s="13" t="s">
+      <c r="R8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="S8" s="13" t="s">
+      <c r="S8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="8" t="s">
+      <c r="T8" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="U8" s="17" t="s">
+      <c r="U8" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4751,13 +4924,13 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="23">
         <v>0</v>
       </c>
       <c r="E9" s="3">
@@ -4766,19 +4939,19 @@
       <c r="F9" s="3">
         <v>2016</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="56" t="s">
+      <c r="I9" s="53" t="s">
         <v>44</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="21" t="s">
         <v>46</v>
       </c>
       <c r="L9" s="3" t="s">
@@ -4796,13 +4969,13 @@
       <c r="P9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Q9" s="10">
-        <v>1</v>
-      </c>
-      <c r="R9" s="24" t="s">
+      <c r="Q9" s="9">
+        <v>1</v>
+      </c>
+      <c r="R9" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="S9" s="22" t="s">
+      <c r="S9" s="20" t="s">
         <v>48</v>
       </c>
       <c r="T9" s="1"/>
@@ -4828,19 +5001,19 @@
       <c r="F10" s="3">
         <v>2018</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="56">
+      <c r="I10" s="53">
         <v>10</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="L10" s="3" t="s">
@@ -4855,30 +5028,30 @@
       <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="P10" s="9" t="s">
         <v>289</v>
       </c>
       <c r="Q10" s="3">
         <v>1</v>
       </c>
-      <c r="R10" s="26" t="s">
+      <c r="R10" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="S10" s="27" t="s">
+      <c r="S10" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
     </row>
     <row r="11" spans="1:21" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>210</v>
       </c>
       <c r="D11" s="3">
@@ -4890,19 +5063,19 @@
       <c r="F11" s="3">
         <v>2018</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="56">
+      <c r="I11" s="53">
         <v>100</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="10" t="s">
         <v>16</v>
       </c>
       <c r="L11" s="3" t="s">
@@ -4917,32 +5090,32 @@
       <c r="O11" s="3">
         <v>1</v>
       </c>
-      <c r="P11" s="16" t="s">
+      <c r="P11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q11" s="10">
-        <v>1</v>
-      </c>
-      <c r="R11" s="13" t="s">
+      <c r="Q11" s="9">
+        <v>1</v>
+      </c>
+      <c r="R11" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="S11" s="13" t="s">
+      <c r="S11" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="T11" s="13" t="s">
+      <c r="T11" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="U11" s="13"/>
+      <c r="U11" s="12"/>
     </row>
     <row r="12" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
+      <c r="A12" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>206</v>
       </c>
       <c r="D12" s="3">
@@ -4954,19 +5127,19 @@
       <c r="F12" s="3">
         <v>2014</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="56" t="s">
+      <c r="I12" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="11" t="s">
+      <c r="J12" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="10" t="s">
         <v>16</v>
       </c>
       <c r="L12" s="3" t="s">
@@ -4981,28 +5154,28 @@
       <c r="O12" s="3">
         <v>0</v>
       </c>
-      <c r="P12" s="78" t="s">
+      <c r="P12" s="74" t="s">
         <v>30</v>
       </c>
       <c r="Q12" s="3">
         <v>1</v>
       </c>
-      <c r="R12" s="13" t="s">
+      <c r="R12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
     </row>
     <row r="13" spans="1:21" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>211</v>
       </c>
       <c r="D13" s="3">
@@ -5014,19 +5187,19 @@
       <c r="F13" s="3">
         <v>2017</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="56" t="s">
+      <c r="I13" s="53" t="s">
         <v>30</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="10" t="s">
         <v>16</v>
       </c>
       <c r="L13" s="3" t="s">
@@ -5041,30 +5214,30 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="78" t="s">
+      <c r="P13" s="74" t="s">
         <v>30</v>
       </c>
       <c r="Q13" s="3">
         <v>1</v>
       </c>
-      <c r="R13" s="13" t="s">
+      <c r="R13" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="S13" s="13" t="s">
+      <c r="S13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
     </row>
     <row r="14" spans="1:21" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>212</v>
       </c>
       <c r="D14" s="3">
@@ -5076,19 +5249,19 @@
       <c r="F14" s="3">
         <v>2017</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="I14" s="54">
+      <c r="I14" s="52">
         <v>90</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="3" t="s">
@@ -5109,46 +5282,46 @@
       <c r="Q14" s="3">
         <v>1</v>
       </c>
-      <c r="R14" s="13" t="s">
+      <c r="R14" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
     </row>
     <row r="15" spans="1:21" ht="112" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="10">
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9">
         <v>2013</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="56">
+      <c r="I15" s="53">
         <v>30</v>
       </c>
-      <c r="J15" s="38" t="s">
+      <c r="J15" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="11" t="s">
         <v>71</v>
       </c>
       <c r="L15" s="3" t="s">
@@ -5163,32 +5336,32 @@
       <c r="O15" s="3">
         <v>1</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="P15" s="9" t="s">
         <v>233</v>
       </c>
       <c r="Q15" s="3">
         <v>1</v>
       </c>
-      <c r="R15" s="13" t="s">
+      <c r="R15" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="S15" s="13" t="s">
+      <c r="S15" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="T15" s="13" t="s">
+      <c r="T15" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="U15" s="13"/>
+      <c r="U15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>210</v>
       </c>
       <c r="D16" s="3">
@@ -5200,22 +5373,22 @@
       <c r="F16" s="3">
         <v>2011</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="56">
+      <c r="I16" s="53">
         <v>80</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L16" s="9" t="s">
         <v>293</v>
       </c>
       <c r="M16" s="3">
@@ -5233,24 +5406,24 @@
       <c r="Q16" s="3">
         <v>0</v>
       </c>
-      <c r="R16" s="13" t="s">
+      <c r="R16" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="S16" s="13" t="s">
+      <c r="S16" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
     </row>
     <row r="17" spans="1:21" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>294</v>
       </c>
       <c r="D17" s="3">
@@ -5262,19 +5435,19 @@
       <c r="F17" s="3">
         <v>2007</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="56">
+      <c r="I17" s="53">
         <v>80</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="30" t="s">
+      <c r="K17" s="28" t="s">
         <v>147</v>
       </c>
       <c r="L17" s="3" t="s">
@@ -5295,48 +5468,48 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-      <c r="R17" s="13" t="s">
+      <c r="R17" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="S17" s="13" t="s">
+      <c r="S17" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
     </row>
     <row r="18" spans="1:21" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="D18" s="10">
-        <v>1</v>
-      </c>
-      <c r="E18" s="10">
-        <v>1</v>
-      </c>
-      <c r="F18" s="10">
+      <c r="D18" s="9">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9">
         <v>2017</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="29" t="s">
+      <c r="H18" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="I18" s="56">
+      <c r="I18" s="53">
         <v>70</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="10" t="s">
         <v>16</v>
       </c>
       <c r="L18" s="3" t="s">
@@ -5351,30 +5524,30 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-      <c r="P18" s="38" t="s">
+      <c r="P18" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="Q18" s="10">
-        <v>1</v>
-      </c>
-      <c r="R18" s="13" t="s">
+      <c r="Q18" s="9">
+        <v>1</v>
+      </c>
+      <c r="R18" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="S18" s="13" t="s">
+      <c r="S18" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
     </row>
     <row r="19" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>214</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -5386,19 +5559,19 @@
       <c r="F19" s="3">
         <v>2011</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="H19" s="29" t="s">
+      <c r="H19" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="I19" s="56">
+      <c r="I19" s="53">
         <v>70</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="10" t="s">
         <v>24</v>
       </c>
       <c r="L19" s="3" t="s">
@@ -5419,48 +5592,48 @@
       <c r="Q19" s="3">
         <v>0</v>
       </c>
-      <c r="R19" s="13" t="s">
+      <c r="R19" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="S19" s="13" t="s">
+      <c r="S19" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
     </row>
     <row r="20" spans="1:21" ht="157" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>215</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
       </c>
-      <c r="E20" s="25">
-        <v>0</v>
-      </c>
-      <c r="F20" s="25">
+      <c r="E20" s="23">
+        <v>0</v>
+      </c>
+      <c r="F20" s="23">
         <v>2009</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="56">
+      <c r="I20" s="53">
         <v>90</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K20" s="32" t="s">
+      <c r="K20" s="30" t="s">
         <v>92</v>
       </c>
       <c r="L20" s="3" t="s">
@@ -5475,28 +5648,28 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="10" t="s">
+      <c r="P20" s="9" t="s">
         <v>233</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="13" t="s">
+      <c r="R20" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
     </row>
     <row r="21" spans="1:21" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>306</v>
       </c>
       <c r="D21" s="3">
@@ -5508,19 +5681,19 @@
       <c r="F21" s="3">
         <v>2017</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="I21" s="56">
+      <c r="I21" s="53">
         <v>40</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K21" s="10" t="s">
         <v>16</v>
       </c>
       <c r="L21" s="3" t="s">
@@ -5535,30 +5708,30 @@
       <c r="O21" s="3">
         <v>0</v>
       </c>
-      <c r="P21" s="10" t="s">
+      <c r="P21" s="9" t="s">
         <v>233</v>
       </c>
       <c r="Q21" s="3">
         <v>0</v>
       </c>
-      <c r="R21" s="8" t="s">
+      <c r="R21" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="S21" s="13" t="s">
+      <c r="S21" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
     </row>
     <row r="22" spans="1:21" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>217</v>
       </c>
       <c r="D22" s="3">
@@ -5570,22 +5743,22 @@
       <c r="F22" s="3">
         <v>2019</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="40" t="s">
+      <c r="H22" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="I22" s="56">
+      <c r="I22" s="53">
         <v>70</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="K22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="L22" s="9" t="s">
         <v>99</v>
       </c>
       <c r="M22" s="3">
@@ -5600,25 +5773,25 @@
       <c r="P22" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Q22" s="10">
-        <v>1</v>
-      </c>
-      <c r="R22" s="13" t="s">
+      <c r="Q22" s="9">
+        <v>1</v>
+      </c>
+      <c r="R22" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
     </row>
     <row r="23" spans="1:21" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>219</v>
       </c>
       <c r="D23" s="3">
@@ -5630,19 +5803,19 @@
       <c r="F23" s="3">
         <v>2017</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="I23" s="56">
+      <c r="I23" s="53">
         <v>90</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="10" t="s">
         <v>16</v>
       </c>
       <c r="L23" s="3" t="s">
@@ -5663,14 +5836,14 @@
       <c r="Q23" s="3">
         <v>1</v>
       </c>
-      <c r="R23" s="13" t="s">
+      <c r="R23" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="S23" s="13" t="s">
+      <c r="S23" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
     </row>
     <row r="24" spans="1:21" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -5692,19 +5865,19 @@
       <c r="F24" s="3">
         <v>2019</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H24" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="I24" s="56">
+      <c r="I24" s="53">
         <v>80</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="10" t="s">
         <v>16</v>
       </c>
       <c r="L24" s="3" t="s">
@@ -5725,14 +5898,14 @@
       <c r="Q24" s="3">
         <v>1</v>
       </c>
-      <c r="R24" s="13" t="s">
+      <c r="R24" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="S24" s="13" t="s">
+      <c r="S24" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
     </row>
     <row r="25" spans="1:21" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -5754,19 +5927,19 @@
       <c r="F25" s="3">
         <v>2018</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="29" t="s">
+      <c r="H25" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="I25" s="56">
+      <c r="I25" s="53">
         <v>30</v>
       </c>
-      <c r="J25" s="38" t="s">
+      <c r="J25" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="10" t="s">
         <v>16</v>
       </c>
       <c r="L25" s="3" t="s">
@@ -5787,16 +5960,16 @@
       <c r="Q25" s="3">
         <v>1</v>
       </c>
-      <c r="R25" s="13" t="s">
+      <c r="R25" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="S25" s="13" t="s">
+      <c r="S25" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="T25" s="13" t="s">
+      <c r="T25" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="U25" s="13"/>
+      <c r="U25" s="12"/>
     </row>
     <row r="26" spans="1:21" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -5818,19 +5991,19 @@
       <c r="F26" s="3">
         <v>2019</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="H26" s="29" t="s">
+      <c r="H26" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="I26" s="56">
+      <c r="I26" s="53">
         <v>30</v>
       </c>
-      <c r="J26" s="38" t="s">
+      <c r="J26" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="K26" s="10" t="s">
         <v>16</v>
       </c>
       <c r="L26" s="3" t="s">
@@ -5851,12 +6024,12 @@
       <c r="Q26" s="3">
         <v>1</v>
       </c>
-      <c r="R26" s="13" t="s">
+      <c r="R26" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
     </row>
     <row r="27" spans="1:21" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -5878,19 +6051,19 @@
       <c r="F27" s="3">
         <v>2017</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="H27" s="29" t="s">
+      <c r="H27" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="I27" s="56">
+      <c r="I27" s="53">
         <v>90</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="K27" s="10" t="s">
         <v>16</v>
       </c>
       <c r="L27" s="3" t="s">
@@ -5911,24 +6084,24 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-      <c r="R27" s="13" t="s">
+      <c r="R27" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="S27" s="13" t="s">
+      <c r="S27" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
     </row>
     <row r="28" spans="1:21" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>220</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -5940,19 +6113,19 @@
       <c r="F28" s="3">
         <v>2017</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H28" s="29" t="s">
+      <c r="H28" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="I28" s="56">
+      <c r="I28" s="53">
         <v>90</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="10" t="s">
         <v>16</v>
       </c>
       <c r="L28" s="3" t="s">
@@ -5973,22 +6146,22 @@
       <c r="Q28" s="3">
         <v>1</v>
       </c>
-      <c r="R28" s="13" t="s">
+      <c r="R28" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
     </row>
     <row r="29" spans="1:21" ht="83" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>221</v>
       </c>
       <c r="D29" s="3">
@@ -6000,22 +6173,22 @@
       <c r="F29" s="3">
         <v>2016</v>
       </c>
-      <c r="G29" s="35" t="s">
+      <c r="G29" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="I29" s="56">
+      <c r="I29" s="53">
         <v>90</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K29" s="58" t="s">
+      <c r="K29" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="L29" s="10" t="s">
+      <c r="L29" s="9" t="s">
         <v>99</v>
       </c>
       <c r="M29" s="3">
@@ -6033,22 +6206,22 @@
       <c r="Q29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R29" s="13" t="s">
+      <c r="R29" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
     </row>
     <row r="30" spans="1:21" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>222</v>
       </c>
       <c r="D30" s="3">
@@ -6060,22 +6233,22 @@
       <c r="F30" s="3">
         <v>2018</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="H30" s="29" t="s">
+      <c r="H30" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="I30" s="56">
+      <c r="I30" s="53">
         <v>90</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K30" s="41" t="s">
+      <c r="K30" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="L30" s="10" t="s">
+      <c r="L30" s="9" t="s">
         <v>99</v>
       </c>
       <c r="M30" s="3">
@@ -6087,56 +6260,56 @@
       <c r="O30" s="3">
         <v>1</v>
       </c>
-      <c r="P30" s="10" t="s">
+      <c r="P30" s="9" t="s">
         <v>233</v>
       </c>
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-      <c r="R30" s="13" t="s">
+      <c r="R30" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="S30" s="13" t="s">
+      <c r="S30" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="T30" s="13" t="s">
+      <c r="T30" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="U30" s="13"/>
+      <c r="U30" s="12"/>
     </row>
     <row r="31" spans="1:21" ht="80" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="D31" s="25">
-        <v>0</v>
-      </c>
-      <c r="E31" s="25">
-        <v>0</v>
-      </c>
-      <c r="F31" s="25">
+      <c r="D31" s="23">
+        <v>0</v>
+      </c>
+      <c r="E31" s="23">
+        <v>0</v>
+      </c>
+      <c r="F31" s="23">
         <v>2018</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="H31" s="29" t="s">
+      <c r="H31" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="I31" s="56" t="s">
+      <c r="I31" s="53" t="s">
         <v>44</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="11" t="s">
         <v>144</v>
       </c>
       <c r="L31" s="3" t="s">
@@ -6157,14 +6330,14 @@
       <c r="Q31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R31" s="13" t="s">
+      <c r="R31" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="S31" s="13" t="s">
+      <c r="S31" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
     </row>
     <row r="32" spans="1:21" ht="132" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
@@ -6186,22 +6359,22 @@
       <c r="F32" s="3">
         <v>2018</v>
       </c>
-      <c r="G32" s="36" t="s">
+      <c r="G32" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="H32" s="29" t="s">
+      <c r="H32" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="I32" s="56">
+      <c r="I32" s="53">
         <v>60</v>
       </c>
-      <c r="J32" s="38" t="s">
+      <c r="J32" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L32" s="10" t="s">
+      <c r="L32" s="9" t="s">
         <v>149</v>
       </c>
       <c r="M32" s="3">
@@ -6213,28 +6386,28 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="38" t="s">
+      <c r="P32" s="36" t="s">
         <v>27</v>
       </c>
       <c r="Q32" s="3">
         <v>1</v>
       </c>
-      <c r="R32" s="13" t="s">
+      <c r="R32" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
     </row>
     <row r="33" spans="1:21" ht="119" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <f>1+A32</f>
         <v>31</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="11" t="s">
         <v>224</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -6246,19 +6419,19 @@
       <c r="F33" s="3">
         <v>2018</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G33" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="H33" s="38" t="s">
+      <c r="H33" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="I33" s="54">
+      <c r="I33" s="52">
         <v>80</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K33" s="12" t="s">
+      <c r="K33" s="11" t="s">
         <v>280</v>
       </c>
       <c r="L33" s="3" t="s">
@@ -6273,32 +6446,32 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-      <c r="P33" s="10" t="s">
+      <c r="P33" s="9" t="s">
         <v>233</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-      <c r="R33" s="13" t="s">
+      <c r="R33" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="S33" s="13" t="s">
+      <c r="S33" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="T33" s="13" t="s">
+      <c r="T33" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="U33" s="13"/>
+      <c r="U33" s="12"/>
     </row>
     <row r="34" spans="1:21" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="11" t="s">
         <v>294</v>
       </c>
       <c r="D34" s="3">
@@ -6310,19 +6483,19 @@
       <c r="F34" s="3">
         <v>2005</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G34" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="H34" s="29" t="s">
+      <c r="H34" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="I34" s="56">
+      <c r="I34" s="53">
         <v>90</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K34" s="43" t="s">
+      <c r="K34" s="41" t="s">
         <v>154</v>
       </c>
       <c r="L34" s="3" t="s">
@@ -6337,28 +6510,28 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-      <c r="P34" s="38" t="s">
+      <c r="P34" s="36" t="s">
         <v>27</v>
       </c>
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-      <c r="R34" s="42" t="s">
+      <c r="R34" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
     </row>
     <row r="35" spans="1:21" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="11" t="s">
         <v>225</v>
       </c>
       <c r="D35" s="3">
@@ -6370,19 +6543,19 @@
       <c r="F35" s="3">
         <v>2005</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G35" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H35" s="39" t="s">
+      <c r="H35" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="I35" s="56">
+      <c r="I35" s="53">
         <v>100</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K35" s="44" t="s">
+      <c r="K35" s="42" t="s">
         <v>154</v>
       </c>
       <c r="L35" s="3" t="s">
@@ -6403,22 +6576,22 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-      <c r="R35" s="13" t="s">
+      <c r="R35" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
     </row>
     <row r="36" spans="1:21" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="11" t="s">
         <v>226</v>
       </c>
       <c r="D36" s="3">
@@ -6430,13 +6603,13 @@
       <c r="F36" s="3">
         <v>2018</v>
       </c>
-      <c r="G36" s="17" t="s">
+      <c r="G36" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="H36" s="29" t="s">
+      <c r="H36" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="I36" s="56">
+      <c r="I36" s="53">
         <v>90</v>
       </c>
       <c r="J36" s="3" t="s">
@@ -6445,7 +6618,7 @@
       <c r="K36" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L36" s="10" t="s">
+      <c r="L36" s="9" t="s">
         <v>99</v>
       </c>
       <c r="M36" s="3">
@@ -6463,24 +6636,24 @@
       <c r="Q36" s="3">
         <v>0</v>
       </c>
-      <c r="R36" s="13" t="s">
+      <c r="R36" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="S36" s="13" t="s">
+      <c r="S36" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
     </row>
     <row r="37" spans="1:21" ht="134" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>227</v>
       </c>
       <c r="D37" s="3">
@@ -6492,19 +6665,19 @@
       <c r="F37" s="3">
         <v>2011</v>
       </c>
-      <c r="G37" s="17" t="s">
+      <c r="G37" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="H37" s="29" t="s">
+      <c r="H37" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="I37" s="56">
+      <c r="I37" s="53">
         <v>70</v>
       </c>
       <c r="J37" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K37" s="43" t="s">
+      <c r="K37" s="41" t="s">
         <v>158</v>
       </c>
       <c r="L37" s="3" t="s">
@@ -6525,22 +6698,22 @@
       <c r="Q37" s="3">
         <v>1</v>
       </c>
-      <c r="R37" s="13" t="s">
+      <c r="R37" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
     </row>
     <row r="38" spans="1:21" ht="119" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>219</v>
       </c>
       <c r="D38" s="3">
@@ -6552,22 +6725,22 @@
       <c r="F38" s="3">
         <v>2017</v>
       </c>
-      <c r="G38" s="50" t="s">
+      <c r="G38" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="H38" s="48" t="s">
+      <c r="H38" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="I38" s="54">
+      <c r="I38" s="52">
         <v>50</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="6" t="s">
         <v>232</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L38" s="10" t="s">
+      <c r="L38" s="9" t="s">
         <v>171</v>
       </c>
       <c r="M38" s="3" t="s">
@@ -6582,30 +6755,30 @@
       <c r="P38" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q38" s="10">
-        <v>1</v>
-      </c>
-      <c r="R38" s="46" t="s">
+      <c r="Q38" s="9">
+        <v>1</v>
+      </c>
+      <c r="R38" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="S38" s="13" t="s">
+      <c r="S38" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
     </row>
     <row r="39" spans="1:21" ht="115" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="9">
         <v>1</v>
       </c>
       <c r="E39" s="3">
@@ -6614,13 +6787,13 @@
       <c r="F39" s="3">
         <v>2017</v>
       </c>
-      <c r="G39" s="49" t="s">
+      <c r="G39" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="H39" s="29" t="s">
+      <c r="H39" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="I39" s="56">
+      <c r="I39" s="53">
         <v>100</v>
       </c>
       <c r="J39" s="3" t="s">
@@ -6647,22 +6820,22 @@
       <c r="Q39" s="3">
         <v>1</v>
       </c>
-      <c r="R39" s="13" t="s">
+      <c r="R39" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
     </row>
     <row r="40" spans="1:21" ht="85" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>306</v>
       </c>
       <c r="D40" s="3">
@@ -6674,16 +6847,16 @@
       <c r="F40" s="3">
         <v>2019</v>
       </c>
-      <c r="G40" s="50" t="s">
+      <c r="G40" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="H40" s="47" t="s">
+      <c r="H40" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="I40" s="56">
+      <c r="I40" s="53">
         <v>100</v>
       </c>
-      <c r="J40" s="10" t="s">
+      <c r="J40" s="9" t="s">
         <v>55</v>
       </c>
       <c r="K40" s="3" t="s">
@@ -6707,22 +6880,22 @@
       <c r="Q40" s="3">
         <v>1</v>
       </c>
-      <c r="R40" s="13" t="s">
+      <c r="R40" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
     </row>
     <row r="41" spans="1:21" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>305</v>
       </c>
       <c r="D41" s="3">
@@ -6734,13 +6907,13 @@
       <c r="F41" s="3">
         <v>2018</v>
       </c>
-      <c r="G41" s="50" t="s">
+      <c r="G41" s="48" t="s">
         <v>180</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I41" s="56">
+      <c r="I41" s="53">
         <v>100</v>
       </c>
       <c r="J41" s="3" t="s">
@@ -6767,24 +6940,24 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-      <c r="R41" s="13" t="s">
+      <c r="R41" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="S41" s="13" t="s">
+      <c r="S41" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
     </row>
     <row r="42" spans="1:21" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="11" t="s">
         <v>306</v>
       </c>
       <c r="D42" s="3">
@@ -6796,19 +6969,19 @@
       <c r="F42" s="3">
         <v>2019</v>
       </c>
-      <c r="G42" s="50" t="s">
+      <c r="G42" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="H42" s="21" t="s">
+      <c r="H42" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="I42" s="56">
+      <c r="I42" s="53">
         <v>100</v>
       </c>
-      <c r="J42" s="10" t="s">
+      <c r="J42" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K42" s="10" t="s">
+      <c r="K42" s="9" t="s">
         <v>182</v>
       </c>
       <c r="L42" s="3" t="s">
@@ -6829,24 +7002,24 @@
       <c r="Q42" s="3">
         <v>1</v>
       </c>
-      <c r="R42" s="13" t="s">
+      <c r="R42" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="S42" s="13" t="s">
+      <c r="S42" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
     </row>
     <row r="43" spans="1:21" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="11" t="s">
         <v>229</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -6858,22 +7031,22 @@
       <c r="F43" s="3">
         <v>2014</v>
       </c>
-      <c r="G43" s="52" t="s">
+      <c r="G43" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="H43" s="29" t="s">
+      <c r="H43" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="I43" s="56">
+      <c r="I43" s="53">
         <v>80</v>
       </c>
       <c r="J43" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K43" s="10" t="s">
+      <c r="K43" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="L43" s="10" t="s">
+      <c r="L43" s="9" t="s">
         <v>99</v>
       </c>
       <c r="M43" s="3">
@@ -6891,16 +7064,16 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="51" t="s">
+      <c r="R43" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="S43" s="13" t="s">
+      <c r="S43" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="T43" s="13" t="s">
+      <c r="T43" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="U43" s="13" t="s">
+      <c r="U43" s="12" t="s">
         <v>193</v>
       </c>
     </row>
@@ -6909,10 +7082,10 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="11" t="s">
         <v>219</v>
       </c>
       <c r="D44" s="3">
@@ -6924,16 +7097,16 @@
       <c r="F44" s="3">
         <v>2015</v>
       </c>
-      <c r="G44" s="49" t="s">
+      <c r="G44" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="H44" s="53" t="s">
+      <c r="H44" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="I44" s="56">
+      <c r="I44" s="53">
         <v>5</v>
       </c>
-      <c r="J44" s="38" t="s">
+      <c r="J44" s="36" t="s">
         <v>231</v>
       </c>
       <c r="K44" s="3" t="s">
@@ -6957,22 +7130,22 @@
       <c r="Q44" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R44" s="13" t="s">
+      <c r="R44" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
     </row>
     <row r="45" spans="1:21" ht="96" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="11" t="s">
         <v>230</v>
       </c>
       <c r="D45" s="3">
@@ -6984,13 +7157,13 @@
       <c r="F45" s="3">
         <v>2018</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G45" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="H45" s="29" t="s">
+      <c r="H45" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="I45" s="56" t="s">
+      <c r="I45" s="53" t="s">
         <v>30</v>
       </c>
       <c r="J45" s="3" t="s">
@@ -7017,42 +7190,42 @@
       <c r="Q45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R45" s="13" t="s">
+      <c r="R45" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="S45" s="13" t="s">
+      <c r="S45" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
     </row>
     <row r="46" spans="1:21" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="D46" s="18">
-        <v>1</v>
-      </c>
-      <c r="E46" s="18">
-        <v>1</v>
-      </c>
-      <c r="F46" s="18">
+      <c r="D46" s="16">
+        <v>1</v>
+      </c>
+      <c r="E46" s="16">
+        <v>1</v>
+      </c>
+      <c r="F46" s="16">
         <v>2019</v>
       </c>
-      <c r="G46" s="69" t="s">
+      <c r="G46" s="66" t="s">
         <v>201</v>
       </c>
-      <c r="H46" s="29" t="s">
+      <c r="H46" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="I46" s="56">
+      <c r="I46" s="53">
         <v>5</v>
       </c>
       <c r="J46" s="3" t="s">
@@ -7079,47 +7252,47 @@
       <c r="Q46" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R46" s="13" t="s">
+      <c r="R46" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="S46" s="13" t="s">
+      <c r="S46" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="T46" s="27" t="s">
+      <c r="T46" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="U46" s="13"/>
+      <c r="U46" s="12"/>
     </row>
     <row r="47" spans="1:21" ht="129" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C47" s="68" t="s">
+      <c r="C47" s="65" t="s">
         <v>242</v>
       </c>
-      <c r="D47" s="18">
-        <v>0</v>
-      </c>
-      <c r="E47" s="18">
-        <v>0</v>
-      </c>
-      <c r="F47" s="18">
+      <c r="D47" s="16">
+        <v>0</v>
+      </c>
+      <c r="E47" s="16">
+        <v>0</v>
+      </c>
+      <c r="F47" s="16">
         <v>1995</v>
       </c>
-      <c r="G47" s="73" t="s">
+      <c r="G47" s="69" t="s">
         <v>243</v>
       </c>
-      <c r="H47" s="70" t="s">
+      <c r="H47" s="67" t="s">
         <v>244</v>
       </c>
-      <c r="I47" s="56">
+      <c r="I47" s="53">
         <v>5</v>
       </c>
-      <c r="J47" s="38" t="s">
+      <c r="J47" s="36" t="s">
         <v>231</v>
       </c>
       <c r="K47" s="3" t="s">
@@ -7143,22 +7316,22 @@
       <c r="Q47" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R47" s="13" t="s">
+      <c r="R47" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="S47" s="13"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="13"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
     </row>
     <row r="48" spans="1:21" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="9" t="s">
         <v>250</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -7170,19 +7343,19 @@
       <c r="F48" s="3">
         <v>2019</v>
       </c>
-      <c r="G48" s="74" t="s">
+      <c r="G48" s="70" t="s">
         <v>248</v>
       </c>
-      <c r="H48" s="29" t="s">
+      <c r="H48" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="I48" s="56">
+      <c r="I48" s="53">
         <v>90</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K48" s="75" t="s">
+      <c r="K48" s="71" t="s">
         <v>275</v>
       </c>
       <c r="L48" s="3"/>
@@ -7201,20 +7374,20 @@
       <c r="Q48" s="3">
         <v>1</v>
       </c>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
     </row>
     <row r="49" spans="1:21" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="9" t="s">
         <v>252</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -7226,13 +7399,13 @@
       <c r="F49" s="3">
         <v>2019</v>
       </c>
-      <c r="G49" s="76" t="s">
+      <c r="G49" s="72" t="s">
         <v>251</v>
       </c>
-      <c r="H49" s="29" t="s">
+      <c r="H49" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="I49" s="56" t="s">
+      <c r="I49" s="53" t="s">
         <v>254</v>
       </c>
       <c r="J49" s="3" t="s">
@@ -7259,20 +7432,20 @@
       <c r="Q49" s="3">
         <v>1</v>
       </c>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="13"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
     </row>
     <row r="50" spans="1:21" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="9" t="s">
         <v>256</v>
       </c>
       <c r="D50" s="3">
@@ -7284,13 +7457,13 @@
       <c r="F50" s="3">
         <v>2019</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G50" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="H50" s="47" t="s">
+      <c r="H50" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="I50" s="56">
+      <c r="I50" s="53">
         <v>80</v>
       </c>
       <c r="J50" s="3" t="s">
@@ -7317,20 +7490,20 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-      <c r="R50" s="13"/>
-      <c r="S50" s="13"/>
-      <c r="T50" s="13"/>
-      <c r="U50" s="13"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
     </row>
     <row r="51" spans="1:21" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="10" t="s">
         <v>219</v>
       </c>
       <c r="D51" s="3">
@@ -7342,19 +7515,19 @@
       <c r="F51" s="3">
         <v>2007</v>
       </c>
-      <c r="G51" s="17" t="s">
+      <c r="G51" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="H51" s="29" t="s">
+      <c r="H51" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="I51" s="56">
+      <c r="I51" s="53">
         <v>20</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="K51" s="10" t="s">
+      <c r="K51" s="9" t="s">
         <v>261</v>
       </c>
       <c r="L51" s="3" t="s">
@@ -7375,20 +7548,20 @@
       <c r="Q51" s="3">
         <v>1</v>
       </c>
-      <c r="R51" s="13"/>
-      <c r="S51" s="13"/>
-      <c r="T51" s="13"/>
-      <c r="U51" s="13"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
     </row>
     <row r="52" spans="1:21" ht="133" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>263</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -7400,19 +7573,19 @@
       <c r="F52" s="3">
         <v>2020</v>
       </c>
-      <c r="G52" s="17" t="s">
+      <c r="G52" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="H52" s="29" t="s">
+      <c r="H52" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="I52" s="56">
+      <c r="I52" s="53">
         <v>80</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K52" s="10" t="s">
+      <c r="K52" s="9" t="s">
         <v>265</v>
       </c>
       <c r="L52" s="3" t="s">
@@ -7433,20 +7606,20 @@
       <c r="Q52" s="3">
         <v>1</v>
       </c>
-      <c r="R52" s="13"/>
-      <c r="S52" s="13"/>
-      <c r="T52" s="13"/>
-      <c r="U52" s="13"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
     </row>
     <row r="53" spans="1:21" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="9" t="s">
         <v>269</v>
       </c>
       <c r="D53" s="3">
@@ -7458,13 +7631,13 @@
       <c r="F53" s="3">
         <v>2020</v>
       </c>
-      <c r="G53" s="17" t="s">
+      <c r="G53" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="H53" s="70" t="s">
+      <c r="H53" s="67" t="s">
         <v>267</v>
       </c>
-      <c r="I53" s="56">
+      <c r="I53" s="53">
         <v>80</v>
       </c>
       <c r="J53" s="3" t="s">
@@ -7491,17 +7664,17 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-      <c r="R53" s="13"/>
-      <c r="S53" s="13"/>
-      <c r="T53" s="13"/>
-      <c r="U53" s="13"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
     </row>
     <row r="54" spans="1:21" ht="107" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="10" t="s">
         <v>216</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -7516,19 +7689,19 @@
       <c r="F54" s="3">
         <v>2019</v>
       </c>
-      <c r="G54" s="79" t="s">
+      <c r="G54" s="75" t="s">
         <v>304</v>
       </c>
-      <c r="H54" s="29" t="s">
+      <c r="H54" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="I54" s="56">
+      <c r="I54" s="53">
         <v>90</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K54" s="10" t="s">
+      <c r="K54" s="9" t="s">
         <v>272</v>
       </c>
       <c r="L54" s="3" t="s">
@@ -7549,17 +7722,17 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-      <c r="R54" s="13"/>
-      <c r="S54" s="13"/>
-      <c r="T54" s="13"/>
-      <c r="U54" s="13"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
     </row>
     <row r="55" spans="1:21" ht="116" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="10" t="s">
         <v>216</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -7574,13 +7747,13 @@
       <c r="F55" s="3">
         <v>2020</v>
       </c>
-      <c r="G55" s="52" t="s">
+      <c r="G55" s="50" t="s">
         <v>274</v>
       </c>
-      <c r="H55" s="29" t="s">
+      <c r="H55" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="I55" s="56">
+      <c r="I55" s="53">
         <v>10</v>
       </c>
       <c r="J55" s="3" t="s">
@@ -7607,20 +7780,20 @@
       <c r="Q55" s="3">
         <v>1</v>
       </c>
-      <c r="R55" s="13"/>
-      <c r="S55" s="13"/>
-      <c r="T55" s="13"/>
-      <c r="U55" s="13"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
     </row>
     <row r="56" spans="1:21" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="3">
@@ -7632,10 +7805,10 @@
       <c r="F56" s="3">
         <v>2016</v>
       </c>
-      <c r="G56" s="80" t="s">
+      <c r="G56" s="76" t="s">
         <v>307</v>
       </c>
-      <c r="H56" s="29" t="s">
+      <c r="H56" s="27" t="s">
         <v>308</v>
       </c>
       <c r="I56" s="3" t="s">
@@ -7665,20 +7838,20 @@
       <c r="Q56" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="13"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
     </row>
     <row r="57" spans="1:21" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="3">
@@ -7690,7 +7863,7 @@
       <c r="F57" s="3">
         <v>2018</v>
       </c>
-      <c r="G57" s="13" t="s">
+      <c r="G57" s="12" t="s">
         <v>309</v>
       </c>
       <c r="H57" s="3" t="s">
@@ -7723,20 +7896,20 @@
       <c r="Q57" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
-      <c r="U57" s="13"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
     </row>
     <row r="58" spans="1:21" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="3">
@@ -7748,7 +7921,7 @@
       <c r="F58" s="3">
         <v>2017</v>
       </c>
-      <c r="G58" s="81" t="s">
+      <c r="G58" s="77" t="s">
         <v>310</v>
       </c>
       <c r="H58" s="3" t="s">
@@ -7781,20 +7954,20 @@
       <c r="Q58" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R58" s="13"/>
-      <c r="S58" s="13"/>
-      <c r="T58" s="13"/>
-      <c r="U58" s="13"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
     </row>
     <row r="59" spans="1:21" ht="109" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="3">
@@ -7806,7 +7979,7 @@
       <c r="F59" s="3">
         <v>2015</v>
       </c>
-      <c r="G59" s="17" t="s">
+      <c r="G59" s="15" t="s">
         <v>311</v>
       </c>
       <c r="H59" s="3" t="s">
@@ -7839,16 +8012,17 @@
       <c r="Q59" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R59" s="13"/>
-      <c r="S59" s="13"/>
-      <c r="T59" s="13"/>
-      <c r="U59" s="13"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
     </row>
     <row r="60" spans="1:21" ht="104" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="10" t="s">
         <v>218</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -7863,13 +8037,13 @@
       <c r="F60" s="3">
         <v>2020</v>
       </c>
-      <c r="G60" s="14" t="s">
+      <c r="G60" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="H60" s="29" t="s">
+      <c r="H60" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="I60" s="56" t="s">
+      <c r="I60" s="53" t="s">
         <v>44</v>
       </c>
       <c r="J60" s="3" t="s">
@@ -7896,19 +8070,20 @@
       <c r="Q60" s="3">
         <v>1</v>
       </c>
-      <c r="R60" s="10"/>
-      <c r="S60" s="13"/>
-      <c r="T60" s="13"/>
-      <c r="U60" s="13"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
     </row>
     <row r="61" spans="1:21" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="11" t="s">
         <v>212</v>
       </c>
       <c r="D61" s="3">
@@ -7920,13 +8095,13 @@
       <c r="F61" s="3">
         <v>2020</v>
       </c>
-      <c r="G61" s="14" t="s">
+      <c r="G61" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="H61" s="70" t="s">
+      <c r="H61" s="67" t="s">
         <v>315</v>
       </c>
-      <c r="I61" s="56">
+      <c r="I61" s="53">
         <v>80</v>
       </c>
       <c r="J61" s="3" t="s">
@@ -7935,7 +8110,7 @@
       <c r="K61" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="L61" s="10" t="s">
+      <c r="L61" s="9" t="s">
         <v>99</v>
       </c>
       <c r="M61" s="3">
@@ -7953,16 +8128,17 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-      <c r="R61" s="13"/>
-      <c r="S61" s="13"/>
-      <c r="T61" s="13"/>
-      <c r="U61" s="13"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
     </row>
     <row r="62" spans="1:21" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="11" t="s">
         <v>216</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -7977,19 +8153,19 @@
       <c r="F62" s="3">
         <v>2019</v>
       </c>
-      <c r="G62" s="14" t="s">
+      <c r="G62" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="H62" s="29" t="s">
+      <c r="H62" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="I62" s="56">
+      <c r="I62" s="53">
         <v>5</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K62" s="11" t="s">
+      <c r="K62" s="10" t="s">
         <v>16</v>
       </c>
       <c r="L62" s="3" t="s">
@@ -8010,102 +8186,914 @@
       <c r="Q62" s="3">
         <v>1</v>
       </c>
-      <c r="R62" s="13"/>
-      <c r="S62" s="13"/>
-      <c r="T62" s="13"/>
-      <c r="U62" s="13"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="77"/>
-      <c r="L63" s="77"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="13"/>
-      <c r="S63" s="13"/>
-      <c r="T63" s="13"/>
-      <c r="U63" s="13"/>
+    <row r="63" spans="1:21" ht="102" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" s="3">
+        <v>2021</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="H63" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="I63" s="53">
+        <v>50</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K63" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>1</v>
+      </c>
+      <c r="O63" s="3">
+        <v>1</v>
+      </c>
+      <c r="P63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="71"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="77"/>
-      <c r="L64" s="77"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="13"/>
-      <c r="S64" s="13"/>
-      <c r="T64" s="13"/>
-      <c r="U64" s="13"/>
+    <row r="64" spans="1:21" ht="221" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D64" s="3">
+        <v>1</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+      <c r="F64" s="3">
+        <v>2021</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H64" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="I64" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K64" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>1</v>
+      </c>
+      <c r="R64" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="S64" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="T64" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="U64" s="12" t="s">
+        <v>328</v>
+      </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="72"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="77"/>
-      <c r="L65" s="77"/>
-      <c r="M65" s="77"/>
-      <c r="N65" s="77"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
+    <row r="65" spans="1:21" ht="102" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D65" s="3">
+        <v>1</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3">
+        <v>2021</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="H65" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="I65" s="53">
+        <v>80</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M65" s="3">
+        <v>1</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>1</v>
+      </c>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="72"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="77"/>
-      <c r="L66" s="77"/>
-      <c r="M66" s="77"/>
-      <c r="N66" s="77"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
+    <row r="66" spans="1:21" ht="119" x14ac:dyDescent="0.2">
+      <c r="A66" s="10">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2021</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="H66" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="I66" s="53">
+        <v>100</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M66" s="3">
+        <v>1</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>1</v>
+      </c>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
+    </row>
+    <row r="67" spans="1:21" ht="102" x14ac:dyDescent="0.2">
+      <c r="A67" s="10">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+      <c r="F67" s="3">
+        <v>2021</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="H67" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="I67" s="53" t="s">
+        <v>339</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K67" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+    </row>
+    <row r="68" spans="1:21" ht="102" x14ac:dyDescent="0.2">
+      <c r="A68" s="10">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3">
+        <v>2021</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="H68" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="I68" s="53">
+        <v>80</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="M68" s="3">
+        <v>1</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>1</v>
+      </c>
+      <c r="P68" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+    </row>
+    <row r="69" spans="1:21" ht="102" x14ac:dyDescent="0.2">
+      <c r="A69" s="10">
+        <f t="shared" ref="A69:A78" si="1">1+A68</f>
+        <v>67</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>2021</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H69" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="I69" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>1</v>
+      </c>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+    </row>
+    <row r="70" spans="1:21" ht="102" x14ac:dyDescent="0.2">
+      <c r="A70" s="10">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D70" s="9">
+        <v>1</v>
+      </c>
+      <c r="E70" s="9">
+        <v>1</v>
+      </c>
+      <c r="F70" s="3">
+        <v>2021</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="H70" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="I70" s="53">
+        <v>20</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>1</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>1</v>
+      </c>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+    </row>
+    <row r="71" spans="1:21" ht="153" x14ac:dyDescent="0.2">
+      <c r="A71" s="10">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D71" s="9">
+        <v>1</v>
+      </c>
+      <c r="E71" s="9">
+        <v>1</v>
+      </c>
+      <c r="F71" s="3">
+        <v>2021</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="H71" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="I71" s="53">
+        <v>0</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="12"/>
+    </row>
+    <row r="72" spans="1:21" ht="153" x14ac:dyDescent="0.2">
+      <c r="A72" s="10">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D72" s="3">
+        <v>1</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F72" s="3">
+        <v>2020</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="H72" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="I72" s="53">
+        <v>30</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="M72" s="3">
+        <v>1</v>
+      </c>
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>1</v>
+      </c>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+    </row>
+    <row r="73" spans="1:21" ht="102" x14ac:dyDescent="0.2">
+      <c r="A73" s="10">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D73" s="3">
+        <v>1</v>
+      </c>
+      <c r="E73" s="3">
+        <v>1</v>
+      </c>
+      <c r="F73" s="3">
+        <v>2020</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="H73" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="I73" s="53">
+        <v>90</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>1</v>
+      </c>
+      <c r="O73" s="3">
+        <v>1</v>
+      </c>
+      <c r="P73" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>1</v>
+      </c>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+    </row>
+    <row r="74" spans="1:21" ht="136" x14ac:dyDescent="0.2">
+      <c r="A74" s="10">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1</v>
+      </c>
+      <c r="F74" s="3">
+        <v>2020</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="H74" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="I74" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>1</v>
+      </c>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+    </row>
+    <row r="75" spans="1:21" ht="85" x14ac:dyDescent="0.2">
+      <c r="A75" s="10">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D75" s="3">
+        <v>1</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1</v>
+      </c>
+      <c r="F75" s="3">
+        <v>2020</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="H75" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="I75" s="53">
+        <v>80</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="L75" s="73" t="s">
+        <v>293</v>
+      </c>
+      <c r="M75" s="3">
+        <v>1</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="12"/>
+      <c r="S75" s="12"/>
+      <c r="T75" s="12"/>
+      <c r="U75" s="12"/>
+    </row>
+    <row r="76" spans="1:21" ht="102" x14ac:dyDescent="0.2">
+      <c r="A76" s="10">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3">
+        <v>2020</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="H76" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="I76" s="53">
+        <v>90</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="L76" s="73" t="s">
+        <v>293</v>
+      </c>
+      <c r="M76" s="3">
+        <v>1</v>
+      </c>
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>1</v>
+      </c>
+      <c r="R76" s="12"/>
+      <c r="S76" s="12"/>
+      <c r="T76" s="12"/>
+      <c r="U76" s="12"/>
+    </row>
+    <row r="77" spans="1:21" ht="119" x14ac:dyDescent="0.2">
+      <c r="A77" s="10">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1</v>
+      </c>
+      <c r="F77" s="3">
+        <v>2020</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="H77" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="I77" s="53">
+        <v>20</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="K77" s="73" t="s">
+        <v>369</v>
+      </c>
+      <c r="L77" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="M77" s="3">
+        <v>1</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>1</v>
+      </c>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A78" s="10">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B78" s="10"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="68"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="73"/>
+      <c r="L78" s="73"/>
+      <c r="M78" s="73"/>
+      <c r="N78" s="73"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8165,6 +9153,21 @@
     <hyperlink ref="H60" r:id="rId50" xr:uid="{92796595-BBB0-4A4D-B49D-D4ED2E21D548}"/>
     <hyperlink ref="H61" r:id="rId51" xr:uid="{3D151479-4FE8-CB4B-A4F7-02E00C6DF269}"/>
     <hyperlink ref="H62" r:id="rId52" xr:uid="{78FD5095-135A-9C4B-8374-AFCDC5245422}"/>
+    <hyperlink ref="H63" r:id="rId53" xr:uid="{7FC69D0C-5026-464A-8BFB-D1EE1FDFDC75}"/>
+    <hyperlink ref="H64" r:id="rId54" xr:uid="{08ABD597-4033-4146-BDB0-971790E3952A}"/>
+    <hyperlink ref="H65" r:id="rId55" xr:uid="{C7E807C3-2A3C-1B4D-BFBE-86D6B4AE31C3}"/>
+    <hyperlink ref="H66" r:id="rId56" xr:uid="{37CF8C64-11F9-7546-AF86-401C9D9AD68E}"/>
+    <hyperlink ref="H67" r:id="rId57" xr:uid="{42FEB515-F54E-2340-B57C-08D0D21AC1FB}"/>
+    <hyperlink ref="H68" r:id="rId58" xr:uid="{2F673E79-3C3B-C844-9D30-E8987285083A}"/>
+    <hyperlink ref="H69" r:id="rId59" xr:uid="{50C74627-C209-6649-8AC0-B3CC9EB01013}"/>
+    <hyperlink ref="H70" r:id="rId60" xr:uid="{B2ED5028-0067-ED4B-A271-B4343228F7A4}"/>
+    <hyperlink ref="H71" r:id="rId61" xr:uid="{1C468C49-92A6-394B-9CF5-F7A61AACD7EE}"/>
+    <hyperlink ref="H72" r:id="rId62" xr:uid="{BC71D9B9-BC9C-0245-92F1-827FF3C4F10C}"/>
+    <hyperlink ref="H73" r:id="rId63" xr:uid="{37A09D2E-BC54-4B46-B338-6CC723647A46}"/>
+    <hyperlink ref="H74" r:id="rId64" xr:uid="{916FDBE3-22DF-4542-92F8-F98641542F3F}"/>
+    <hyperlink ref="H75" r:id="rId65" xr:uid="{594F0628-6FEB-AD40-BDAF-40F648CC2FFE}"/>
+    <hyperlink ref="H76" r:id="rId66" xr:uid="{EEDC0C48-1DC8-5142-B625-DDA4E87839FD}"/>
+    <hyperlink ref="H77" r:id="rId67" xr:uid="{A6093484-C66E-C243-BF14-2D9F2879CD28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8175,7 +9178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178CD172-0D52-754C-82C4-99997D10B8F8}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -8191,221 +9194,221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="66">
-        <v>1</v>
-      </c>
-      <c r="C1" s="66">
+      <c r="B1" s="63">
+        <v>1</v>
+      </c>
+      <c r="C1" s="63">
         <v>2</v>
       </c>
-      <c r="D1" s="66">
+      <c r="D1" s="63">
         <v>3</v>
       </c>
-      <c r="E1" s="66">
+      <c r="E1" s="63">
         <v>4</v>
       </c>
-      <c r="F1" s="66">
+      <c r="F1" s="63">
         <v>5</v>
       </c>
-      <c r="G1" s="66">
+      <c r="G1" s="63">
         <v>6</v>
       </c>
-      <c r="H1" s="66">
+      <c r="H1" s="63">
         <v>7</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="K1" s="66">
-        <v>1</v>
-      </c>
-      <c r="L1" s="67">
+      <c r="K1" s="63">
+        <v>1</v>
+      </c>
+      <c r="L1" s="64">
         <v>2</v>
       </c>
-      <c r="M1" s="67">
+      <c r="M1" s="64">
         <v>3</v>
       </c>
-      <c r="N1" s="66">
+      <c r="N1" s="63">
         <v>4</v>
       </c>
-      <c r="O1" s="66">
+      <c r="O1" s="63">
         <v>5</v>
       </c>
-      <c r="P1" s="66">
+      <c r="P1" s="63">
         <v>6</v>
       </c>
-      <c r="Q1" s="66">
+      <c r="Q1" s="63">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58">
         <f>COUNTIF(Sheet1!B3:B96,"Peer reviewed")</f>
-        <v>51</v>
-      </c>
-      <c r="C2" s="61">
+        <v>65</v>
+      </c>
+      <c r="C2" s="58">
         <f>COUNTIF(Sheet1!E3:E96,1)</f>
-        <v>50</v>
-      </c>
-      <c r="D2" s="61">
+        <v>63</v>
+      </c>
+      <c r="D2" s="58">
         <f>COUNTIF(Sheet1!I3:I97,"&lt;=50")</f>
-        <v>13</v>
-      </c>
-      <c r="E2" s="61">
+        <v>18</v>
+      </c>
+      <c r="E2" s="58">
         <f>COUNTIF(Sheet1!J3:J96,"*Mosquitoes*")</f>
-        <v>18</v>
-      </c>
-      <c r="F2" s="61">
+        <v>25</v>
+      </c>
+      <c r="F2" s="58">
         <f>COUNTIF(Sheet1!M3:M96,1)</f>
-        <v>28</v>
-      </c>
-      <c r="G2" s="61">
+        <v>35</v>
+      </c>
+      <c r="G2" s="58">
         <f>COUNTIF(Sheet1!P3:P96,"*Suppression*")+COUNTIF(Sheet1!P3:P96,"*Both*")</f>
-        <v>29</v>
-      </c>
-      <c r="H2" s="61">
+        <v>37</v>
+      </c>
+      <c r="H2" s="58">
         <f>COUNTIF(Sheet1!Q3:Q96,1)</f>
-        <v>31</v>
-      </c>
-      <c r="J2" s="63"/>
-      <c r="K2" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="60"/>
+      <c r="K2" s="58" t="s">
         <v>216</v>
       </c>
-      <c r="L2" s="61" t="s">
+      <c r="L2" s="58" t="s">
         <v>235</v>
       </c>
-      <c r="M2" s="61" t="s">
+      <c r="M2" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="N2" s="61" t="s">
+      <c r="N2" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="61" t="s">
+      <c r="O2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="61" t="s">
+      <c r="P2" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="Q2" s="61" t="s">
+      <c r="Q2" s="58" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="60"/>
-      <c r="B3" s="59">
+      <c r="A3" s="57"/>
+      <c r="B3" s="56">
         <f>COUNTIF(Sheet1!B3:B96,"Report")</f>
         <v>4</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="56">
         <f>COUNTIF(Sheet1!E3:E96,0)</f>
-        <v>10</v>
-      </c>
-      <c r="D3" s="59">
+        <v>11</v>
+      </c>
+      <c r="D3" s="56">
         <f>COUNTIF(Sheet1!I3:I97,"&gt;=50")</f>
+        <v>42</v>
+      </c>
+      <c r="E3" s="56">
+        <f>COUNTIF(Sheet1!J3:J96,"*Fruit Fly*")</f>
+        <v>13</v>
+      </c>
+      <c r="F3" s="56">
+        <f>COUNTIF(Sheet1!N3:N96,1)</f>
+        <v>18</v>
+      </c>
+      <c r="G3" s="56">
+        <f>COUNTIF(Sheet1!P3:P96,"*Replacement*")+COUNTIF(Sheet1!P3:P96,"*Both*")</f>
         <v>35</v>
       </c>
-      <c r="E3" s="59">
-        <f>COUNTIF(Sheet1!J3:J96,"*Fruit Fly*")</f>
-        <v>10</v>
-      </c>
-      <c r="F3" s="59">
-        <f>COUNTIF(Sheet1!N3:N96,1)</f>
-        <v>15</v>
-      </c>
-      <c r="G3" s="59">
-        <f>COUNTIF(Sheet1!P3:P96,"*Replacement*")+COUNTIF(Sheet1!P3:P96,"*Both*")</f>
-        <v>28</v>
-      </c>
-      <c r="H3" s="59">
+      <c r="H3" s="56">
         <f>COUNTIF(Sheet1!Q3:Q96,0)</f>
-        <v>17</v>
-      </c>
-      <c r="J3" s="63"/>
-      <c r="K3" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="60"/>
+      <c r="K3" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="L3" s="64" t="s">
+      <c r="L3" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="M3" s="64" t="s">
+      <c r="M3" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="N3" s="64" t="s">
+      <c r="N3" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="O3" s="64" t="s">
+      <c r="O3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="64" t="s">
+      <c r="P3" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" s="64" t="s">
+      <c r="Q3" s="61" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="60"/>
-      <c r="B4" s="61">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58">
         <f>COUNTIF(Sheet1!B3:B96,"Preprint")</f>
+        <v>6</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="59">
+        <f>COUNTIF(Sheet1!I3:I96,"Perspective")+COUNTIF(Sheet1!I3:I96,"Report")+COUNTIF(Sheet1!I3:I96,"Review")</f>
+        <v>15</v>
+      </c>
+      <c r="E4" s="58">
+        <f>COUNTIF(Sheet1!J3:J96,"*Generic*")</f>
+        <v>20</v>
+      </c>
+      <c r="F4" s="58">
+        <f>COUNTIF(Sheet1!O3:O96,1)</f>
+        <v>22</v>
+      </c>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="L4" s="58"/>
+      <c r="M4" s="62" t="s">
+        <v>238</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="62">
-        <f>COUNTIF(Sheet1!I3:I96,"Perspective")+COUNTIF(Sheet1!I3:I96,"Report")+COUNTIF(Sheet1!I3:I96,"Review")</f>
-        <v>13</v>
-      </c>
-      <c r="E4" s="61">
-        <f>COUNTIF(Sheet1!J3:J96,"*Generic*")</f>
-        <v>17</v>
-      </c>
-      <c r="F4" s="61">
-        <f>COUNTIF(Sheet1!O3:O96,1)</f>
-        <v>19</v>
-      </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="65" t="s">
-        <v>238</v>
-      </c>
-      <c r="N4" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="O4" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59">
+      <c r="A5" s="57"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56">
         <f>COUNTIF(Sheet1!J3:J96,"*Rodents*")+COUNTIF(Sheet1!J4:J97,"*Beetle*")</f>
         <v>4</v>
       </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61" t="s">
         <v>239</v>
       </c>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="64"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
